--- a/Account_Invest_Income_Task_TxnMaster_Demo_2025_10_27.xlsx
+++ b/Account_Invest_Income_Task_TxnMaster_Demo_2025_10_27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Ac_Holder" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Frequency" sheetId="12" r:id="rId12"/>
     <sheet name="Txn_Income" sheetId="14" r:id="rId13"/>
     <sheet name="Txn_Investment" sheetId="15" r:id="rId14"/>
-    <sheet name="Txn_Expance" sheetId="16" r:id="rId15"/>
+    <sheet name="Txn_Expanse" sheetId="16" r:id="rId15"/>
     <sheet name="Txn_Task" sheetId="23" r:id="rId16"/>
     <sheet name="Task_Category" sheetId="17" r:id="rId17"/>
     <sheet name="Task_Tag" sheetId="18" r:id="rId18"/>
@@ -36,7 +36,7 @@
     <sheet name="Task_Adhoc" sheetId="22" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Txn_Expance!A1:M201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Txn_Expanse!A1:M201</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Txn_Income!$A$1:$K$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Txn_Investment!$A$1:$M$40</definedName>
     <definedName name="Ac_Holder_List">Ac_Holder!$A$2:$A$12</definedName>
@@ -1665,9 +1665,6 @@
     <t>Demo Investment 208MA</t>
   </si>
   <si>
-    <t>Expance_Description</t>
-  </si>
-  <si>
     <t>Paid_Date</t>
   </si>
   <si>
@@ -3844,6 +3841,9 @@
   </si>
   <si>
     <t>Investment_Ac_Tag</t>
+  </si>
+  <si>
+    <t>Expanse_Description</t>
   </si>
 </sst>
 </file>
@@ -4640,7 +4640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4656,10 +4656,10 @@
         <v>349</v>
       </c>
       <c r="B1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -8025,7 +8025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -8041,10 +8041,10 @@
         <v>474</v>
       </c>
       <c r="B1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -9349,8 +9349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9368,13 +9368,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>535</v>
+        <v>1261</v>
       </c>
       <c r="B1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D1" t="s">
         <v>292</v>
@@ -9395,7 +9395,7 @@
         <v>476</v>
       </c>
       <c r="J1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K1" t="s">
         <v>477</v>
@@ -9409,7 +9409,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -9430,10 +9430,10 @@
         <v>343</v>
       </c>
       <c r="I2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J2" t="s">
         <v>538</v>
-      </c>
-      <c r="J2" t="s">
-        <v>539</v>
       </c>
       <c r="K2" t="s">
         <v>134</v>
@@ -9447,7 +9447,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -9468,10 +9468,10 @@
         <v>343</v>
       </c>
       <c r="I3" t="s">
+        <v>540</v>
+      </c>
+      <c r="J3" t="s">
         <v>541</v>
-      </c>
-      <c r="J3" t="s">
-        <v>542</v>
       </c>
       <c r="K3" t="s">
         <v>134</v>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -9506,10 +9506,10 @@
         <v>343</v>
       </c>
       <c r="I4" t="s">
+        <v>543</v>
+      </c>
+      <c r="J4" t="s">
         <v>544</v>
-      </c>
-      <c r="J4" t="s">
-        <v>545</v>
       </c>
       <c r="K4" t="s">
         <v>141</v>
@@ -9523,7 +9523,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -9544,10 +9544,10 @@
         <v>343</v>
       </c>
       <c r="I5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K5" t="s">
         <v>134</v>
@@ -9561,7 +9561,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -9582,7 +9582,7 @@
         <v>343</v>
       </c>
       <c r="I6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J6" t="s">
         <v>480</v>
@@ -9599,7 +9599,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -9620,10 +9620,10 @@
         <v>343</v>
       </c>
       <c r="I7" t="s">
+        <v>550</v>
+      </c>
+      <c r="J7" t="s">
         <v>551</v>
-      </c>
-      <c r="J7" t="s">
-        <v>552</v>
       </c>
       <c r="K7" t="s">
         <v>134</v>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -9658,10 +9658,10 @@
         <v>343</v>
       </c>
       <c r="I8" t="s">
+        <v>553</v>
+      </c>
+      <c r="J8" t="s">
         <v>554</v>
-      </c>
-      <c r="J8" t="s">
-        <v>555</v>
       </c>
       <c r="K8" t="s">
         <v>134</v>
@@ -9675,7 +9675,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -9696,10 +9696,10 @@
         <v>347</v>
       </c>
       <c r="I9" t="s">
+        <v>556</v>
+      </c>
+      <c r="J9" t="s">
         <v>557</v>
-      </c>
-      <c r="J9" t="s">
-        <v>558</v>
       </c>
       <c r="K9" t="s">
         <v>119</v>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -9734,10 +9734,10 @@
         <v>343</v>
       </c>
       <c r="I10" t="s">
+        <v>559</v>
+      </c>
+      <c r="J10" t="s">
         <v>560</v>
-      </c>
-      <c r="J10" t="s">
-        <v>561</v>
       </c>
       <c r="K10" t="s">
         <v>128</v>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -9772,10 +9772,10 @@
         <v>347</v>
       </c>
       <c r="I11" t="s">
+        <v>562</v>
+      </c>
+      <c r="J11" t="s">
         <v>563</v>
-      </c>
-      <c r="J11" t="s">
-        <v>564</v>
       </c>
       <c r="K11" t="s">
         <v>134</v>
@@ -9789,7 +9789,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -9810,10 +9810,10 @@
         <v>343</v>
       </c>
       <c r="I12" t="s">
+        <v>565</v>
+      </c>
+      <c r="J12" t="s">
         <v>566</v>
-      </c>
-      <c r="J12" t="s">
-        <v>567</v>
       </c>
       <c r="K12" t="s">
         <v>145</v>
@@ -9827,7 +9827,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -9848,7 +9848,7 @@
         <v>347</v>
       </c>
       <c r="I13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J13" t="s">
         <v>404</v>
@@ -9865,7 +9865,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -9886,10 +9886,10 @@
         <v>343</v>
       </c>
       <c r="I14" t="s">
+        <v>570</v>
+      </c>
+      <c r="J14" t="s">
         <v>571</v>
-      </c>
-      <c r="J14" t="s">
-        <v>572</v>
       </c>
       <c r="K14" t="s">
         <v>134</v>
@@ -9903,7 +9903,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -9924,10 +9924,10 @@
         <v>343</v>
       </c>
       <c r="I15" t="s">
+        <v>573</v>
+      </c>
+      <c r="J15" t="s">
         <v>574</v>
-      </c>
-      <c r="J15" t="s">
-        <v>575</v>
       </c>
       <c r="K15" t="s">
         <v>134</v>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -9962,10 +9962,10 @@
         <v>343</v>
       </c>
       <c r="I16" t="s">
+        <v>576</v>
+      </c>
+      <c r="J16" t="s">
         <v>577</v>
-      </c>
-      <c r="J16" t="s">
-        <v>578</v>
       </c>
       <c r="K16" t="s">
         <v>139</v>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -10000,10 +10000,10 @@
         <v>347</v>
       </c>
       <c r="I17" t="s">
+        <v>579</v>
+      </c>
+      <c r="J17" t="s">
         <v>580</v>
-      </c>
-      <c r="J17" t="s">
-        <v>581</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -10038,10 +10038,10 @@
         <v>343</v>
       </c>
       <c r="I18" t="s">
+        <v>582</v>
+      </c>
+      <c r="J18" t="s">
         <v>583</v>
-      </c>
-      <c r="J18" t="s">
-        <v>584</v>
       </c>
       <c r="K18" t="s">
         <v>107</v>
@@ -10055,7 +10055,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -10076,10 +10076,10 @@
         <v>343</v>
       </c>
       <c r="I19" t="s">
+        <v>585</v>
+      </c>
+      <c r="J19" t="s">
         <v>586</v>
-      </c>
-      <c r="J19" t="s">
-        <v>587</v>
       </c>
       <c r="K19" t="s">
         <v>139</v>
@@ -10093,7 +10093,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -10114,7 +10114,7 @@
         <v>347</v>
       </c>
       <c r="I20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J20" t="s">
         <v>470</v>
@@ -10131,7 +10131,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -10155,7 +10155,7 @@
         <v>412</v>
       </c>
       <c r="J21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K21" t="s">
         <v>75</v>
@@ -10169,7 +10169,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
@@ -10190,10 +10190,10 @@
         <v>343</v>
       </c>
       <c r="I22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K22" t="s">
         <v>140</v>
@@ -10207,7 +10207,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -10228,10 +10228,10 @@
         <v>346</v>
       </c>
       <c r="I23" t="s">
+        <v>594</v>
+      </c>
+      <c r="J23" t="s">
         <v>595</v>
-      </c>
-      <c r="J23" t="s">
-        <v>596</v>
       </c>
       <c r="K23" t="s">
         <v>26</v>
@@ -10245,7 +10245,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
@@ -10266,10 +10266,10 @@
         <v>338</v>
       </c>
       <c r="I24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J24" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K24" t="s">
         <v>92</v>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -10304,10 +10304,10 @@
         <v>343</v>
       </c>
       <c r="I25" t="s">
+        <v>599</v>
+      </c>
+      <c r="J25" t="s">
         <v>600</v>
-      </c>
-      <c r="J25" t="s">
-        <v>601</v>
       </c>
       <c r="K25" t="s">
         <v>107</v>
@@ -10321,7 +10321,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -10342,10 +10342,10 @@
         <v>343</v>
       </c>
       <c r="I26" t="s">
+        <v>602</v>
+      </c>
+      <c r="J26" t="s">
         <v>603</v>
-      </c>
-      <c r="J26" t="s">
-        <v>604</v>
       </c>
       <c r="K26" t="s">
         <v>134</v>
@@ -10359,7 +10359,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -10380,7 +10380,7 @@
         <v>343</v>
       </c>
       <c r="I27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J27" t="s">
         <v>442</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
@@ -10418,10 +10418,10 @@
         <v>343</v>
       </c>
       <c r="I28" t="s">
+        <v>607</v>
+      </c>
+      <c r="J28" t="s">
         <v>608</v>
-      </c>
-      <c r="J28" t="s">
-        <v>609</v>
       </c>
       <c r="K28" t="s">
         <v>122</v>
@@ -10435,7 +10435,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B29" t="s">
         <v>73</v>
@@ -10456,7 +10456,7 @@
         <v>343</v>
       </c>
       <c r="I29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J29" t="s">
         <v>357</v>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
@@ -10494,10 +10494,10 @@
         <v>343</v>
       </c>
       <c r="I30" t="s">
+        <v>612</v>
+      </c>
+      <c r="J30" t="s">
         <v>613</v>
-      </c>
-      <c r="J30" t="s">
-        <v>614</v>
       </c>
       <c r="K30" t="s">
         <v>139</v>
@@ -10511,7 +10511,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
@@ -10532,10 +10532,10 @@
         <v>343</v>
       </c>
       <c r="I31" t="s">
+        <v>615</v>
+      </c>
+      <c r="J31" t="s">
         <v>616</v>
-      </c>
-      <c r="J31" t="s">
-        <v>617</v>
       </c>
       <c r="K31" t="s">
         <v>107</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
@@ -10570,10 +10570,10 @@
         <v>343</v>
       </c>
       <c r="I32" t="s">
+        <v>618</v>
+      </c>
+      <c r="J32" t="s">
         <v>619</v>
-      </c>
-      <c r="J32" t="s">
-        <v>620</v>
       </c>
       <c r="K32" t="s">
         <v>139</v>
@@ -10587,7 +10587,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B33" t="s">
         <v>74</v>
@@ -10608,10 +10608,10 @@
         <v>346</v>
       </c>
       <c r="I33" t="s">
+        <v>621</v>
+      </c>
+      <c r="J33" t="s">
         <v>622</v>
-      </c>
-      <c r="J33" t="s">
-        <v>623</v>
       </c>
       <c r="K33" t="s">
         <v>26</v>
@@ -10625,7 +10625,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
@@ -10646,10 +10646,10 @@
         <v>343</v>
       </c>
       <c r="I34" t="s">
+        <v>624</v>
+      </c>
+      <c r="J34" t="s">
         <v>625</v>
-      </c>
-      <c r="J34" t="s">
-        <v>626</v>
       </c>
       <c r="K34" t="s">
         <v>75</v>
@@ -10663,7 +10663,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B35" t="s">
         <v>73</v>
@@ -10684,10 +10684,10 @@
         <v>343</v>
       </c>
       <c r="I35" t="s">
+        <v>627</v>
+      </c>
+      <c r="J35" t="s">
         <v>628</v>
-      </c>
-      <c r="J35" t="s">
-        <v>629</v>
       </c>
       <c r="K35" t="s">
         <v>145</v>
@@ -10701,7 +10701,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -10722,10 +10722,10 @@
         <v>344</v>
       </c>
       <c r="I36" t="s">
+        <v>630</v>
+      </c>
+      <c r="J36" t="s">
         <v>631</v>
-      </c>
-      <c r="J36" t="s">
-        <v>632</v>
       </c>
       <c r="K36" t="s">
         <v>145</v>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B37" t="s">
         <v>69</v>
@@ -10760,10 +10760,10 @@
         <v>343</v>
       </c>
       <c r="I37" t="s">
+        <v>633</v>
+      </c>
+      <c r="J37" t="s">
         <v>634</v>
-      </c>
-      <c r="J37" t="s">
-        <v>635</v>
       </c>
       <c r="K37" t="s">
         <v>75</v>
@@ -10777,7 +10777,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -10798,10 +10798,10 @@
         <v>343</v>
       </c>
       <c r="I38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K38" t="s">
         <v>140</v>
@@ -10815,7 +10815,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B39" t="s">
         <v>62</v>
@@ -10836,10 +10836,10 @@
         <v>347</v>
       </c>
       <c r="I39" t="s">
+        <v>638</v>
+      </c>
+      <c r="J39" t="s">
         <v>639</v>
-      </c>
-      <c r="J39" t="s">
-        <v>640</v>
       </c>
       <c r="K39" t="s">
         <v>119</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -10874,10 +10874,10 @@
         <v>343</v>
       </c>
       <c r="I40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J40" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K40" t="s">
         <v>139</v>
@@ -10891,7 +10891,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
@@ -10912,10 +10912,10 @@
         <v>343</v>
       </c>
       <c r="I41" t="s">
+        <v>643</v>
+      </c>
+      <c r="J41" t="s">
         <v>644</v>
-      </c>
-      <c r="J41" t="s">
-        <v>645</v>
       </c>
       <c r="K41" t="s">
         <v>134</v>
@@ -10929,7 +10929,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
@@ -10953,7 +10953,7 @@
         <v>401</v>
       </c>
       <c r="J42" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K42" t="s">
         <v>140</v>
@@ -10967,7 +10967,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B43" t="s">
         <v>73</v>
@@ -10988,10 +10988,10 @@
         <v>343</v>
       </c>
       <c r="I43" t="s">
+        <v>648</v>
+      </c>
+      <c r="J43" t="s">
         <v>649</v>
-      </c>
-      <c r="J43" t="s">
-        <v>650</v>
       </c>
       <c r="K43" t="s">
         <v>145</v>
@@ -11005,7 +11005,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B44" t="s">
         <v>74</v>
@@ -11043,7 +11043,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -11064,10 +11064,10 @@
         <v>343</v>
       </c>
       <c r="I45" t="s">
+        <v>652</v>
+      </c>
+      <c r="J45" t="s">
         <v>653</v>
-      </c>
-      <c r="J45" t="s">
-        <v>654</v>
       </c>
       <c r="K45" t="s">
         <v>107</v>
@@ -11081,7 +11081,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B46" t="s">
         <v>69</v>
@@ -11105,7 +11105,7 @@
         <v>479</v>
       </c>
       <c r="J46" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K46" t="s">
         <v>107</v>
@@ -11119,7 +11119,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B47" t="s">
         <v>74</v>
@@ -11140,7 +11140,7 @@
         <v>346</v>
       </c>
       <c r="I47" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J47" t="s">
         <v>403</v>
@@ -11157,7 +11157,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B48" t="s">
         <v>68</v>
@@ -11178,10 +11178,10 @@
         <v>338</v>
       </c>
       <c r="I48" t="s">
+        <v>659</v>
+      </c>
+      <c r="J48" t="s">
         <v>660</v>
-      </c>
-      <c r="J48" t="s">
-        <v>661</v>
       </c>
       <c r="K48" t="s">
         <v>129</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B49" t="s">
         <v>44</v>
@@ -11216,10 +11216,10 @@
         <v>343</v>
       </c>
       <c r="I49" t="s">
+        <v>662</v>
+      </c>
+      <c r="J49" t="s">
         <v>663</v>
-      </c>
-      <c r="J49" t="s">
-        <v>664</v>
       </c>
       <c r="K49" t="s">
         <v>134</v>
@@ -11233,7 +11233,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
@@ -11254,7 +11254,7 @@
         <v>343</v>
       </c>
       <c r="I50" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J50" t="s">
         <v>411</v>
@@ -11271,7 +11271,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
@@ -11292,10 +11292,10 @@
         <v>343</v>
       </c>
       <c r="I51" t="s">
+        <v>667</v>
+      </c>
+      <c r="J51" t="s">
         <v>668</v>
-      </c>
-      <c r="J51" t="s">
-        <v>669</v>
       </c>
       <c r="K51" t="s">
         <v>134</v>
@@ -11309,7 +11309,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B52" t="s">
         <v>69</v>
@@ -11330,10 +11330,10 @@
         <v>344</v>
       </c>
       <c r="I52" t="s">
+        <v>670</v>
+      </c>
+      <c r="J52" t="s">
         <v>671</v>
-      </c>
-      <c r="J52" t="s">
-        <v>672</v>
       </c>
       <c r="K52" t="s">
         <v>107</v>
@@ -11347,7 +11347,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B53" t="s">
         <v>69</v>
@@ -11368,16 +11368,16 @@
         <v>338</v>
       </c>
       <c r="I53" t="s">
+        <v>673</v>
+      </c>
+      <c r="J53" t="s">
         <v>674</v>
-      </c>
-      <c r="J53" t="s">
-        <v>675</v>
       </c>
       <c r="K53" t="s">
         <v>96</v>
       </c>
       <c r="L53" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M53" t="s">
         <v>323</v>
@@ -11385,7 +11385,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
@@ -11406,10 +11406,10 @@
         <v>343</v>
       </c>
       <c r="I54" t="s">
+        <v>677</v>
+      </c>
+      <c r="J54" t="s">
         <v>678</v>
-      </c>
-      <c r="J54" t="s">
-        <v>679</v>
       </c>
       <c r="K54" t="s">
         <v>134</v>
@@ -11423,7 +11423,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -11447,7 +11447,7 @@
         <v>430</v>
       </c>
       <c r="J55" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K55" t="s">
         <v>119</v>
@@ -11461,7 +11461,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
@@ -11482,10 +11482,10 @@
         <v>343</v>
       </c>
       <c r="I56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J56" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K56" t="s">
         <v>122</v>
@@ -11499,7 +11499,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
@@ -11520,10 +11520,10 @@
         <v>347</v>
       </c>
       <c r="I57" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J57" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K57" t="s">
         <v>75</v>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -11558,10 +11558,10 @@
         <v>343</v>
       </c>
       <c r="I58" t="s">
+        <v>686</v>
+      </c>
+      <c r="J58" t="s">
         <v>687</v>
-      </c>
-      <c r="J58" t="s">
-        <v>688</v>
       </c>
       <c r="K58" t="s">
         <v>134</v>
@@ -11575,7 +11575,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -11596,10 +11596,10 @@
         <v>347</v>
       </c>
       <c r="I59" t="s">
+        <v>689</v>
+      </c>
+      <c r="J59" t="s">
         <v>690</v>
-      </c>
-      <c r="J59" t="s">
-        <v>691</v>
       </c>
       <c r="K59" t="s">
         <v>119</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
@@ -11634,10 +11634,10 @@
         <v>343</v>
       </c>
       <c r="I60" t="s">
+        <v>692</v>
+      </c>
+      <c r="J60" t="s">
         <v>693</v>
-      </c>
-      <c r="J60" t="s">
-        <v>694</v>
       </c>
       <c r="K60" t="s">
         <v>134</v>
@@ -11651,7 +11651,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B61" t="s">
         <v>56</v>
@@ -11672,10 +11672,10 @@
         <v>343</v>
       </c>
       <c r="I61" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J61" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K61" t="s">
         <v>107</v>
@@ -11689,7 +11689,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -11710,10 +11710,10 @@
         <v>343</v>
       </c>
       <c r="I62" t="s">
+        <v>697</v>
+      </c>
+      <c r="J62" t="s">
         <v>698</v>
-      </c>
-      <c r="J62" t="s">
-        <v>699</v>
       </c>
       <c r="K62" t="s">
         <v>140</v>
@@ -11727,7 +11727,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B63" t="s">
         <v>70</v>
@@ -11745,7 +11745,7 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I63" t="s">
         <v>482</v>
@@ -11765,7 +11765,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
@@ -11786,10 +11786,10 @@
         <v>343</v>
       </c>
       <c r="I64" t="s">
+        <v>702</v>
+      </c>
+      <c r="J64" t="s">
         <v>703</v>
-      </c>
-      <c r="J64" t="s">
-        <v>704</v>
       </c>
       <c r="K64" t="s">
         <v>111</v>
@@ -11803,7 +11803,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B65" t="s">
         <v>39</v>
@@ -11824,10 +11824,10 @@
         <v>343</v>
       </c>
       <c r="I65" t="s">
+        <v>705</v>
+      </c>
+      <c r="J65" t="s">
         <v>706</v>
-      </c>
-      <c r="J65" t="s">
-        <v>707</v>
       </c>
       <c r="K65" t="s">
         <v>134</v>
@@ -11841,7 +11841,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
@@ -11862,16 +11862,16 @@
         <v>338</v>
       </c>
       <c r="I66" t="s">
+        <v>708</v>
+      </c>
+      <c r="J66" t="s">
         <v>709</v>
-      </c>
-      <c r="J66" t="s">
-        <v>710</v>
       </c>
       <c r="K66" t="s">
         <v>119</v>
       </c>
       <c r="L66" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M66" t="s">
         <v>323</v>
@@ -11879,7 +11879,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B67" t="s">
         <v>39</v>
@@ -11900,10 +11900,10 @@
         <v>343</v>
       </c>
       <c r="I67" t="s">
+        <v>712</v>
+      </c>
+      <c r="J67" t="s">
         <v>713</v>
-      </c>
-      <c r="J67" t="s">
-        <v>714</v>
       </c>
       <c r="K67" t="s">
         <v>134</v>
@@ -11917,7 +11917,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B68" t="s">
         <v>39</v>
@@ -11938,10 +11938,10 @@
         <v>343</v>
       </c>
       <c r="I68" t="s">
+        <v>715</v>
+      </c>
+      <c r="J68" t="s">
         <v>716</v>
-      </c>
-      <c r="J68" t="s">
-        <v>717</v>
       </c>
       <c r="K68" t="s">
         <v>107</v>
@@ -11955,7 +11955,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B69" t="s">
         <v>39</v>
@@ -11976,10 +11976,10 @@
         <v>343</v>
       </c>
       <c r="I69" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J69" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K69" t="s">
         <v>139</v>
@@ -11993,7 +11993,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -12014,10 +12014,10 @@
         <v>344</v>
       </c>
       <c r="I70" t="s">
+        <v>720</v>
+      </c>
+      <c r="J70" t="s">
         <v>721</v>
-      </c>
-      <c r="J70" t="s">
-        <v>722</v>
       </c>
       <c r="K70" t="s">
         <v>145</v>
@@ -12031,7 +12031,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B71" t="s">
         <v>39</v>
@@ -12052,10 +12052,10 @@
         <v>343</v>
       </c>
       <c r="I71" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J71" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K71" t="s">
         <v>141</v>
@@ -12069,7 +12069,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B72" t="s">
         <v>63</v>
@@ -12090,10 +12090,10 @@
         <v>344</v>
       </c>
       <c r="I72" t="s">
+        <v>725</v>
+      </c>
+      <c r="J72" t="s">
         <v>726</v>
-      </c>
-      <c r="J72" t="s">
-        <v>727</v>
       </c>
       <c r="K72" t="s">
         <v>134</v>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B73" t="s">
         <v>56</v>
@@ -12128,10 +12128,10 @@
         <v>343</v>
       </c>
       <c r="I73" t="s">
+        <v>728</v>
+      </c>
+      <c r="J73" t="s">
         <v>729</v>
-      </c>
-      <c r="J73" t="s">
-        <v>730</v>
       </c>
       <c r="K73" t="s">
         <v>107</v>
@@ -12145,7 +12145,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B74" t="s">
         <v>39</v>
@@ -12166,10 +12166,10 @@
         <v>343</v>
       </c>
       <c r="I74" t="s">
+        <v>731</v>
+      </c>
+      <c r="J74" t="s">
         <v>732</v>
-      </c>
-      <c r="J74" t="s">
-        <v>733</v>
       </c>
       <c r="K74" t="s">
         <v>134</v>
@@ -12183,7 +12183,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
@@ -12207,7 +12207,7 @@
         <v>388</v>
       </c>
       <c r="J75" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K75" t="s">
         <v>145</v>
@@ -12221,7 +12221,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B76" t="s">
         <v>54</v>
@@ -12242,10 +12242,10 @@
         <v>344</v>
       </c>
       <c r="I76" t="s">
+        <v>736</v>
+      </c>
+      <c r="J76" t="s">
         <v>737</v>
-      </c>
-      <c r="J76" t="s">
-        <v>738</v>
       </c>
       <c r="K76" t="s">
         <v>26</v>
@@ -12259,7 +12259,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B77" t="s">
         <v>74</v>
@@ -12280,10 +12280,10 @@
         <v>346</v>
       </c>
       <c r="I77" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J77" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K77" t="s">
         <v>26</v>
@@ -12297,7 +12297,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B78" t="s">
         <v>62</v>
@@ -12318,10 +12318,10 @@
         <v>347</v>
       </c>
       <c r="I78" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J78" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K78" t="s">
         <v>119</v>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B79" t="s">
         <v>74</v>
@@ -12356,10 +12356,10 @@
         <v>346</v>
       </c>
       <c r="I79" t="s">
+        <v>742</v>
+      </c>
+      <c r="J79" t="s">
         <v>743</v>
-      </c>
-      <c r="J79" t="s">
-        <v>744</v>
       </c>
       <c r="K79" t="s">
         <v>26</v>
@@ -12373,7 +12373,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B80" t="s">
         <v>56</v>
@@ -12394,10 +12394,10 @@
         <v>347</v>
       </c>
       <c r="I80" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J80" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K80" t="s">
         <v>75</v>
@@ -12411,7 +12411,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B81" t="s">
         <v>43</v>
@@ -12432,7 +12432,7 @@
         <v>343</v>
       </c>
       <c r="I81" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J81" t="s">
         <v>374</v>
@@ -12449,7 +12449,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B82" t="s">
         <v>37</v>
@@ -12470,10 +12470,10 @@
         <v>344</v>
       </c>
       <c r="I82" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J82" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K82" t="s">
         <v>145</v>
@@ -12487,7 +12487,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B83" t="s">
         <v>39</v>
@@ -12511,7 +12511,7 @@
         <v>382</v>
       </c>
       <c r="J83" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K83" t="s">
         <v>134</v>
@@ -12525,7 +12525,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B84" t="s">
         <v>39</v>
@@ -12546,10 +12546,10 @@
         <v>343</v>
       </c>
       <c r="I84" t="s">
+        <v>751</v>
+      </c>
+      <c r="J84" t="s">
         <v>752</v>
-      </c>
-      <c r="J84" t="s">
-        <v>753</v>
       </c>
       <c r="K84" t="s">
         <v>134</v>
@@ -12563,7 +12563,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B85" t="s">
         <v>39</v>
@@ -12584,10 +12584,10 @@
         <v>343</v>
       </c>
       <c r="I85" t="s">
+        <v>754</v>
+      </c>
+      <c r="J85" t="s">
         <v>755</v>
-      </c>
-      <c r="J85" t="s">
-        <v>756</v>
       </c>
       <c r="K85" t="s">
         <v>77</v>
@@ -12601,7 +12601,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B86" t="s">
         <v>39</v>
@@ -12622,10 +12622,10 @@
         <v>343</v>
       </c>
       <c r="I86" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J86" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K86" t="s">
         <v>107</v>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B87" t="s">
         <v>74</v>
@@ -12660,7 +12660,7 @@
         <v>346</v>
       </c>
       <c r="I87" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J87" t="s">
         <v>468</v>
@@ -12677,7 +12677,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B88" t="s">
         <v>39</v>
@@ -12698,10 +12698,10 @@
         <v>343</v>
       </c>
       <c r="I88" t="s">
+        <v>761</v>
+      </c>
+      <c r="J88" t="s">
         <v>762</v>
-      </c>
-      <c r="J88" t="s">
-        <v>763</v>
       </c>
       <c r="K88" t="s">
         <v>134</v>
@@ -12715,7 +12715,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B89" t="s">
         <v>46</v>
@@ -12736,10 +12736,10 @@
         <v>343</v>
       </c>
       <c r="I89" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J89" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K89" t="s">
         <v>134</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
@@ -12774,10 +12774,10 @@
         <v>344</v>
       </c>
       <c r="I90" t="s">
+        <v>765</v>
+      </c>
+      <c r="J90" t="s">
         <v>766</v>
-      </c>
-      <c r="J90" t="s">
-        <v>767</v>
       </c>
       <c r="K90" t="s">
         <v>145</v>
@@ -12791,7 +12791,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B91" t="s">
         <v>69</v>
@@ -12812,7 +12812,7 @@
         <v>338</v>
       </c>
       <c r="I91" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J91" t="s">
         <v>467</v>
@@ -12829,7 +12829,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B92" t="s">
         <v>37</v>
@@ -12850,10 +12850,10 @@
         <v>347</v>
       </c>
       <c r="I92" t="s">
+        <v>770</v>
+      </c>
+      <c r="J92" t="s">
         <v>771</v>
-      </c>
-      <c r="J92" t="s">
-        <v>772</v>
       </c>
       <c r="K92" t="s">
         <v>119</v>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B93" t="s">
         <v>39</v>
@@ -12888,10 +12888,10 @@
         <v>343</v>
       </c>
       <c r="I93" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J93" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K93" t="s">
         <v>134</v>
@@ -12905,7 +12905,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B94" t="s">
         <v>61</v>
@@ -12926,10 +12926,10 @@
         <v>344</v>
       </c>
       <c r="I94" t="s">
+        <v>775</v>
+      </c>
+      <c r="J94" t="s">
         <v>776</v>
-      </c>
-      <c r="J94" t="s">
-        <v>777</v>
       </c>
       <c r="K94" t="s">
         <v>26</v>
@@ -12943,7 +12943,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
@@ -12967,7 +12967,7 @@
         <v>463</v>
       </c>
       <c r="J95" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K95" t="s">
         <v>119</v>
@@ -12981,7 +12981,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B96" t="s">
         <v>69</v>
@@ -13002,10 +13002,10 @@
         <v>343</v>
       </c>
       <c r="I96" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J96" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K96" t="s">
         <v>119</v>
@@ -13019,7 +13019,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B97" t="s">
         <v>39</v>
@@ -13040,7 +13040,7 @@
         <v>343</v>
       </c>
       <c r="I97" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J97" t="s">
         <v>468</v>
@@ -13057,7 +13057,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B98" t="s">
         <v>39</v>
@@ -13078,10 +13078,10 @@
         <v>343</v>
       </c>
       <c r="I98" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K98" t="s">
         <v>134</v>
@@ -13095,7 +13095,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B99" t="s">
         <v>73</v>
@@ -13116,10 +13116,10 @@
         <v>343</v>
       </c>
       <c r="I99" t="s">
+        <v>786</v>
+      </c>
+      <c r="J99" t="s">
         <v>787</v>
-      </c>
-      <c r="J99" t="s">
-        <v>788</v>
       </c>
       <c r="K99" t="s">
         <v>145</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B100" t="s">
         <v>39</v>
@@ -13154,10 +13154,10 @@
         <v>343</v>
       </c>
       <c r="I100" t="s">
+        <v>789</v>
+      </c>
+      <c r="J100" t="s">
         <v>790</v>
-      </c>
-      <c r="J100" t="s">
-        <v>791</v>
       </c>
       <c r="K100" t="s">
         <v>139</v>
@@ -13171,7 +13171,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B101" t="s">
         <v>73</v>
@@ -13192,7 +13192,7 @@
         <v>343</v>
       </c>
       <c r="I101" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J101" t="s">
         <v>403</v>
@@ -13209,7 +13209,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B102" t="s">
         <v>55</v>
@@ -13230,10 +13230,10 @@
         <v>344</v>
       </c>
       <c r="I102" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J102" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K102" t="s">
         <v>144</v>
@@ -13247,7 +13247,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B103" t="s">
         <v>37</v>
@@ -13268,10 +13268,10 @@
         <v>347</v>
       </c>
       <c r="I103" t="s">
+        <v>796</v>
+      </c>
+      <c r="J103" t="s">
         <v>797</v>
-      </c>
-      <c r="J103" t="s">
-        <v>798</v>
       </c>
       <c r="K103" t="s">
         <v>119</v>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B104" t="s">
         <v>37</v>
@@ -13309,7 +13309,7 @@
         <v>395</v>
       </c>
       <c r="J104" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K104" t="s">
         <v>145</v>
@@ -13323,7 +13323,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B105" t="s">
         <v>39</v>
@@ -13344,10 +13344,10 @@
         <v>343</v>
       </c>
       <c r="I105" t="s">
+        <v>801</v>
+      </c>
+      <c r="J105" t="s">
         <v>802</v>
-      </c>
-      <c r="J105" t="s">
-        <v>803</v>
       </c>
       <c r="K105" t="s">
         <v>134</v>
@@ -13361,7 +13361,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B106" t="s">
         <v>53</v>
@@ -13382,7 +13382,7 @@
         <v>344</v>
       </c>
       <c r="I106" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J106" t="s">
         <v>455</v>
@@ -13399,7 +13399,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B107" t="s">
         <v>69</v>
@@ -13420,10 +13420,10 @@
         <v>344</v>
       </c>
       <c r="I107" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J107" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K107" t="s">
         <v>119</v>
@@ -13437,7 +13437,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
@@ -13458,10 +13458,10 @@
         <v>347</v>
       </c>
       <c r="I108" t="s">
+        <v>808</v>
+      </c>
+      <c r="J108" t="s">
         <v>809</v>
-      </c>
-      <c r="J108" t="s">
-        <v>810</v>
       </c>
       <c r="K108" t="s">
         <v>119</v>
@@ -13475,7 +13475,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B109" t="s">
         <v>70</v>
@@ -13493,13 +13493,13 @@
         <v>8</v>
       </c>
       <c r="G109" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I109" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J109" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K109" t="s">
         <v>26</v>
@@ -13513,7 +13513,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B110" t="s">
         <v>73</v>
@@ -13534,10 +13534,10 @@
         <v>338</v>
       </c>
       <c r="I110" t="s">
+        <v>813</v>
+      </c>
+      <c r="J110" t="s">
         <v>814</v>
-      </c>
-      <c r="J110" t="s">
-        <v>815</v>
       </c>
       <c r="K110" t="s">
         <v>129</v>
@@ -13551,7 +13551,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
@@ -13572,10 +13572,10 @@
         <v>347</v>
       </c>
       <c r="I111" t="s">
+        <v>816</v>
+      </c>
+      <c r="J111" t="s">
         <v>817</v>
-      </c>
-      <c r="J111" t="s">
-        <v>818</v>
       </c>
       <c r="K111" t="s">
         <v>119</v>
@@ -13589,7 +13589,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B112" t="s">
         <v>39</v>
@@ -13610,10 +13610,10 @@
         <v>343</v>
       </c>
       <c r="I112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J112" t="s">
         <v>820</v>
-      </c>
-      <c r="J112" t="s">
-        <v>821</v>
       </c>
       <c r="K112" t="s">
         <v>134</v>
@@ -13627,7 +13627,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B113" t="s">
         <v>51</v>
@@ -13648,10 +13648,10 @@
         <v>343</v>
       </c>
       <c r="I113" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K113" t="s">
         <v>134</v>
@@ -13665,7 +13665,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B114" t="s">
         <v>56</v>
@@ -13686,10 +13686,10 @@
         <v>344</v>
       </c>
       <c r="I114" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J114" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K114" t="s">
         <v>107</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B115" t="s">
         <v>58</v>
@@ -13724,10 +13724,10 @@
         <v>344</v>
       </c>
       <c r="I115" t="s">
+        <v>825</v>
+      </c>
+      <c r="J115" t="s">
         <v>826</v>
-      </c>
-      <c r="J115" t="s">
-        <v>827</v>
       </c>
       <c r="K115" t="s">
         <v>26</v>
@@ -13741,7 +13741,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B116" t="s">
         <v>69</v>
@@ -13762,16 +13762,16 @@
         <v>347</v>
       </c>
       <c r="I116" t="s">
+        <v>828</v>
+      </c>
+      <c r="J116" t="s">
         <v>829</v>
-      </c>
-      <c r="J116" t="s">
-        <v>830</v>
       </c>
       <c r="K116" t="s">
         <v>75</v>
       </c>
       <c r="L116" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M116" t="s">
         <v>323</v>
@@ -13779,7 +13779,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B117" t="s">
         <v>39</v>
@@ -13800,10 +13800,10 @@
         <v>343</v>
       </c>
       <c r="I117" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J117" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K117" t="s">
         <v>139</v>
@@ -13817,7 +13817,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B118" t="s">
         <v>69</v>
@@ -13838,13 +13838,13 @@
         <v>343</v>
       </c>
       <c r="I118" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J118" t="s">
+        <v>834</v>
+      </c>
+      <c r="K118" t="s">
         <v>835</v>
-      </c>
-      <c r="K118" t="s">
-        <v>836</v>
       </c>
       <c r="L118" t="s">
         <v>323</v>
@@ -13855,7 +13855,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B119" t="s">
         <v>37</v>
@@ -13876,10 +13876,10 @@
         <v>347</v>
       </c>
       <c r="I119" t="s">
+        <v>837</v>
+      </c>
+      <c r="J119" t="s">
         <v>838</v>
-      </c>
-      <c r="J119" t="s">
-        <v>839</v>
       </c>
       <c r="K119" t="s">
         <v>119</v>
@@ -13893,7 +13893,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B120" t="s">
         <v>39</v>
@@ -13914,10 +13914,10 @@
         <v>343</v>
       </c>
       <c r="I120" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J120" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K120" t="s">
         <v>134</v>
@@ -13931,7 +13931,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B121" t="s">
         <v>38</v>
@@ -13952,10 +13952,10 @@
         <v>340</v>
       </c>
       <c r="I121" t="s">
+        <v>842</v>
+      </c>
+      <c r="J121" t="s">
         <v>843</v>
-      </c>
-      <c r="J121" t="s">
-        <v>844</v>
       </c>
       <c r="K121" t="s">
         <v>134</v>
@@ -13969,7 +13969,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B122" t="s">
         <v>59</v>
@@ -13990,10 +13990,10 @@
         <v>344</v>
       </c>
       <c r="I122" t="s">
+        <v>845</v>
+      </c>
+      <c r="J122" t="s">
         <v>846</v>
-      </c>
-      <c r="J122" t="s">
-        <v>847</v>
       </c>
       <c r="K122" t="s">
         <v>26</v>
@@ -14007,7 +14007,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B123" t="s">
         <v>37</v>
@@ -14028,10 +14028,10 @@
         <v>347</v>
       </c>
       <c r="I123" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J123" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K123" t="s">
         <v>119</v>
@@ -14045,7 +14045,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B124" t="s">
         <v>56</v>
@@ -14066,10 +14066,10 @@
         <v>343</v>
       </c>
       <c r="I124" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J124" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K124" t="s">
         <v>107</v>
@@ -14083,7 +14083,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B125" t="s">
         <v>57</v>
@@ -14104,10 +14104,10 @@
         <v>344</v>
       </c>
       <c r="I125" t="s">
+        <v>852</v>
+      </c>
+      <c r="J125" t="s">
         <v>853</v>
-      </c>
-      <c r="J125" t="s">
-        <v>854</v>
       </c>
       <c r="K125" t="s">
         <v>96</v>
@@ -14121,7 +14121,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B126" t="s">
         <v>68</v>
@@ -14142,10 +14142,10 @@
         <v>343</v>
       </c>
       <c r="I126" t="s">
+        <v>855</v>
+      </c>
+      <c r="J126" t="s">
         <v>856</v>
-      </c>
-      <c r="J126" t="s">
-        <v>857</v>
       </c>
       <c r="K126" t="s">
         <v>134</v>
@@ -14159,7 +14159,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B127" t="s">
         <v>39</v>
@@ -14180,10 +14180,10 @@
         <v>347</v>
       </c>
       <c r="I127" t="s">
+        <v>858</v>
+      </c>
+      <c r="J127" t="s">
         <v>859</v>
-      </c>
-      <c r="J127" t="s">
-        <v>860</v>
       </c>
       <c r="K127" t="s">
         <v>134</v>
@@ -14197,7 +14197,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B128" t="s">
         <v>70</v>
@@ -14215,13 +14215,13 @@
         <v>8</v>
       </c>
       <c r="G128" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I128" t="s">
         <v>458</v>
       </c>
       <c r="J128" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K128" t="s">
         <v>26</v>
@@ -14235,7 +14235,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B129" t="s">
         <v>56</v>
@@ -14256,10 +14256,10 @@
         <v>344</v>
       </c>
       <c r="I129" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J129" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K129" t="s">
         <v>107</v>
@@ -14273,7 +14273,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B130" t="s">
         <v>69</v>
@@ -14294,7 +14294,7 @@
         <v>343</v>
       </c>
       <c r="I130" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J130" t="s">
         <v>374</v>
@@ -14311,7 +14311,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B131" t="s">
         <v>37</v>
@@ -14332,10 +14332,10 @@
         <v>344</v>
       </c>
       <c r="I131" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J131" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K131" t="s">
         <v>145</v>
@@ -14349,7 +14349,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B132" t="s">
         <v>44</v>
@@ -14370,10 +14370,10 @@
         <v>343</v>
       </c>
       <c r="I132" t="s">
+        <v>866</v>
+      </c>
+      <c r="J132" t="s">
         <v>867</v>
-      </c>
-      <c r="J132" t="s">
-        <v>868</v>
       </c>
       <c r="K132" t="s">
         <v>134</v>
@@ -14387,7 +14387,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B133" t="s">
         <v>39</v>
@@ -14408,13 +14408,13 @@
         <v>348</v>
       </c>
       <c r="I133" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J133" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K133" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L133" t="s">
         <v>302</v>
@@ -14425,7 +14425,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B134" t="s">
         <v>39</v>
@@ -14446,7 +14446,7 @@
         <v>343</v>
       </c>
       <c r="I134" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J134" t="s">
         <v>496</v>
@@ -14463,7 +14463,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B135" t="s">
         <v>39</v>
@@ -14484,10 +14484,10 @@
         <v>343</v>
       </c>
       <c r="I135" t="s">
+        <v>873</v>
+      </c>
+      <c r="J135" t="s">
         <v>874</v>
-      </c>
-      <c r="J135" t="s">
-        <v>875</v>
       </c>
       <c r="K135" t="s">
         <v>139</v>
@@ -14501,7 +14501,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B136" t="s">
         <v>39</v>
@@ -14522,10 +14522,10 @@
         <v>343</v>
       </c>
       <c r="I136" t="s">
+        <v>876</v>
+      </c>
+      <c r="J136" t="s">
         <v>877</v>
-      </c>
-      <c r="J136" t="s">
-        <v>878</v>
       </c>
       <c r="K136" t="s">
         <v>134</v>
@@ -14539,7 +14539,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B137" t="s">
         <v>39</v>
@@ -14560,10 +14560,10 @@
         <v>343</v>
       </c>
       <c r="I137" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J137" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K137" t="s">
         <v>140</v>
@@ -14577,7 +14577,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B138" t="s">
         <v>55</v>
@@ -14615,7 +14615,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B139" t="s">
         <v>37</v>
@@ -14636,10 +14636,10 @@
         <v>344</v>
       </c>
       <c r="I139" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J139" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K139" t="s">
         <v>145</v>
@@ -14653,7 +14653,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B140" t="s">
         <v>39</v>
@@ -14674,10 +14674,10 @@
         <v>343</v>
       </c>
       <c r="I140" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J140" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K140" t="s">
         <v>141</v>
@@ -14691,7 +14691,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B141" t="s">
         <v>39</v>
@@ -14712,10 +14712,10 @@
         <v>343</v>
       </c>
       <c r="I141" t="s">
+        <v>886</v>
+      </c>
+      <c r="J141" t="s">
         <v>887</v>
-      </c>
-      <c r="J141" t="s">
-        <v>888</v>
       </c>
       <c r="K141" t="s">
         <v>75</v>
@@ -14729,7 +14729,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B142" t="s">
         <v>69</v>
@@ -14750,7 +14750,7 @@
         <v>344</v>
       </c>
       <c r="I142" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J142" t="s">
         <v>369</v>
@@ -14767,7 +14767,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B143" t="s">
         <v>37</v>
@@ -14788,7 +14788,7 @@
         <v>344</v>
       </c>
       <c r="I143" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J143" t="s">
         <v>479</v>
@@ -14805,7 +14805,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B144" t="s">
         <v>39</v>
@@ -14826,10 +14826,10 @@
         <v>343</v>
       </c>
       <c r="I144" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J144" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K144" t="s">
         <v>134</v>
@@ -14843,7 +14843,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B145" t="s">
         <v>39</v>
@@ -14864,10 +14864,10 @@
         <v>343</v>
       </c>
       <c r="I145" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J145" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K145" t="s">
         <v>107</v>
@@ -14881,7 +14881,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B146" t="s">
         <v>39</v>
@@ -14902,10 +14902,10 @@
         <v>343</v>
       </c>
       <c r="I146" t="s">
+        <v>896</v>
+      </c>
+      <c r="J146" t="s">
         <v>897</v>
-      </c>
-      <c r="J146" t="s">
-        <v>898</v>
       </c>
       <c r="K146" t="s">
         <v>134</v>
@@ -14919,7 +14919,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B147" t="s">
         <v>39</v>
@@ -14940,10 +14940,10 @@
         <v>343</v>
       </c>
       <c r="I147" t="s">
+        <v>899</v>
+      </c>
+      <c r="J147" t="s">
         <v>900</v>
-      </c>
-      <c r="J147" t="s">
-        <v>901</v>
       </c>
       <c r="K147" t="s">
         <v>140</v>
@@ -14957,7 +14957,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B148" t="s">
         <v>39</v>
@@ -14978,10 +14978,10 @@
         <v>343</v>
       </c>
       <c r="I148" t="s">
+        <v>902</v>
+      </c>
+      <c r="J148" t="s">
         <v>903</v>
-      </c>
-      <c r="J148" t="s">
-        <v>904</v>
       </c>
       <c r="K148" t="s">
         <v>134</v>
@@ -14995,7 +14995,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B149" t="s">
         <v>39</v>
@@ -15016,10 +15016,10 @@
         <v>343</v>
       </c>
       <c r="I149" t="s">
+        <v>905</v>
+      </c>
+      <c r="J149" t="s">
         <v>906</v>
-      </c>
-      <c r="J149" t="s">
-        <v>907</v>
       </c>
       <c r="K149" t="s">
         <v>134</v>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B150" t="s">
         <v>39</v>
@@ -15054,10 +15054,10 @@
         <v>343</v>
       </c>
       <c r="I150" t="s">
+        <v>908</v>
+      </c>
+      <c r="J150" t="s">
         <v>909</v>
-      </c>
-      <c r="J150" t="s">
-        <v>910</v>
       </c>
       <c r="K150" t="s">
         <v>134</v>
@@ -15071,7 +15071,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B151" t="s">
         <v>39</v>
@@ -15092,10 +15092,10 @@
         <v>343</v>
       </c>
       <c r="I151" t="s">
+        <v>911</v>
+      </c>
+      <c r="J151" t="s">
         <v>912</v>
-      </c>
-      <c r="J151" t="s">
-        <v>913</v>
       </c>
       <c r="K151" t="s">
         <v>140</v>
@@ -15109,7 +15109,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B152" t="s">
         <v>62</v>
@@ -15130,10 +15130,10 @@
         <v>347</v>
       </c>
       <c r="I152" t="s">
+        <v>914</v>
+      </c>
+      <c r="J152" t="s">
         <v>915</v>
-      </c>
-      <c r="J152" t="s">
-        <v>916</v>
       </c>
       <c r="K152" t="s">
         <v>119</v>
@@ -15147,7 +15147,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B153" t="s">
         <v>39</v>
@@ -15168,10 +15168,10 @@
         <v>343</v>
       </c>
       <c r="I153" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J153" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K153" t="s">
         <v>134</v>
@@ -15185,7 +15185,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
@@ -15206,10 +15206,10 @@
         <v>347</v>
       </c>
       <c r="I154" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J154" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K154" t="s">
         <v>119</v>
@@ -15223,7 +15223,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B155" t="s">
         <v>74</v>
@@ -15244,7 +15244,7 @@
         <v>346</v>
       </c>
       <c r="I155" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J155" t="s">
         <v>430</v>
@@ -15261,7 +15261,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B156" t="s">
         <v>69</v>
@@ -15282,16 +15282,16 @@
         <v>348</v>
       </c>
       <c r="I156" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J156" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K156" t="s">
         <v>115</v>
       </c>
       <c r="L156" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M156" t="s">
         <v>323</v>
@@ -15299,7 +15299,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B157" t="s">
         <v>51</v>
@@ -15320,10 +15320,10 @@
         <v>343</v>
       </c>
       <c r="I157" t="s">
+        <v>925</v>
+      </c>
+      <c r="J157" t="s">
         <v>926</v>
-      </c>
-      <c r="J157" t="s">
-        <v>927</v>
       </c>
       <c r="K157" t="s">
         <v>134</v>
@@ -15337,7 +15337,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B158" t="s">
         <v>39</v>
@@ -15358,10 +15358,10 @@
         <v>343</v>
       </c>
       <c r="I158" t="s">
+        <v>928</v>
+      </c>
+      <c r="J158" t="s">
         <v>929</v>
-      </c>
-      <c r="J158" t="s">
-        <v>930</v>
       </c>
       <c r="K158" t="s">
         <v>139</v>
@@ -15375,7 +15375,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B159" t="s">
         <v>48</v>
@@ -15396,10 +15396,10 @@
         <v>343</v>
       </c>
       <c r="I159" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J159" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K159" t="s">
         <v>134</v>
@@ -15413,7 +15413,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B160" t="s">
         <v>56</v>
@@ -15434,10 +15434,10 @@
         <v>347</v>
       </c>
       <c r="I160" t="s">
+        <v>933</v>
+      </c>
+      <c r="J160" t="s">
         <v>934</v>
-      </c>
-      <c r="J160" t="s">
-        <v>935</v>
       </c>
       <c r="K160" t="s">
         <v>75</v>
@@ -15451,7 +15451,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B161" t="s">
         <v>56</v>
@@ -15472,10 +15472,10 @@
         <v>344</v>
       </c>
       <c r="I161" t="s">
+        <v>936</v>
+      </c>
+      <c r="J161" t="s">
         <v>937</v>
-      </c>
-      <c r="J161" t="s">
-        <v>938</v>
       </c>
       <c r="K161" t="s">
         <v>107</v>
@@ -15489,7 +15489,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B162" t="s">
         <v>55</v>
@@ -15510,10 +15510,10 @@
         <v>344</v>
       </c>
       <c r="I162" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J162" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K162" t="s">
         <v>144</v>
@@ -15527,7 +15527,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B163" t="s">
         <v>39</v>
@@ -15548,10 +15548,10 @@
         <v>343</v>
       </c>
       <c r="I163" t="s">
+        <v>941</v>
+      </c>
+      <c r="J163" t="s">
         <v>942</v>
-      </c>
-      <c r="J163" t="s">
-        <v>943</v>
       </c>
       <c r="K163" t="s">
         <v>107</v>
@@ -15565,7 +15565,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B164" t="s">
         <v>69</v>
@@ -15586,10 +15586,10 @@
         <v>340</v>
       </c>
       <c r="I164" t="s">
+        <v>944</v>
+      </c>
+      <c r="J164" t="s">
         <v>945</v>
-      </c>
-      <c r="J164" t="s">
-        <v>946</v>
       </c>
       <c r="K164" t="s">
         <v>96</v>
@@ -15603,7 +15603,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B165" t="s">
         <v>62</v>
@@ -15624,10 +15624,10 @@
         <v>347</v>
       </c>
       <c r="I165" t="s">
+        <v>947</v>
+      </c>
+      <c r="J165" t="s">
         <v>948</v>
-      </c>
-      <c r="J165" t="s">
-        <v>949</v>
       </c>
       <c r="K165" t="s">
         <v>119</v>
@@ -15641,7 +15641,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B166" t="s">
         <v>39</v>
@@ -15662,10 +15662,10 @@
         <v>343</v>
       </c>
       <c r="I166" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J166" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K166" t="s">
         <v>134</v>
@@ -15679,7 +15679,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B167" t="s">
         <v>56</v>
@@ -15700,10 +15700,10 @@
         <v>343</v>
       </c>
       <c r="I167" t="s">
+        <v>952</v>
+      </c>
+      <c r="J167" t="s">
         <v>953</v>
-      </c>
-      <c r="J167" t="s">
-        <v>954</v>
       </c>
       <c r="K167" t="s">
         <v>107</v>
@@ -15717,7 +15717,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B168" t="s">
         <v>39</v>
@@ -15738,10 +15738,10 @@
         <v>343</v>
       </c>
       <c r="I168" t="s">
+        <v>955</v>
+      </c>
+      <c r="J168" t="s">
         <v>956</v>
-      </c>
-      <c r="J168" t="s">
-        <v>957</v>
       </c>
       <c r="K168" t="s">
         <v>107</v>
@@ -15755,7 +15755,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B169" t="s">
         <v>62</v>
@@ -15779,7 +15779,7 @@
         <v>432</v>
       </c>
       <c r="J169" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K169" t="s">
         <v>26</v>
@@ -15793,7 +15793,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B170" t="s">
         <v>39</v>
@@ -15814,10 +15814,10 @@
         <v>343</v>
       </c>
       <c r="I170" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J170" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K170" t="s">
         <v>134</v>
@@ -15831,7 +15831,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B171" t="s">
         <v>69</v>
@@ -15852,10 +15852,10 @@
         <v>338</v>
       </c>
       <c r="I171" t="s">
+        <v>960</v>
+      </c>
+      <c r="J171" t="s">
         <v>961</v>
-      </c>
-      <c r="J171" t="s">
-        <v>962</v>
       </c>
       <c r="K171" t="s">
         <v>119</v>
@@ -15869,7 +15869,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B172" t="s">
         <v>38</v>
@@ -15890,10 +15890,10 @@
         <v>340</v>
       </c>
       <c r="I172" t="s">
+        <v>963</v>
+      </c>
+      <c r="J172" t="s">
         <v>964</v>
-      </c>
-      <c r="J172" t="s">
-        <v>965</v>
       </c>
       <c r="K172" t="s">
         <v>134</v>
@@ -15907,7 +15907,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B173" t="s">
         <v>39</v>
@@ -15928,7 +15928,7 @@
         <v>347</v>
       </c>
       <c r="I173" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J173" t="s">
         <v>375</v>
@@ -15945,7 +15945,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B174" t="s">
         <v>37</v>
@@ -15966,10 +15966,10 @@
         <v>347</v>
       </c>
       <c r="I174" t="s">
+        <v>968</v>
+      </c>
+      <c r="J174" t="s">
         <v>969</v>
-      </c>
-      <c r="J174" t="s">
-        <v>970</v>
       </c>
       <c r="K174" t="s">
         <v>119</v>
@@ -15983,7 +15983,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B175" t="s">
         <v>62</v>
@@ -16004,10 +16004,10 @@
         <v>347</v>
       </c>
       <c r="I175" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J175" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K175" t="s">
         <v>119</v>
@@ -16021,7 +16021,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B176" t="s">
         <v>37</v>
@@ -16042,10 +16042,10 @@
         <v>347</v>
       </c>
       <c r="I176" t="s">
+        <v>973</v>
+      </c>
+      <c r="J176" t="s">
         <v>974</v>
-      </c>
-      <c r="J176" t="s">
-        <v>975</v>
       </c>
       <c r="K176" t="s">
         <v>119</v>
@@ -16059,7 +16059,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B177" t="s">
         <v>37</v>
@@ -16080,10 +16080,10 @@
         <v>344</v>
       </c>
       <c r="I177" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J177" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K177" t="s">
         <v>145</v>
@@ -16097,7 +16097,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B178" t="s">
         <v>74</v>
@@ -16118,10 +16118,10 @@
         <v>346</v>
       </c>
       <c r="I178" t="s">
+        <v>978</v>
+      </c>
+      <c r="J178" t="s">
         <v>979</v>
-      </c>
-      <c r="J178" t="s">
-        <v>980</v>
       </c>
       <c r="K178" t="s">
         <v>26</v>
@@ -16135,7 +16135,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B179" t="s">
         <v>69</v>
@@ -16159,7 +16159,7 @@
         <v>391</v>
       </c>
       <c r="J179" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K179" t="s">
         <v>119</v>
@@ -16173,7 +16173,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B180" t="s">
         <v>39</v>
@@ -16194,7 +16194,7 @@
         <v>343</v>
       </c>
       <c r="I180" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J180" t="s">
         <v>485</v>
@@ -16211,7 +16211,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B181" t="s">
         <v>74</v>
@@ -16232,10 +16232,10 @@
         <v>346</v>
       </c>
       <c r="I181" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J181" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K181" t="s">
         <v>26</v>
@@ -16249,7 +16249,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B182" t="s">
         <v>39</v>
@@ -16273,7 +16273,7 @@
         <v>501</v>
       </c>
       <c r="J182" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K182" t="s">
         <v>139</v>
@@ -16287,7 +16287,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B183" t="s">
         <v>39</v>
@@ -16308,10 +16308,10 @@
         <v>343</v>
       </c>
       <c r="I183" t="s">
+        <v>987</v>
+      </c>
+      <c r="J183" t="s">
         <v>988</v>
-      </c>
-      <c r="J183" t="s">
-        <v>989</v>
       </c>
       <c r="K183" t="s">
         <v>134</v>
@@ -16325,7 +16325,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B184" t="s">
         <v>39</v>
@@ -16346,10 +16346,10 @@
         <v>343</v>
       </c>
       <c r="I184" t="s">
+        <v>990</v>
+      </c>
+      <c r="J184" t="s">
         <v>991</v>
-      </c>
-      <c r="J184" t="s">
-        <v>992</v>
       </c>
       <c r="K184" t="s">
         <v>107</v>
@@ -16363,7 +16363,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B185" t="s">
         <v>39</v>
@@ -16384,10 +16384,10 @@
         <v>343</v>
       </c>
       <c r="I185" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J185" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K185" t="s">
         <v>139</v>
@@ -16401,7 +16401,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B186" t="s">
         <v>37</v>
@@ -16422,10 +16422,10 @@
         <v>344</v>
       </c>
       <c r="I186" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J186" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K186" t="s">
         <v>145</v>
@@ -16439,7 +16439,7 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B187" t="s">
         <v>64</v>
@@ -16463,7 +16463,7 @@
         <v>419</v>
       </c>
       <c r="J187" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K187" t="s">
         <v>93</v>
@@ -16477,7 +16477,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B188" t="s">
         <v>39</v>
@@ -16498,10 +16498,10 @@
         <v>343</v>
       </c>
       <c r="I188" t="s">
+        <v>999</v>
+      </c>
+      <c r="J188" t="s">
         <v>1000</v>
-      </c>
-      <c r="J188" t="s">
-        <v>1001</v>
       </c>
       <c r="K188" t="s">
         <v>141</v>
@@ -16515,7 +16515,7 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B189" t="s">
         <v>39</v>
@@ -16539,7 +16539,7 @@
         <v>379</v>
       </c>
       <c r="J189" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K189" t="s">
         <v>141</v>
@@ -16553,7 +16553,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B190" t="s">
         <v>55</v>
@@ -16574,10 +16574,10 @@
         <v>344</v>
       </c>
       <c r="I190" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J190" t="s">
         <v>1005</v>
-      </c>
-      <c r="J190" t="s">
-        <v>1006</v>
       </c>
       <c r="K190" t="s">
         <v>144</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B191" t="s">
         <v>74</v>
@@ -16612,10 +16612,10 @@
         <v>346</v>
       </c>
       <c r="I191" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J191" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K191" t="s">
         <v>129</v>
@@ -16629,7 +16629,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B192" t="s">
         <v>39</v>
@@ -16650,10 +16650,10 @@
         <v>347</v>
       </c>
       <c r="I192" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J192" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K192" t="s">
         <v>134</v>
@@ -16667,7 +16667,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B193" t="s">
         <v>56</v>
@@ -16688,10 +16688,10 @@
         <v>344</v>
       </c>
       <c r="I193" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J193" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K193" t="s">
         <v>107</v>
@@ -16705,7 +16705,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B194" t="s">
         <v>39</v>
@@ -16726,10 +16726,10 @@
         <v>343</v>
       </c>
       <c r="I194" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J194" t="s">
         <v>1014</v>
-      </c>
-      <c r="J194" t="s">
-        <v>1015</v>
       </c>
       <c r="K194" t="s">
         <v>134</v>
@@ -16743,7 +16743,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B195" t="s">
         <v>70</v>
@@ -16761,13 +16761,13 @@
         <v>8</v>
       </c>
       <c r="G195" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I195" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J195" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K195" t="s">
         <v>26</v>
@@ -16781,7 +16781,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B196" t="s">
         <v>48</v>
@@ -16805,7 +16805,7 @@
         <v>355</v>
       </c>
       <c r="J196" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K196" t="s">
         <v>134</v>
@@ -16819,7 +16819,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B197" t="s">
         <v>37</v>
@@ -16840,10 +16840,10 @@
         <v>347</v>
       </c>
       <c r="I197" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J197" t="s">
         <v>1021</v>
-      </c>
-      <c r="J197" t="s">
-        <v>1022</v>
       </c>
       <c r="K197" t="s">
         <v>119</v>
@@ -16857,7 +16857,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B198" t="s">
         <v>51</v>
@@ -16878,7 +16878,7 @@
         <v>343</v>
       </c>
       <c r="I198" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J198" t="s">
         <v>386</v>
@@ -16895,7 +16895,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B199" t="s">
         <v>39</v>
@@ -16919,7 +16919,7 @@
         <v>404</v>
       </c>
       <c r="J199" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="K199" t="s">
         <v>134</v>
@@ -16933,7 +16933,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B200" t="s">
         <v>62</v>
@@ -16954,10 +16954,10 @@
         <v>347</v>
       </c>
       <c r="I200" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J200" t="s">
         <v>1028</v>
-      </c>
-      <c r="J200" t="s">
-        <v>1029</v>
       </c>
       <c r="K200" t="s">
         <v>145</v>
@@ -16971,7 +16971,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B201" t="s">
         <v>39</v>
@@ -16992,10 +16992,10 @@
         <v>343</v>
       </c>
       <c r="I201" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J201" t="s">
         <v>1031</v>
-      </c>
-      <c r="J201" t="s">
-        <v>1032</v>
       </c>
       <c r="K201" t="s">
         <v>134</v>
@@ -17010,7 +17010,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:M201 A1 D1:J1 L1:M1" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:M201 D1:H1 L1:M1 J1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -17030,691 +17030,691 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1" t="s">
         <v>1102</v>
       </c>
-      <c r="B1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1103</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1104</v>
       </c>
-      <c r="E1" t="s">
-        <v>1105</v>
-      </c>
       <c r="F1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G1" t="s">
         <v>476</v>
       </c>
       <c r="H1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F3" t="s">
         <v>1108</v>
       </c>
-      <c r="B3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1109</v>
-      </c>
       <c r="G3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B4" t="s">
         <v>1110</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F4" t="s">
         <v>1111</v>
       </c>
-      <c r="C4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>1112</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F6" t="s">
         <v>1115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E7" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G8" t="s">
         <v>1118</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G9" t="s">
         <v>1120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G10" t="s">
         <v>1122</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H11" t="s">
         <v>1124</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B12" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C12" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E12" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F12" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G12" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D13" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E13" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B14" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C14" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D14" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E14" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F14" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G15" t="s">
         <v>1129</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B16" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C16" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D16" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F16" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B17" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C17" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D17" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E17" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F18" t="s">
         <v>1133</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F19" t="s">
         <v>1135</v>
       </c>
-      <c r="B19" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>1136</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F20" t="s">
         <v>1138</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G21" t="s">
         <v>1140</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H22" t="s">
         <v>1142</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G23" t="s">
         <v>1144</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F24" t="s">
         <v>1146</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G25" t="s">
         <v>1148</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G26" t="s">
         <v>1150</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B27" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C27" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D27" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E27" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F27" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B28" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C28" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D28" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E28" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F28" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B29" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C29" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D29" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E29" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F29" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G29" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G30" t="s">
         <v>1155</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B31" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C31" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D31" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E31" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F31" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H31" t="s">
         <v>359</v>
@@ -17722,45 +17722,45 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G32" t="s">
         <v>1158</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B33" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C33" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D33" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E33" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F33" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G33" t="s">
         <v>396</v>
@@ -17768,243 +17768,243 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C34" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E34" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F34" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B35" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C35" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D35" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F35" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G36" t="s">
         <v>1163</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G37" t="s">
         <v>1165</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B38" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C38" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E38" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F38" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G38" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B39" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C39" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D39" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E39" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F39" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G39" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G40" t="s">
         <v>1169</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G41" t="s">
         <v>1171</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B42" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C42" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D42" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E42" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F42" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G43" t="s">
         <v>1174</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1139</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B44" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C44" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D44" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E44" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F44" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G44" t="s">
         <v>381</v>
@@ -18015,140 +18015,140 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G45" t="s">
         <v>1177</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G46" t="s">
         <v>1179</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G47" t="s">
         <v>1181</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G48" t="s">
         <v>1183</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H49" t="s">
         <v>1185</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1164</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B50" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C50" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D50" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E50" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F50" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G50" t="s">
         <v>398</v>
@@ -18156,418 +18156,418 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B51" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C51" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D51" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E51" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F51" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G52" t="s">
         <v>1189</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B53" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C53" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D53" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E53" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F53" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G54" t="s">
         <v>1192</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B55" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C55" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D55" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E55" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F55" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B56" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C56" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D56" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E56" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F56" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G56" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H56" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B57" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C57" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D57" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E57" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F57" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G57" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B58" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C58" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D58" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E58" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F58" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G58" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G59" t="s">
         <v>1198</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G60" t="s">
         <v>1200</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G61" t="s">
         <v>1202</v>
       </c>
-      <c r="B61" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>1203</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B62" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C62" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D62" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E62" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F62" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G62" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B63" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C63" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D63" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E63" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F63" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H64" t="s">
         <v>1207</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H64" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B65" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C65" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D65" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E65" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F65" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B66" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C66" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D66" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E66" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F66" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B67" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C67" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D67" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E67" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F67" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B68" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C68" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D68" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E68" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F68" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B69" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C69" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D69" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E69" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F69" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G69" t="s">
         <v>417</v>
@@ -18575,137 +18575,137 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G70" t="s">
         <v>1214</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G70" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G71" t="s">
         <v>1216</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G71" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G72" t="s">
         <v>1218</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G72" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B73" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C73" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D73" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E73" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F73" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G73" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B74" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C74" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D74" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E74" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F74" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G74" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B75" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C75" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D75" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E75" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F75" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G75" t="s">
         <v>410</v>
@@ -18713,318 +18713,318 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B76" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C76" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D76" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E76" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F76" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B77" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C77" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D77" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E77" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F77" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B78" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C78" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D78" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E78" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F78" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G78" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G79" t="s">
         <v>1226</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B80" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C80" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D80" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E80" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F80" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G81" t="s">
         <v>1229</v>
       </c>
-      <c r="B81" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>1230</v>
-      </c>
-      <c r="H81" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H82" t="s">
         <v>1232</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H82" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B83" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C83" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D83" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E83" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F83" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G83" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G84" t="s">
         <v>1235</v>
       </c>
-      <c r="B84" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1236</v>
-      </c>
       <c r="H84" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B85" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C85" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D85" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E85" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F85" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G85" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B86" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C86" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D86" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E86" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F86" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B87" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C87" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D87" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E87" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F87" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G87" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H87" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B88" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C88" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D88" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E88" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F88" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G88" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B89" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C89" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D89" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E89" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F89" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G89" t="s">
         <v>448</v>
@@ -19032,88 +19032,88 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B90" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C90" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D90" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E90" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F90" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G91" t="s">
         <v>1243</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F91" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G91" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B92" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C92" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D92" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E92" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F92" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G92" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B93" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C93" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D93" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E93" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F93" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G93" t="s">
         <v>384</v>
@@ -19121,174 +19121,174 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B94" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C94" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D94" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E94" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F94" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H94" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H95" t="s">
         <v>1248</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F95" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B96" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C96" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D96" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E96" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F96" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B97" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C97" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D97" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E97" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F97" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B98" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C98" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D98" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E98" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F98" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G98" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B99" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C99" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D99" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E99" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F99" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H99" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B100" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C100" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D100" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E100" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F100" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B101" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C101" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D101" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E101" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F101" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G101" t="s">
         <v>359</v>
@@ -19314,177 +19314,177 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -19506,27 +19506,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -19547,37 +19547,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -19600,7 +19600,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -19677,32 +19677,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -19723,27 +19723,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -19764,57 +19764,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -19837,7 +19837,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -19928,7 +19928,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -20142,7 +20142,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -20598,7 +20598,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -21196,7 +21196,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">

--- a/Account_Invest_Income_Task_TxnMaster_Demo_2025_10_27.xlsx
+++ b/Account_Invest_Income_Task_TxnMaster_Demo_2025_10_27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Ac_Holder" sheetId="1" r:id="rId1"/>
@@ -9355,50 +9355,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="23.9140625" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1258</v>
       </c>
     </row>
@@ -17004,8 +17008,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:L201 A1:C1 G1 E1" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:L201 A1:C1 E1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -21300,8 +21305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/Account_Invest_Income_Task_TxnMaster_Demo_2025_10_27.xlsx
+++ b/Account_Invest_Income_Task_TxnMaster_Demo_2025_10_27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Ac_Holder" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4937" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="1264">
   <si>
     <t>Expense_Holder</t>
   </si>
@@ -3847,6 +3847,12 @@
   </si>
   <si>
     <t>Bill-Payment-Bank</t>
+  </si>
+  <si>
+    <t>Amount_Due</t>
+  </si>
+  <si>
+    <t>Amount_Paid</t>
   </si>
 </sst>
 </file>
@@ -9353,10 +9359,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9364,13 +9370,13 @@
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="23.9140625" customWidth="1"/>
-    <col min="6" max="6" width="26.25" customWidth="1"/>
-    <col min="7" max="7" width="13.58203125" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="26.25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>532</v>
       </c>
@@ -9384,34 +9390,37 @@
         <v>1260</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1035</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -9425,31 +9434,31 @@
         <v>297</v>
       </c>
       <c r="F2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G2" t="s">
         <v>138</v>
       </c>
-      <c r="G2" t="s">
-        <v>534</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>535</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>286</v>
       </c>
-      <c r="J2" t="s">
-        <v>323</v>
-      </c>
       <c r="K2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>342</v>
       </c>
-      <c r="M2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>536</v>
       </c>
@@ -9463,31 +9472,31 @@
         <v>297</v>
       </c>
       <c r="F3" t="s">
+        <v>537</v>
+      </c>
+      <c r="G3" t="s">
         <v>138</v>
       </c>
-      <c r="G3" t="s">
-        <v>537</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>538</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>1261</v>
       </c>
-      <c r="J3" t="s">
-        <v>323</v>
-      </c>
       <c r="K3" t="s">
+        <v>323</v>
+      </c>
+      <c r="L3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>342</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>539</v>
       </c>
@@ -9501,31 +9510,31 @@
         <v>297</v>
       </c>
       <c r="F4" t="s">
+        <v>540</v>
+      </c>
+      <c r="G4" t="s">
         <v>145</v>
       </c>
-      <c r="G4" t="s">
-        <v>540</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>541</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>1261</v>
       </c>
-      <c r="J4" t="s">
-        <v>323</v>
-      </c>
       <c r="K4" t="s">
+        <v>323</v>
+      </c>
+      <c r="L4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>342</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>542</v>
       </c>
@@ -9539,31 +9548,31 @@
         <v>297</v>
       </c>
       <c r="F5" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" t="s">
         <v>138</v>
       </c>
-      <c r="G5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>543</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>1261</v>
       </c>
-      <c r="J5" t="s">
-        <v>323</v>
-      </c>
       <c r="K5" t="s">
+        <v>323</v>
+      </c>
+      <c r="L5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>342</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>544</v>
       </c>
@@ -9577,31 +9586,31 @@
         <v>297</v>
       </c>
       <c r="F6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G6" t="s">
         <v>138</v>
       </c>
-      <c r="G6" t="s">
-        <v>545</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>477</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>1261</v>
       </c>
-      <c r="J6" t="s">
-        <v>323</v>
-      </c>
       <c r="K6" t="s">
+        <v>323</v>
+      </c>
+      <c r="L6" t="s">
         <v>3</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>342</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>546</v>
       </c>
@@ -9615,31 +9624,31 @@
         <v>297</v>
       </c>
       <c r="F7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G7" t="s">
         <v>138</v>
       </c>
-      <c r="G7" t="s">
-        <v>547</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>548</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>286</v>
       </c>
-      <c r="J7" t="s">
-        <v>323</v>
-      </c>
       <c r="K7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L7" t="s">
         <v>3</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>342</v>
       </c>
-      <c r="M7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>549</v>
       </c>
@@ -9653,31 +9662,31 @@
         <v>297</v>
       </c>
       <c r="F8" t="s">
+        <v>550</v>
+      </c>
+      <c r="G8" t="s">
         <v>138</v>
       </c>
-      <c r="G8" t="s">
-        <v>550</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>551</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>1261</v>
       </c>
-      <c r="J8" t="s">
-        <v>323</v>
-      </c>
       <c r="K8" t="s">
+        <v>323</v>
+      </c>
+      <c r="L8" t="s">
         <v>3</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>342</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>552</v>
       </c>
@@ -9691,31 +9700,31 @@
         <v>296</v>
       </c>
       <c r="F9" t="s">
+        <v>553</v>
+      </c>
+      <c r="G9" t="s">
         <v>123</v>
       </c>
-      <c r="G9" t="s">
-        <v>553</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>554</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>293</v>
       </c>
-      <c r="J9" t="s">
-        <v>323</v>
-      </c>
       <c r="K9" t="s">
+        <v>323</v>
+      </c>
+      <c r="L9" t="s">
         <v>2</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>346</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>555</v>
       </c>
@@ -9729,31 +9738,31 @@
         <v>297</v>
       </c>
       <c r="F10" t="s">
+        <v>556</v>
+      </c>
+      <c r="G10" t="s">
         <v>132</v>
       </c>
-      <c r="G10" t="s">
-        <v>556</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>557</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>1261</v>
       </c>
-      <c r="J10" t="s">
-        <v>323</v>
-      </c>
       <c r="K10" t="s">
+        <v>323</v>
+      </c>
+      <c r="L10" t="s">
         <v>3</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>342</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>558</v>
       </c>
@@ -9767,31 +9776,31 @@
         <v>297</v>
       </c>
       <c r="F11" t="s">
+        <v>559</v>
+      </c>
+      <c r="G11" t="s">
         <v>138</v>
       </c>
-      <c r="G11" t="s">
-        <v>559</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>560</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>1261</v>
       </c>
-      <c r="J11" t="s">
-        <v>323</v>
-      </c>
       <c r="K11" t="s">
+        <v>323</v>
+      </c>
+      <c r="L11" t="s">
         <v>3</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>346</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>561</v>
       </c>
@@ -9805,31 +9814,31 @@
         <v>296</v>
       </c>
       <c r="F12" t="s">
+        <v>562</v>
+      </c>
+      <c r="G12" t="s">
         <v>149</v>
       </c>
-      <c r="G12" t="s">
-        <v>562</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>563</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>287</v>
       </c>
-      <c r="J12" t="s">
-        <v>323</v>
-      </c>
       <c r="K12" t="s">
+        <v>323</v>
+      </c>
+      <c r="L12" t="s">
         <v>8</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>342</v>
       </c>
-      <c r="M12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>564</v>
       </c>
@@ -9843,31 +9852,31 @@
         <v>297</v>
       </c>
       <c r="F13" t="s">
+        <v>565</v>
+      </c>
+      <c r="G13" t="s">
         <v>138</v>
       </c>
-      <c r="G13" t="s">
-        <v>565</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>402</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>1261</v>
       </c>
-      <c r="J13" t="s">
-        <v>323</v>
-      </c>
       <c r="K13" t="s">
+        <v>323</v>
+      </c>
+      <c r="L13" t="s">
         <v>3</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>346</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>566</v>
       </c>
@@ -9881,31 +9890,31 @@
         <v>297</v>
       </c>
       <c r="F14" t="s">
+        <v>567</v>
+      </c>
+      <c r="G14" t="s">
         <v>138</v>
       </c>
-      <c r="G14" t="s">
-        <v>567</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>568</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>1261</v>
       </c>
-      <c r="J14" t="s">
-        <v>323</v>
-      </c>
       <c r="K14" t="s">
+        <v>323</v>
+      </c>
+      <c r="L14" t="s">
         <v>3</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>342</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>569</v>
       </c>
@@ -9919,31 +9928,31 @@
         <v>297</v>
       </c>
       <c r="F15" t="s">
+        <v>570</v>
+      </c>
+      <c r="G15" t="s">
         <v>138</v>
       </c>
-      <c r="G15" t="s">
-        <v>570</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>571</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>286</v>
       </c>
-      <c r="J15" t="s">
-        <v>323</v>
-      </c>
       <c r="K15" t="s">
+        <v>323</v>
+      </c>
+      <c r="L15" t="s">
         <v>7</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>342</v>
       </c>
-      <c r="M15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>572</v>
       </c>
@@ -9957,31 +9966,31 @@
         <v>297</v>
       </c>
       <c r="F16" t="s">
+        <v>573</v>
+      </c>
+      <c r="G16" t="s">
         <v>143</v>
       </c>
-      <c r="G16" t="s">
-        <v>573</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>574</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>1261</v>
       </c>
-      <c r="J16" t="s">
-        <v>323</v>
-      </c>
       <c r="K16" t="s">
+        <v>323</v>
+      </c>
+      <c r="L16" t="s">
         <v>8</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>342</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>575</v>
       </c>
@@ -9995,31 +10004,31 @@
         <v>296</v>
       </c>
       <c r="F17" t="s">
+        <v>576</v>
+      </c>
+      <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="G17" t="s">
-        <v>576</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>577</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>289</v>
       </c>
-      <c r="J17" t="s">
-        <v>323</v>
-      </c>
       <c r="K17" t="s">
+        <v>323</v>
+      </c>
+      <c r="L17" t="s">
         <v>5</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>346</v>
       </c>
-      <c r="M17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>578</v>
       </c>
@@ -10033,31 +10042,31 @@
         <v>296</v>
       </c>
       <c r="F18" t="s">
+        <v>579</v>
+      </c>
+      <c r="G18" t="s">
         <v>111</v>
       </c>
-      <c r="G18" t="s">
-        <v>579</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>580</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>288</v>
       </c>
-      <c r="J18" t="s">
-        <v>323</v>
-      </c>
       <c r="K18" t="s">
+        <v>323</v>
+      </c>
+      <c r="L18" t="s">
         <v>3</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>342</v>
       </c>
-      <c r="M18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>581</v>
       </c>
@@ -10071,31 +10080,31 @@
         <v>297</v>
       </c>
       <c r="F19" t="s">
+        <v>582</v>
+      </c>
+      <c r="G19" t="s">
         <v>143</v>
       </c>
-      <c r="G19" t="s">
-        <v>582</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>583</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>1261</v>
       </c>
-      <c r="J19" t="s">
-        <v>323</v>
-      </c>
       <c r="K19" t="s">
+        <v>323</v>
+      </c>
+      <c r="L19" t="s">
         <v>8</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>342</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>584</v>
       </c>
@@ -10109,31 +10118,31 @@
         <v>296</v>
       </c>
       <c r="F20" t="s">
+        <v>585</v>
+      </c>
+      <c r="G20" t="s">
         <v>123</v>
       </c>
-      <c r="G20" t="s">
-        <v>585</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>468</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>293</v>
       </c>
-      <c r="J20" t="s">
-        <v>323</v>
-      </c>
       <c r="K20" t="s">
+        <v>323</v>
+      </c>
+      <c r="L20" t="s">
         <v>2</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>346</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>586</v>
       </c>
@@ -10147,31 +10156,31 @@
         <v>297</v>
       </c>
       <c r="F21" t="s">
+        <v>410</v>
+      </c>
+      <c r="G21" t="s">
         <v>79</v>
       </c>
-      <c r="G21" t="s">
-        <v>410</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>587</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>288</v>
       </c>
-      <c r="J21" t="s">
-        <v>323</v>
-      </c>
       <c r="K21" t="s">
+        <v>323</v>
+      </c>
+      <c r="L21" t="s">
         <v>7</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>346</v>
       </c>
-      <c r="M21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>588</v>
       </c>
@@ -10185,31 +10194,31 @@
         <v>297</v>
       </c>
       <c r="F22" t="s">
+        <v>589</v>
+      </c>
+      <c r="G22" t="s">
         <v>144</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>589</v>
       </c>
-      <c r="H22" t="s">
-        <v>589</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>1261</v>
       </c>
-      <c r="J22" t="s">
-        <v>323</v>
-      </c>
       <c r="K22" t="s">
+        <v>323</v>
+      </c>
+      <c r="L22" t="s">
         <v>8</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>342</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>590</v>
       </c>
@@ -10223,31 +10232,31 @@
         <v>297</v>
       </c>
       <c r="F23" t="s">
+        <v>591</v>
+      </c>
+      <c r="G23" t="s">
         <v>28</v>
       </c>
-      <c r="G23" t="s">
-        <v>591</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>592</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>289</v>
       </c>
-      <c r="J23" t="s">
-        <v>323</v>
-      </c>
       <c r="K23" t="s">
+        <v>323</v>
+      </c>
+      <c r="L23" t="s">
         <v>7</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>345</v>
       </c>
-      <c r="M23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>593</v>
       </c>
@@ -10261,31 +10270,31 @@
         <v>297</v>
       </c>
       <c r="F24" t="s">
+        <v>594</v>
+      </c>
+      <c r="G24" t="s">
         <v>96</v>
       </c>
-      <c r="G24" t="s">
-        <v>594</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>538</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>1261</v>
       </c>
-      <c r="J24" t="s">
-        <v>323</v>
-      </c>
       <c r="K24" t="s">
+        <v>323</v>
+      </c>
+      <c r="L24" t="s">
         <v>3</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>337</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>595</v>
       </c>
@@ -10299,31 +10308,31 @@
         <v>296</v>
       </c>
       <c r="F25" t="s">
+        <v>596</v>
+      </c>
+      <c r="G25" t="s">
         <v>111</v>
       </c>
-      <c r="G25" t="s">
-        <v>596</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>597</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>288</v>
       </c>
-      <c r="J25" t="s">
-        <v>323</v>
-      </c>
       <c r="K25" t="s">
+        <v>323</v>
+      </c>
+      <c r="L25" t="s">
         <v>3</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>342</v>
       </c>
-      <c r="M25" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>598</v>
       </c>
@@ -10337,31 +10346,31 @@
         <v>297</v>
       </c>
       <c r="F26" t="s">
+        <v>599</v>
+      </c>
+      <c r="G26" t="s">
         <v>138</v>
       </c>
-      <c r="G26" t="s">
-        <v>599</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>600</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>1261</v>
       </c>
-      <c r="J26" t="s">
-        <v>323</v>
-      </c>
       <c r="K26" t="s">
+        <v>323</v>
+      </c>
+      <c r="L26" t="s">
         <v>3</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>342</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>601</v>
       </c>
@@ -10375,31 +10384,31 @@
         <v>297</v>
       </c>
       <c r="F27" t="s">
+        <v>602</v>
+      </c>
+      <c r="G27" t="s">
         <v>143</v>
       </c>
-      <c r="G27" t="s">
-        <v>602</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>440</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>1261</v>
       </c>
-      <c r="J27" t="s">
-        <v>323</v>
-      </c>
       <c r="K27" t="s">
+        <v>323</v>
+      </c>
+      <c r="L27" t="s">
         <v>8</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>342</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>603</v>
       </c>
@@ -10413,31 +10422,31 @@
         <v>296</v>
       </c>
       <c r="F28" t="s">
+        <v>604</v>
+      </c>
+      <c r="G28" t="s">
         <v>126</v>
       </c>
-      <c r="G28" t="s">
-        <v>604</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>605</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>286</v>
       </c>
-      <c r="J28" t="s">
-        <v>323</v>
-      </c>
       <c r="K28" t="s">
+        <v>323</v>
+      </c>
+      <c r="L28" t="s">
         <v>5</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>342</v>
       </c>
-      <c r="M28" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>606</v>
       </c>
@@ -10451,31 +10460,31 @@
         <v>297</v>
       </c>
       <c r="F29" t="s">
+        <v>607</v>
+      </c>
+      <c r="G29" t="s">
         <v>149</v>
       </c>
-      <c r="G29" t="s">
-        <v>607</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>355</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>287</v>
       </c>
-      <c r="J29" t="s">
-        <v>323</v>
-      </c>
       <c r="K29" t="s">
+        <v>323</v>
+      </c>
+      <c r="L29" t="s">
         <v>3</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>342</v>
       </c>
-      <c r="M29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>608</v>
       </c>
@@ -10489,31 +10498,31 @@
         <v>297</v>
       </c>
       <c r="F30" t="s">
+        <v>609</v>
+      </c>
+      <c r="G30" t="s">
         <v>143</v>
       </c>
-      <c r="G30" t="s">
-        <v>609</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>610</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>1261</v>
       </c>
-      <c r="J30" t="s">
-        <v>323</v>
-      </c>
       <c r="K30" t="s">
+        <v>323</v>
+      </c>
+      <c r="L30" t="s">
         <v>8</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>342</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>611</v>
       </c>
@@ -10527,31 +10536,31 @@
         <v>296</v>
       </c>
       <c r="F31" t="s">
+        <v>612</v>
+      </c>
+      <c r="G31" t="s">
         <v>111</v>
       </c>
-      <c r="G31" t="s">
-        <v>612</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>613</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>1261</v>
       </c>
-      <c r="J31" t="s">
-        <v>323</v>
-      </c>
       <c r="K31" t="s">
+        <v>323</v>
+      </c>
+      <c r="L31" t="s">
         <v>3</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>342</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>614</v>
       </c>
@@ -10565,31 +10574,31 @@
         <v>297</v>
       </c>
       <c r="F32" t="s">
+        <v>615</v>
+      </c>
+      <c r="G32" t="s">
         <v>143</v>
       </c>
-      <c r="G32" t="s">
-        <v>615</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>616</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>1261</v>
       </c>
-      <c r="J32" t="s">
-        <v>323</v>
-      </c>
       <c r="K32" t="s">
+        <v>323</v>
+      </c>
+      <c r="L32" t="s">
         <v>8</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>342</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>617</v>
       </c>
@@ -10603,31 +10612,31 @@
         <v>297</v>
       </c>
       <c r="F33" t="s">
+        <v>618</v>
+      </c>
+      <c r="G33" t="s">
         <v>28</v>
       </c>
-      <c r="G33" t="s">
-        <v>618</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>619</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>289</v>
       </c>
-      <c r="J33" t="s">
-        <v>323</v>
-      </c>
       <c r="K33" t="s">
+        <v>323</v>
+      </c>
+      <c r="L33" t="s">
         <v>7</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>345</v>
       </c>
-      <c r="M33" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>620</v>
       </c>
@@ -10641,31 +10650,31 @@
         <v>297</v>
       </c>
       <c r="F34" t="s">
+        <v>621</v>
+      </c>
+      <c r="G34" t="s">
         <v>79</v>
       </c>
-      <c r="G34" t="s">
-        <v>621</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>622</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>287</v>
       </c>
-      <c r="J34" t="s">
-        <v>323</v>
-      </c>
       <c r="K34" t="s">
+        <v>323</v>
+      </c>
+      <c r="L34" t="s">
         <v>7</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>342</v>
       </c>
-      <c r="M34" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>623</v>
       </c>
@@ -10679,31 +10688,31 @@
         <v>297</v>
       </c>
       <c r="F35" t="s">
+        <v>624</v>
+      </c>
+      <c r="G35" t="s">
         <v>149</v>
       </c>
-      <c r="G35" t="s">
-        <v>624</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>625</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>287</v>
       </c>
-      <c r="J35" t="s">
-        <v>323</v>
-      </c>
       <c r="K35" t="s">
+        <v>323</v>
+      </c>
+      <c r="L35" t="s">
         <v>7</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>342</v>
       </c>
-      <c r="M35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>626</v>
       </c>
@@ -10717,31 +10726,31 @@
         <v>297</v>
       </c>
       <c r="F36" t="s">
+        <v>627</v>
+      </c>
+      <c r="G36" t="s">
         <v>149</v>
       </c>
-      <c r="G36" t="s">
-        <v>627</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>628</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>290</v>
       </c>
-      <c r="J36" t="s">
-        <v>323</v>
-      </c>
       <c r="K36" t="s">
+        <v>323</v>
+      </c>
+      <c r="L36" t="s">
         <v>2</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>343</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>629</v>
       </c>
@@ -10755,31 +10764,31 @@
         <v>297</v>
       </c>
       <c r="F37" t="s">
+        <v>630</v>
+      </c>
+      <c r="G37" t="s">
         <v>79</v>
       </c>
-      <c r="G37" t="s">
-        <v>630</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>631</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>287</v>
       </c>
-      <c r="J37" t="s">
-        <v>323</v>
-      </c>
       <c r="K37" t="s">
+        <v>323</v>
+      </c>
+      <c r="L37" t="s">
         <v>7</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>342</v>
       </c>
-      <c r="M37" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>632</v>
       </c>
@@ -10793,31 +10802,31 @@
         <v>297</v>
       </c>
       <c r="F38" t="s">
+        <v>633</v>
+      </c>
+      <c r="G38" t="s">
         <v>144</v>
       </c>
-      <c r="G38" t="s">
-        <v>633</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>597</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>1261</v>
       </c>
-      <c r="J38" t="s">
-        <v>323</v>
-      </c>
       <c r="K38" t="s">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s">
         <v>3</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>342</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>634</v>
       </c>
@@ -10831,31 +10840,31 @@
         <v>296</v>
       </c>
       <c r="F39" t="s">
+        <v>635</v>
+      </c>
+      <c r="G39" t="s">
         <v>123</v>
       </c>
-      <c r="G39" t="s">
-        <v>635</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>636</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>293</v>
       </c>
-      <c r="J39" t="s">
-        <v>323</v>
-      </c>
       <c r="K39" t="s">
+        <v>323</v>
+      </c>
+      <c r="L39" t="s">
         <v>5</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>346</v>
       </c>
-      <c r="M39" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N39" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>637</v>
       </c>
@@ -10869,31 +10878,31 @@
         <v>297</v>
       </c>
       <c r="F40" t="s">
+        <v>548</v>
+      </c>
+      <c r="G40" t="s">
         <v>143</v>
       </c>
-      <c r="G40" t="s">
-        <v>548</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>638</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>1261</v>
       </c>
-      <c r="J40" t="s">
-        <v>323</v>
-      </c>
       <c r="K40" t="s">
+        <v>323</v>
+      </c>
+      <c r="L40" t="s">
         <v>8</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>342</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>639</v>
       </c>
@@ -10907,31 +10916,31 @@
         <v>297</v>
       </c>
       <c r="F41" t="s">
+        <v>640</v>
+      </c>
+      <c r="G41" t="s">
         <v>138</v>
       </c>
-      <c r="G41" t="s">
-        <v>640</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>641</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>286</v>
       </c>
-      <c r="J41" t="s">
-        <v>323</v>
-      </c>
       <c r="K41" t="s">
+        <v>323</v>
+      </c>
+      <c r="L41" t="s">
         <v>7</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>342</v>
       </c>
-      <c r="M41" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>642</v>
       </c>
@@ -10945,31 +10954,31 @@
         <v>297</v>
       </c>
       <c r="F42" t="s">
+        <v>399</v>
+      </c>
+      <c r="G42" t="s">
         <v>144</v>
       </c>
-      <c r="G42" t="s">
-        <v>399</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>643</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>1261</v>
       </c>
-      <c r="J42" t="s">
-        <v>323</v>
-      </c>
       <c r="K42" t="s">
+        <v>323</v>
+      </c>
+      <c r="L42" t="s">
         <v>7</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>342</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>644</v>
       </c>
@@ -10983,31 +10992,31 @@
         <v>297</v>
       </c>
       <c r="F43" t="s">
+        <v>645</v>
+      </c>
+      <c r="G43" t="s">
         <v>149</v>
       </c>
-      <c r="G43" t="s">
-        <v>645</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>646</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>287</v>
       </c>
-      <c r="J43" t="s">
-        <v>323</v>
-      </c>
       <c r="K43" t="s">
+        <v>323</v>
+      </c>
+      <c r="L43" t="s">
         <v>3</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>342</v>
       </c>
-      <c r="M43" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>647</v>
       </c>
@@ -11021,31 +11030,31 @@
         <v>297</v>
       </c>
       <c r="F44" t="s">
+        <v>507</v>
+      </c>
+      <c r="G44" t="s">
         <v>28</v>
       </c>
-      <c r="G44" t="s">
-        <v>507</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>446</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>289</v>
       </c>
-      <c r="J44" t="s">
-        <v>323</v>
-      </c>
       <c r="K44" t="s">
+        <v>323</v>
+      </c>
+      <c r="L44" t="s">
         <v>7</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>345</v>
       </c>
-      <c r="M44" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>648</v>
       </c>
@@ -11059,31 +11068,31 @@
         <v>296</v>
       </c>
       <c r="F45" t="s">
+        <v>649</v>
+      </c>
+      <c r="G45" t="s">
         <v>111</v>
       </c>
-      <c r="G45" t="s">
-        <v>649</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>650</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>1261</v>
       </c>
-      <c r="J45" t="s">
-        <v>323</v>
-      </c>
       <c r="K45" t="s">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s">
         <v>3</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>342</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>651</v>
       </c>
@@ -11097,31 +11106,31 @@
         <v>296</v>
       </c>
       <c r="F46" t="s">
+        <v>476</v>
+      </c>
+      <c r="G46" t="s">
         <v>111</v>
       </c>
-      <c r="G46" t="s">
-        <v>476</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>652</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>293</v>
       </c>
-      <c r="J46" t="s">
-        <v>323</v>
-      </c>
       <c r="K46" t="s">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s">
         <v>8</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>337</v>
       </c>
-      <c r="M46" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>653</v>
       </c>
@@ -11135,31 +11144,31 @@
         <v>297</v>
       </c>
       <c r="F47" t="s">
+        <v>654</v>
+      </c>
+      <c r="G47" t="s">
         <v>28</v>
       </c>
-      <c r="G47" t="s">
-        <v>654</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>401</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>289</v>
       </c>
-      <c r="J47" t="s">
-        <v>323</v>
-      </c>
       <c r="K47" t="s">
+        <v>323</v>
+      </c>
+      <c r="L47" t="s">
         <v>7</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>345</v>
       </c>
-      <c r="M47" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N47" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>655</v>
       </c>
@@ -11173,31 +11182,31 @@
         <v>296</v>
       </c>
       <c r="F48" t="s">
+        <v>656</v>
+      </c>
+      <c r="G48" t="s">
         <v>133</v>
       </c>
-      <c r="G48" t="s">
-        <v>656</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>657</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>293</v>
       </c>
-      <c r="J48" t="s">
-        <v>323</v>
-      </c>
       <c r="K48" t="s">
+        <v>323</v>
+      </c>
+      <c r="L48" t="s">
         <v>5</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>337</v>
       </c>
-      <c r="M48" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>658</v>
       </c>
@@ -11211,31 +11220,31 @@
         <v>297</v>
       </c>
       <c r="F49" t="s">
+        <v>659</v>
+      </c>
+      <c r="G49" t="s">
         <v>138</v>
       </c>
-      <c r="G49" t="s">
-        <v>659</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>660</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>286</v>
       </c>
-      <c r="J49" t="s">
-        <v>323</v>
-      </c>
       <c r="K49" t="s">
+        <v>323</v>
+      </c>
+      <c r="L49" t="s">
         <v>7</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>342</v>
       </c>
-      <c r="M49" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>661</v>
       </c>
@@ -11249,31 +11258,31 @@
         <v>297</v>
       </c>
       <c r="F50" t="s">
+        <v>662</v>
+      </c>
+      <c r="G50" t="s">
         <v>149</v>
       </c>
-      <c r="G50" t="s">
-        <v>662</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>409</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>287</v>
       </c>
-      <c r="J50" t="s">
-        <v>323</v>
-      </c>
       <c r="K50" t="s">
+        <v>323</v>
+      </c>
+      <c r="L50" t="s">
         <v>3</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>342</v>
       </c>
-      <c r="M50" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>663</v>
       </c>
@@ -11287,31 +11296,31 @@
         <v>297</v>
       </c>
       <c r="F51" t="s">
+        <v>664</v>
+      </c>
+      <c r="G51" t="s">
         <v>138</v>
       </c>
-      <c r="G51" t="s">
-        <v>664</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>665</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>1261</v>
       </c>
-      <c r="J51" t="s">
-        <v>323</v>
-      </c>
       <c r="K51" t="s">
+        <v>323</v>
+      </c>
+      <c r="L51" t="s">
         <v>3</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>342</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>666</v>
       </c>
@@ -11325,31 +11334,31 @@
         <v>296</v>
       </c>
       <c r="F52" t="s">
+        <v>667</v>
+      </c>
+      <c r="G52" t="s">
         <v>111</v>
       </c>
-      <c r="G52" t="s">
-        <v>667</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>668</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>293</v>
       </c>
-      <c r="J52" t="s">
-        <v>323</v>
-      </c>
       <c r="K52" t="s">
+        <v>323</v>
+      </c>
+      <c r="L52" t="s">
         <v>8</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>343</v>
       </c>
-      <c r="M52" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N52" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>669</v>
       </c>
@@ -11363,31 +11372,31 @@
         <v>296</v>
       </c>
       <c r="F53" t="s">
+        <v>670</v>
+      </c>
+      <c r="G53" t="s">
         <v>100</v>
       </c>
-      <c r="G53" t="s">
-        <v>670</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>671</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>293</v>
       </c>
-      <c r="J53" t="s">
-        <v>323</v>
-      </c>
       <c r="K53" t="s">
+        <v>323</v>
+      </c>
+      <c r="L53" t="s">
         <v>11</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>337</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>673</v>
       </c>
@@ -11401,31 +11410,31 @@
         <v>297</v>
       </c>
       <c r="F54" t="s">
+        <v>674</v>
+      </c>
+      <c r="G54" t="s">
         <v>138</v>
       </c>
-      <c r="G54" t="s">
-        <v>674</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>675</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>1261</v>
       </c>
-      <c r="J54" t="s">
-        <v>323</v>
-      </c>
       <c r="K54" t="s">
+        <v>323</v>
+      </c>
+      <c r="L54" t="s">
         <v>3</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>342</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>676</v>
       </c>
@@ -11439,31 +11448,31 @@
         <v>296</v>
       </c>
       <c r="F55" t="s">
+        <v>428</v>
+      </c>
+      <c r="G55" t="s">
         <v>123</v>
       </c>
-      <c r="G55" t="s">
-        <v>428</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>677</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>293</v>
       </c>
-      <c r="J55" t="s">
-        <v>323</v>
-      </c>
       <c r="K55" t="s">
+        <v>323</v>
+      </c>
+      <c r="L55" t="s">
         <v>2</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>346</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>678</v>
       </c>
@@ -11477,31 +11486,31 @@
         <v>296</v>
       </c>
       <c r="F56" t="s">
+        <v>545</v>
+      </c>
+      <c r="G56" t="s">
         <v>126</v>
       </c>
-      <c r="G56" t="s">
-        <v>545</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>679</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>286</v>
       </c>
-      <c r="J56" t="s">
-        <v>323</v>
-      </c>
       <c r="K56" t="s">
+        <v>323</v>
+      </c>
+      <c r="L56" t="s">
         <v>5</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>342</v>
       </c>
-      <c r="M56" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N56" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>680</v>
       </c>
@@ -11515,31 +11524,31 @@
         <v>297</v>
       </c>
       <c r="F57" t="s">
+        <v>562</v>
+      </c>
+      <c r="G57" t="s">
         <v>79</v>
       </c>
-      <c r="G57" t="s">
-        <v>562</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>681</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>288</v>
       </c>
-      <c r="J57" t="s">
-        <v>323</v>
-      </c>
       <c r="K57" t="s">
+        <v>323</v>
+      </c>
+      <c r="L57" t="s">
         <v>7</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>346</v>
       </c>
-      <c r="M57" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N57" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>682</v>
       </c>
@@ -11553,31 +11562,31 @@
         <v>297</v>
       </c>
       <c r="F58" t="s">
+        <v>683</v>
+      </c>
+      <c r="G58" t="s">
         <v>138</v>
       </c>
-      <c r="G58" t="s">
-        <v>683</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>684</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>1261</v>
       </c>
-      <c r="J58" t="s">
-        <v>323</v>
-      </c>
       <c r="K58" t="s">
+        <v>323</v>
+      </c>
+      <c r="L58" t="s">
         <v>3</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>342</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>685</v>
       </c>
@@ -11591,31 +11600,31 @@
         <v>296</v>
       </c>
       <c r="F59" t="s">
+        <v>686</v>
+      </c>
+      <c r="G59" t="s">
         <v>123</v>
       </c>
-      <c r="G59" t="s">
-        <v>686</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>687</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>293</v>
       </c>
-      <c r="J59" t="s">
-        <v>323</v>
-      </c>
       <c r="K59" t="s">
+        <v>323</v>
+      </c>
+      <c r="L59" t="s">
         <v>5</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>346</v>
       </c>
-      <c r="M59" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N59" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>688</v>
       </c>
@@ -11629,31 +11638,31 @@
         <v>297</v>
       </c>
       <c r="F60" t="s">
+        <v>689</v>
+      </c>
+      <c r="G60" t="s">
         <v>138</v>
       </c>
-      <c r="G60" t="s">
-        <v>689</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>690</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>286</v>
       </c>
-      <c r="J60" t="s">
-        <v>323</v>
-      </c>
       <c r="K60" t="s">
+        <v>323</v>
+      </c>
+      <c r="L60" t="s">
         <v>7</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>342</v>
       </c>
-      <c r="M60" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N60" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>691</v>
       </c>
@@ -11667,31 +11676,31 @@
         <v>296</v>
       </c>
       <c r="F61" t="s">
+        <v>692</v>
+      </c>
+      <c r="G61" t="s">
         <v>111</v>
       </c>
-      <c r="G61" t="s">
-        <v>692</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>630</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>288</v>
       </c>
-      <c r="J61" t="s">
-        <v>323</v>
-      </c>
       <c r="K61" t="s">
+        <v>323</v>
+      </c>
+      <c r="L61" t="s">
         <v>3</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>342</v>
       </c>
-      <c r="M61" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N61" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>693</v>
       </c>
@@ -11705,31 +11714,31 @@
         <v>297</v>
       </c>
       <c r="F62" t="s">
+        <v>694</v>
+      </c>
+      <c r="G62" t="s">
         <v>144</v>
       </c>
-      <c r="G62" t="s">
-        <v>694</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>695</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>1261</v>
       </c>
-      <c r="J62" t="s">
-        <v>323</v>
-      </c>
       <c r="K62" t="s">
+        <v>323</v>
+      </c>
+      <c r="L62" t="s">
         <v>8</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>342</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>696</v>
       </c>
@@ -11743,31 +11752,31 @@
         <v>297</v>
       </c>
       <c r="F63" t="s">
+        <v>479</v>
+      </c>
+      <c r="G63" t="s">
         <v>28</v>
       </c>
-      <c r="G63" t="s">
-        <v>479</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>454</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>289</v>
       </c>
-      <c r="J63" t="s">
-        <v>323</v>
-      </c>
       <c r="K63" t="s">
+        <v>323</v>
+      </c>
+      <c r="L63" t="s">
         <v>8</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>697</v>
       </c>
-      <c r="M63" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N63" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>698</v>
       </c>
@@ -11781,31 +11790,31 @@
         <v>297</v>
       </c>
       <c r="F64" t="s">
+        <v>699</v>
+      </c>
+      <c r="G64" t="s">
         <v>115</v>
       </c>
-      <c r="G64" t="s">
-        <v>699</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>700</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>287</v>
       </c>
-      <c r="J64" t="s">
-        <v>323</v>
-      </c>
       <c r="K64" t="s">
+        <v>323</v>
+      </c>
+      <c r="L64" t="s">
         <v>8</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>342</v>
       </c>
-      <c r="M64" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N64" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>701</v>
       </c>
@@ -11819,31 +11828,31 @@
         <v>297</v>
       </c>
       <c r="F65" t="s">
+        <v>702</v>
+      </c>
+      <c r="G65" t="s">
         <v>138</v>
       </c>
-      <c r="G65" t="s">
-        <v>702</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>703</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>1261</v>
       </c>
-      <c r="J65" t="s">
-        <v>323</v>
-      </c>
       <c r="K65" t="s">
+        <v>323</v>
+      </c>
+      <c r="L65" t="s">
         <v>3</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>342</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>704</v>
       </c>
@@ -11857,31 +11866,31 @@
         <v>296</v>
       </c>
       <c r="F66" t="s">
+        <v>705</v>
+      </c>
+      <c r="G66" t="s">
         <v>123</v>
       </c>
-      <c r="G66" t="s">
-        <v>705</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>706</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>293</v>
       </c>
-      <c r="J66" t="s">
-        <v>323</v>
-      </c>
       <c r="K66" t="s">
+        <v>323</v>
+      </c>
+      <c r="L66" t="s">
         <v>7</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>337</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>708</v>
       </c>
@@ -11895,31 +11904,31 @@
         <v>297</v>
       </c>
       <c r="F67" t="s">
+        <v>709</v>
+      </c>
+      <c r="G67" t="s">
         <v>138</v>
       </c>
-      <c r="G67" t="s">
-        <v>709</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>710</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>1261</v>
       </c>
-      <c r="J67" t="s">
-        <v>323</v>
-      </c>
       <c r="K67" t="s">
+        <v>323</v>
+      </c>
+      <c r="L67" t="s">
         <v>8</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>342</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>711</v>
       </c>
@@ -11933,31 +11942,31 @@
         <v>296</v>
       </c>
       <c r="F68" t="s">
+        <v>712</v>
+      </c>
+      <c r="G68" t="s">
         <v>111</v>
       </c>
-      <c r="G68" t="s">
-        <v>712</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>713</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>1261</v>
       </c>
-      <c r="J68" t="s">
-        <v>323</v>
-      </c>
       <c r="K68" t="s">
+        <v>323</v>
+      </c>
+      <c r="L68" t="s">
         <v>3</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>342</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>714</v>
       </c>
@@ -11971,31 +11980,31 @@
         <v>297</v>
       </c>
       <c r="F69" t="s">
+        <v>671</v>
+      </c>
+      <c r="G69" t="s">
         <v>143</v>
       </c>
-      <c r="G69" t="s">
-        <v>671</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>715</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>1261</v>
       </c>
-      <c r="J69" t="s">
-        <v>323</v>
-      </c>
       <c r="K69" t="s">
+        <v>323</v>
+      </c>
+      <c r="L69" t="s">
         <v>8</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>342</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>716</v>
       </c>
@@ -12009,31 +12018,31 @@
         <v>297</v>
       </c>
       <c r="F70" t="s">
+        <v>717</v>
+      </c>
+      <c r="G70" t="s">
         <v>149</v>
       </c>
-      <c r="G70" t="s">
-        <v>717</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>718</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>290</v>
       </c>
-      <c r="J70" t="s">
-        <v>323</v>
-      </c>
       <c r="K70" t="s">
+        <v>323</v>
+      </c>
+      <c r="L70" t="s">
         <v>2</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>343</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>719</v>
       </c>
@@ -12047,31 +12056,31 @@
         <v>297</v>
       </c>
       <c r="F71" t="s">
+        <v>665</v>
+      </c>
+      <c r="G71" t="s">
         <v>145</v>
       </c>
-      <c r="G71" t="s">
-        <v>665</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>720</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>1261</v>
       </c>
-      <c r="J71" t="s">
-        <v>323</v>
-      </c>
       <c r="K71" t="s">
+        <v>323</v>
+      </c>
+      <c r="L71" t="s">
         <v>7</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>342</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>721</v>
       </c>
@@ -12085,31 +12094,31 @@
         <v>297</v>
       </c>
       <c r="F72" t="s">
+        <v>722</v>
+      </c>
+      <c r="G72" t="s">
         <v>138</v>
       </c>
-      <c r="G72" t="s">
-        <v>722</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>723</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>288</v>
       </c>
-      <c r="J72" t="s">
-        <v>323</v>
-      </c>
       <c r="K72" t="s">
+        <v>323</v>
+      </c>
+      <c r="L72" t="s">
         <v>8</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>343</v>
       </c>
-      <c r="M72" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N72" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>724</v>
       </c>
@@ -12123,31 +12132,31 @@
         <v>296</v>
       </c>
       <c r="F73" t="s">
+        <v>725</v>
+      </c>
+      <c r="G73" t="s">
         <v>111</v>
       </c>
-      <c r="G73" t="s">
-        <v>725</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>726</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>288</v>
       </c>
-      <c r="J73" t="s">
-        <v>323</v>
-      </c>
       <c r="K73" t="s">
+        <v>323</v>
+      </c>
+      <c r="L73" t="s">
         <v>3</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>342</v>
       </c>
-      <c r="M73" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N73" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>727</v>
       </c>
@@ -12161,31 +12170,31 @@
         <v>297</v>
       </c>
       <c r="F74" t="s">
+        <v>728</v>
+      </c>
+      <c r="G74" t="s">
         <v>138</v>
       </c>
-      <c r="G74" t="s">
-        <v>728</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>729</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>1261</v>
       </c>
-      <c r="J74" t="s">
-        <v>323</v>
-      </c>
       <c r="K74" t="s">
+        <v>323</v>
+      </c>
+      <c r="L74" t="s">
         <v>3</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>342</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>730</v>
       </c>
@@ -12199,31 +12208,31 @@
         <v>297</v>
       </c>
       <c r="F75" t="s">
+        <v>386</v>
+      </c>
+      <c r="G75" t="s">
         <v>149</v>
       </c>
-      <c r="G75" t="s">
-        <v>386</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>731</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>287</v>
       </c>
-      <c r="J75" t="s">
-        <v>323</v>
-      </c>
       <c r="K75" t="s">
+        <v>323</v>
+      </c>
+      <c r="L75" t="s">
         <v>3</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>342</v>
       </c>
-      <c r="M75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>732</v>
       </c>
@@ -12237,31 +12246,31 @@
         <v>297</v>
       </c>
       <c r="F76" t="s">
+        <v>733</v>
+      </c>
+      <c r="G76" t="s">
         <v>28</v>
       </c>
-      <c r="G76" t="s">
-        <v>733</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>734</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>289</v>
       </c>
-      <c r="J76" t="s">
-        <v>323</v>
-      </c>
       <c r="K76" t="s">
+        <v>323</v>
+      </c>
+      <c r="L76" t="s">
         <v>3</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>343</v>
       </c>
-      <c r="M76" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N76" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>735</v>
       </c>
@@ -12275,31 +12284,31 @@
         <v>297</v>
       </c>
       <c r="F77" t="s">
+        <v>574</v>
+      </c>
+      <c r="G77" t="s">
         <v>28</v>
       </c>
-      <c r="G77" t="s">
-        <v>574</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>725</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>289</v>
       </c>
-      <c r="J77" t="s">
-        <v>323</v>
-      </c>
       <c r="K77" t="s">
+        <v>323</v>
+      </c>
+      <c r="L77" t="s">
         <v>7</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>345</v>
       </c>
-      <c r="M77" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N77" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>736</v>
       </c>
@@ -12313,31 +12322,31 @@
         <v>296</v>
       </c>
       <c r="F78" t="s">
+        <v>725</v>
+      </c>
+      <c r="G78" t="s">
         <v>123</v>
       </c>
-      <c r="G78" t="s">
-        <v>725</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>737</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>293</v>
       </c>
-      <c r="J78" t="s">
-        <v>323</v>
-      </c>
       <c r="K78" t="s">
+        <v>323</v>
+      </c>
+      <c r="L78" t="s">
         <v>5</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>346</v>
       </c>
-      <c r="M78" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>738</v>
       </c>
@@ -12351,31 +12360,31 @@
         <v>297</v>
       </c>
       <c r="F79" t="s">
+        <v>739</v>
+      </c>
+      <c r="G79" t="s">
         <v>28</v>
       </c>
-      <c r="G79" t="s">
-        <v>739</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>740</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>289</v>
       </c>
-      <c r="J79" t="s">
-        <v>323</v>
-      </c>
       <c r="K79" t="s">
+        <v>323</v>
+      </c>
+      <c r="L79" t="s">
         <v>8</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>345</v>
       </c>
-      <c r="M79" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N79" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>741</v>
       </c>
@@ -12389,31 +12398,31 @@
         <v>297</v>
       </c>
       <c r="F80" t="s">
+        <v>694</v>
+      </c>
+      <c r="G80" t="s">
         <v>79</v>
       </c>
-      <c r="G80" t="s">
-        <v>694</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>671</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>288</v>
       </c>
-      <c r="J80" t="s">
-        <v>323</v>
-      </c>
       <c r="K80" t="s">
+        <v>323</v>
+      </c>
+      <c r="L80" t="s">
         <v>7</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>346</v>
       </c>
-      <c r="M80" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N80" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>742</v>
       </c>
@@ -12427,31 +12436,31 @@
         <v>297</v>
       </c>
       <c r="F81" t="s">
+        <v>743</v>
+      </c>
+      <c r="G81" t="s">
         <v>138</v>
       </c>
-      <c r="G81" t="s">
-        <v>743</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>372</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>286</v>
       </c>
-      <c r="J81" t="s">
-        <v>323</v>
-      </c>
       <c r="K81" t="s">
+        <v>323</v>
+      </c>
+      <c r="L81" t="s">
         <v>3</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>342</v>
       </c>
-      <c r="M81" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N81" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>744</v>
       </c>
@@ -12465,31 +12474,31 @@
         <v>297</v>
       </c>
       <c r="F82" t="s">
+        <v>745</v>
+      </c>
+      <c r="G82" t="s">
         <v>149</v>
       </c>
-      <c r="G82" t="s">
-        <v>745</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>565</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>290</v>
       </c>
-      <c r="J82" t="s">
-        <v>323</v>
-      </c>
       <c r="K82" t="s">
+        <v>323</v>
+      </c>
+      <c r="L82" t="s">
         <v>2</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>343</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>746</v>
       </c>
@@ -12503,31 +12512,31 @@
         <v>297</v>
       </c>
       <c r="F83" t="s">
+        <v>380</v>
+      </c>
+      <c r="G83" t="s">
         <v>138</v>
       </c>
-      <c r="G83" t="s">
-        <v>380</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>553</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>1261</v>
       </c>
-      <c r="J83" t="s">
-        <v>323</v>
-      </c>
       <c r="K83" t="s">
+        <v>323</v>
+      </c>
+      <c r="L83" t="s">
         <v>3</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>342</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>747</v>
       </c>
@@ -12541,31 +12550,31 @@
         <v>297</v>
       </c>
       <c r="F84" t="s">
+        <v>748</v>
+      </c>
+      <c r="G84" t="s">
         <v>138</v>
       </c>
-      <c r="G84" t="s">
-        <v>748</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>749</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>1261</v>
       </c>
-      <c r="J84" t="s">
-        <v>323</v>
-      </c>
       <c r="K84" t="s">
+        <v>323</v>
+      </c>
+      <c r="L84" t="s">
         <v>3</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>342</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>750</v>
       </c>
@@ -12579,31 +12588,31 @@
         <v>298</v>
       </c>
       <c r="F85" t="s">
+        <v>751</v>
+      </c>
+      <c r="G85" t="s">
         <v>81</v>
       </c>
-      <c r="G85" t="s">
-        <v>751</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>752</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>1261</v>
       </c>
-      <c r="J85" t="s">
-        <v>323</v>
-      </c>
       <c r="K85" t="s">
+        <v>323</v>
+      </c>
+      <c r="L85" t="s">
         <v>6</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>342</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>753</v>
       </c>
@@ -12617,31 +12626,31 @@
         <v>296</v>
       </c>
       <c r="F86" t="s">
+        <v>540</v>
+      </c>
+      <c r="G86" t="s">
         <v>111</v>
       </c>
-      <c r="G86" t="s">
-        <v>540</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>754</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>1261</v>
       </c>
-      <c r="J86" t="s">
-        <v>323</v>
-      </c>
       <c r="K86" t="s">
+        <v>323</v>
+      </c>
+      <c r="L86" t="s">
         <v>3</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>342</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>755</v>
       </c>
@@ -12655,31 +12664,31 @@
         <v>297</v>
       </c>
       <c r="F87" t="s">
+        <v>756</v>
+      </c>
+      <c r="G87" t="s">
         <v>28</v>
       </c>
-      <c r="G87" t="s">
-        <v>756</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>466</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>289</v>
       </c>
-      <c r="J87" t="s">
-        <v>323</v>
-      </c>
       <c r="K87" t="s">
+        <v>323</v>
+      </c>
+      <c r="L87" t="s">
         <v>8</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>345</v>
       </c>
-      <c r="M87" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N87" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>757</v>
       </c>
@@ -12693,31 +12702,31 @@
         <v>297</v>
       </c>
       <c r="F88" t="s">
+        <v>758</v>
+      </c>
+      <c r="G88" t="s">
         <v>138</v>
       </c>
-      <c r="G88" t="s">
-        <v>758</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>759</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>1261</v>
       </c>
-      <c r="J88" t="s">
-        <v>323</v>
-      </c>
       <c r="K88" t="s">
+        <v>323</v>
+      </c>
+      <c r="L88" t="s">
         <v>7</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>342</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>760</v>
       </c>
@@ -12731,31 +12740,31 @@
         <v>297</v>
       </c>
       <c r="F89" t="s">
+        <v>715</v>
+      </c>
+      <c r="G89" t="s">
         <v>138</v>
       </c>
-      <c r="G89" t="s">
-        <v>715</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>618</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>286</v>
       </c>
-      <c r="J89" t="s">
-        <v>323</v>
-      </c>
       <c r="K89" t="s">
+        <v>323</v>
+      </c>
+      <c r="L89" t="s">
         <v>3</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>342</v>
       </c>
-      <c r="M89" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N89" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>761</v>
       </c>
@@ -12769,31 +12778,31 @@
         <v>297</v>
       </c>
       <c r="F90" t="s">
+        <v>762</v>
+      </c>
+      <c r="G90" t="s">
         <v>149</v>
       </c>
-      <c r="G90" t="s">
-        <v>762</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>763</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>290</v>
       </c>
-      <c r="J90" t="s">
-        <v>323</v>
-      </c>
       <c r="K90" t="s">
+        <v>323</v>
+      </c>
+      <c r="L90" t="s">
         <v>2</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>343</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>764</v>
       </c>
@@ -12807,31 +12816,31 @@
         <v>296</v>
       </c>
       <c r="F91" t="s">
+        <v>765</v>
+      </c>
+      <c r="G91" t="s">
         <v>123</v>
       </c>
-      <c r="G91" t="s">
-        <v>765</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>465</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>293</v>
       </c>
-      <c r="J91" t="s">
-        <v>323</v>
-      </c>
       <c r="K91" t="s">
+        <v>323</v>
+      </c>
+      <c r="L91" t="s">
         <v>3</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>337</v>
       </c>
-      <c r="M91" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N91" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>766</v>
       </c>
@@ -12845,31 +12854,31 @@
         <v>296</v>
       </c>
       <c r="F92" t="s">
+        <v>767</v>
+      </c>
+      <c r="G92" t="s">
         <v>123</v>
       </c>
-      <c r="G92" t="s">
-        <v>767</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>768</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>293</v>
       </c>
-      <c r="J92" t="s">
-        <v>323</v>
-      </c>
       <c r="K92" t="s">
+        <v>323</v>
+      </c>
+      <c r="L92" t="s">
         <v>2</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>346</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>769</v>
       </c>
@@ -12883,31 +12892,31 @@
         <v>297</v>
       </c>
       <c r="F93" t="s">
+        <v>770</v>
+      </c>
+      <c r="G93" t="s">
         <v>138</v>
       </c>
-      <c r="G93" t="s">
-        <v>770</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>630</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>1261</v>
       </c>
-      <c r="J93" t="s">
-        <v>323</v>
-      </c>
       <c r="K93" t="s">
+        <v>323</v>
+      </c>
+      <c r="L93" t="s">
         <v>7</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>342</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>771</v>
       </c>
@@ -12921,31 +12930,31 @@
         <v>297</v>
       </c>
       <c r="F94" t="s">
+        <v>772</v>
+      </c>
+      <c r="G94" t="s">
         <v>28</v>
       </c>
-      <c r="G94" t="s">
-        <v>772</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>773</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>289</v>
       </c>
-      <c r="J94" t="s">
-        <v>323</v>
-      </c>
       <c r="K94" t="s">
+        <v>323</v>
+      </c>
+      <c r="L94" t="s">
         <v>3</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>343</v>
       </c>
-      <c r="M94" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N94" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>774</v>
       </c>
@@ -12959,31 +12968,31 @@
         <v>296</v>
       </c>
       <c r="F95" t="s">
+        <v>461</v>
+      </c>
+      <c r="G95" t="s">
         <v>123</v>
       </c>
-      <c r="G95" t="s">
-        <v>461</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>775</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>288</v>
       </c>
-      <c r="J95" t="s">
-        <v>323</v>
-      </c>
       <c r="K95" t="s">
+        <v>323</v>
+      </c>
+      <c r="L95" t="s">
         <v>2</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>346</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>776</v>
       </c>
@@ -12997,31 +13006,31 @@
         <v>296</v>
       </c>
       <c r="F96" t="s">
+        <v>613</v>
+      </c>
+      <c r="G96" t="s">
         <v>123</v>
       </c>
-      <c r="G96" t="s">
-        <v>613</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>777</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>293</v>
       </c>
-      <c r="J96" t="s">
-        <v>323</v>
-      </c>
       <c r="K96" t="s">
+        <v>323</v>
+      </c>
+      <c r="L96" t="s">
         <v>3</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>342</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>778</v>
       </c>
@@ -13035,31 +13044,31 @@
         <v>297</v>
       </c>
       <c r="F97" t="s">
+        <v>779</v>
+      </c>
+      <c r="G97" t="s">
         <v>138</v>
       </c>
-      <c r="G97" t="s">
-        <v>779</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>466</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>1261</v>
       </c>
-      <c r="J97" t="s">
-        <v>323</v>
-      </c>
       <c r="K97" t="s">
+        <v>323</v>
+      </c>
+      <c r="L97" t="s">
         <v>3</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>342</v>
       </c>
-      <c r="M97" t="s">
+      <c r="N97" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>780</v>
       </c>
@@ -13073,31 +13082,31 @@
         <v>297</v>
       </c>
       <c r="F98" t="s">
+        <v>781</v>
+      </c>
+      <c r="G98" t="s">
         <v>138</v>
       </c>
-      <c r="G98" t="s">
-        <v>781</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>554</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>1261</v>
       </c>
-      <c r="J98" t="s">
-        <v>323</v>
-      </c>
       <c r="K98" t="s">
+        <v>323</v>
+      </c>
+      <c r="L98" t="s">
         <v>3</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>342</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>782</v>
       </c>
@@ -13111,31 +13120,31 @@
         <v>297</v>
       </c>
       <c r="F99" t="s">
+        <v>783</v>
+      </c>
+      <c r="G99" t="s">
         <v>149</v>
       </c>
-      <c r="G99" t="s">
-        <v>783</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>784</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>287</v>
       </c>
-      <c r="J99" t="s">
-        <v>323</v>
-      </c>
       <c r="K99" t="s">
+        <v>323</v>
+      </c>
+      <c r="L99" t="s">
         <v>3</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>342</v>
       </c>
-      <c r="M99" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N99" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>785</v>
       </c>
@@ -13149,31 +13158,31 @@
         <v>297</v>
       </c>
       <c r="F100" t="s">
+        <v>786</v>
+      </c>
+      <c r="G100" t="s">
         <v>143</v>
       </c>
-      <c r="G100" t="s">
-        <v>786</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>787</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>1261</v>
       </c>
-      <c r="J100" t="s">
-        <v>323</v>
-      </c>
       <c r="K100" t="s">
+        <v>323</v>
+      </c>
+      <c r="L100" t="s">
         <v>8</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>342</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>788</v>
       </c>
@@ -13187,31 +13196,31 @@
         <v>297</v>
       </c>
       <c r="F101" t="s">
+        <v>789</v>
+      </c>
+      <c r="G101" t="s">
         <v>149</v>
       </c>
-      <c r="G101" t="s">
-        <v>789</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>401</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>287</v>
       </c>
-      <c r="J101" t="s">
-        <v>323</v>
-      </c>
       <c r="K101" t="s">
+        <v>323</v>
+      </c>
+      <c r="L101" t="s">
         <v>3</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>342</v>
       </c>
-      <c r="M101" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N101" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>790</v>
       </c>
@@ -13225,31 +13234,31 @@
         <v>297</v>
       </c>
       <c r="F102" t="s">
+        <v>791</v>
+      </c>
+      <c r="G102" t="s">
         <v>148</v>
       </c>
-      <c r="G102" t="s">
-        <v>791</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>650</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>291</v>
       </c>
-      <c r="J102" t="s">
-        <v>323</v>
-      </c>
       <c r="K102" t="s">
+        <v>323</v>
+      </c>
+      <c r="L102" t="s">
         <v>3</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>343</v>
       </c>
-      <c r="M102" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N102" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>792</v>
       </c>
@@ -13263,31 +13272,31 @@
         <v>296</v>
       </c>
       <c r="F103" t="s">
+        <v>793</v>
+      </c>
+      <c r="G103" t="s">
         <v>123</v>
       </c>
-      <c r="G103" t="s">
-        <v>793</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>794</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>293</v>
       </c>
-      <c r="J103" t="s">
-        <v>323</v>
-      </c>
       <c r="K103" t="s">
+        <v>323</v>
+      </c>
+      <c r="L103" t="s">
         <v>2</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
         <v>346</v>
       </c>
-      <c r="M103" t="s">
+      <c r="N103" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>795</v>
       </c>
@@ -13301,31 +13310,31 @@
         <v>297</v>
       </c>
       <c r="F104" t="s">
+        <v>393</v>
+      </c>
+      <c r="G104" t="s">
         <v>149</v>
       </c>
-      <c r="G104" t="s">
-        <v>393</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>796</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>290</v>
       </c>
-      <c r="J104" t="s">
-        <v>323</v>
-      </c>
       <c r="K104" t="s">
+        <v>323</v>
+      </c>
+      <c r="L104" t="s">
         <v>2</v>
       </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
         <v>343</v>
       </c>
-      <c r="M104" t="s">
+      <c r="N104" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>797</v>
       </c>
@@ -13339,31 +13348,31 @@
         <v>297</v>
       </c>
       <c r="F105" t="s">
+        <v>798</v>
+      </c>
+      <c r="G105" t="s">
         <v>138</v>
       </c>
-      <c r="G105" t="s">
-        <v>798</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>799</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>1261</v>
       </c>
-      <c r="J105" t="s">
-        <v>323</v>
-      </c>
       <c r="K105" t="s">
+        <v>323</v>
+      </c>
+      <c r="L105" t="s">
         <v>8</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>342</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>800</v>
       </c>
@@ -13377,31 +13386,31 @@
         <v>297</v>
       </c>
       <c r="F106" t="s">
+        <v>801</v>
+      </c>
+      <c r="G106" t="s">
         <v>148</v>
       </c>
-      <c r="G106" t="s">
-        <v>801</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>453</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>291</v>
       </c>
-      <c r="J106" t="s">
-        <v>323</v>
-      </c>
       <c r="K106" t="s">
+        <v>323</v>
+      </c>
+      <c r="L106" t="s">
         <v>3</v>
       </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
         <v>343</v>
       </c>
-      <c r="M106" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N106" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>802</v>
       </c>
@@ -13415,31 +13424,31 @@
         <v>296</v>
       </c>
       <c r="F107" t="s">
+        <v>803</v>
+      </c>
+      <c r="G107" t="s">
         <v>123</v>
       </c>
-      <c r="G107" t="s">
-        <v>803</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>657</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>293</v>
       </c>
-      <c r="J107" t="s">
-        <v>323</v>
-      </c>
       <c r="K107" t="s">
+        <v>323</v>
+      </c>
+      <c r="L107" t="s">
         <v>3</v>
       </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
         <v>343</v>
       </c>
-      <c r="M107" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>804</v>
       </c>
@@ -13453,31 +13462,31 @@
         <v>296</v>
       </c>
       <c r="F108" t="s">
+        <v>805</v>
+      </c>
+      <c r="G108" t="s">
         <v>123</v>
       </c>
-      <c r="G108" t="s">
-        <v>805</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>806</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>293</v>
       </c>
-      <c r="J108" t="s">
-        <v>323</v>
-      </c>
       <c r="K108" t="s">
+        <v>323</v>
+      </c>
+      <c r="L108" t="s">
         <v>2</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>346</v>
       </c>
-      <c r="M108" t="s">
+      <c r="N108" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>807</v>
       </c>
@@ -13491,31 +13500,31 @@
         <v>297</v>
       </c>
       <c r="F109" t="s">
+        <v>808</v>
+      </c>
+      <c r="G109" t="s">
         <v>28</v>
       </c>
-      <c r="G109" t="s">
-        <v>808</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>772</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>289</v>
       </c>
-      <c r="J109" t="s">
-        <v>323</v>
-      </c>
       <c r="K109" t="s">
+        <v>323</v>
+      </c>
+      <c r="L109" t="s">
         <v>8</v>
       </c>
-      <c r="L109" t="s">
+      <c r="M109" t="s">
         <v>697</v>
       </c>
-      <c r="M109" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N109" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>809</v>
       </c>
@@ -13529,31 +13538,31 @@
         <v>296</v>
       </c>
       <c r="F110" t="s">
+        <v>810</v>
+      </c>
+      <c r="G110" t="s">
         <v>133</v>
       </c>
-      <c r="G110" t="s">
-        <v>810</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>811</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>293</v>
       </c>
-      <c r="J110" t="s">
-        <v>323</v>
-      </c>
       <c r="K110" t="s">
+        <v>323</v>
+      </c>
+      <c r="L110" t="s">
         <v>5</v>
       </c>
-      <c r="L110" t="s">
+      <c r="M110" t="s">
         <v>337</v>
       </c>
-      <c r="M110" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N110" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>812</v>
       </c>
@@ -13567,31 +13576,31 @@
         <v>296</v>
       </c>
       <c r="F111" t="s">
+        <v>813</v>
+      </c>
+      <c r="G111" t="s">
         <v>123</v>
       </c>
-      <c r="G111" t="s">
-        <v>813</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>814</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>288</v>
       </c>
-      <c r="J111" t="s">
-        <v>323</v>
-      </c>
       <c r="K111" t="s">
+        <v>323</v>
+      </c>
+      <c r="L111" t="s">
         <v>2</v>
       </c>
-      <c r="L111" t="s">
+      <c r="M111" t="s">
         <v>346</v>
       </c>
-      <c r="M111" t="s">
+      <c r="N111" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>815</v>
       </c>
@@ -13605,31 +13614,31 @@
         <v>297</v>
       </c>
       <c r="F112" t="s">
+        <v>816</v>
+      </c>
+      <c r="G112" t="s">
         <v>138</v>
       </c>
-      <c r="G112" t="s">
-        <v>816</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>817</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>1261</v>
       </c>
-      <c r="J112" t="s">
-        <v>323</v>
-      </c>
       <c r="K112" t="s">
+        <v>323</v>
+      </c>
+      <c r="L112" t="s">
         <v>3</v>
       </c>
-      <c r="L112" t="s">
+      <c r="M112" t="s">
         <v>342</v>
       </c>
-      <c r="M112" t="s">
+      <c r="N112" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>818</v>
       </c>
@@ -13643,31 +13652,31 @@
         <v>297</v>
       </c>
       <c r="F113" t="s">
+        <v>656</v>
+      </c>
+      <c r="G113" t="s">
         <v>138</v>
       </c>
-      <c r="G113" t="s">
-        <v>656</v>
-      </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>625</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>286</v>
       </c>
-      <c r="J113" t="s">
-        <v>323</v>
-      </c>
       <c r="K113" t="s">
+        <v>323</v>
+      </c>
+      <c r="L113" t="s">
         <v>3</v>
       </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
         <v>342</v>
       </c>
-      <c r="M113" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N113" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>819</v>
       </c>
@@ -13681,31 +13690,31 @@
         <v>296</v>
       </c>
       <c r="F114" t="s">
+        <v>709</v>
+      </c>
+      <c r="G114" t="s">
         <v>111</v>
       </c>
-      <c r="G114" t="s">
-        <v>709</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>820</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>288</v>
       </c>
-      <c r="J114" t="s">
-        <v>323</v>
-      </c>
       <c r="K114" t="s">
+        <v>323</v>
+      </c>
+      <c r="L114" t="s">
         <v>3</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>343</v>
       </c>
-      <c r="M114" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N114" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>821</v>
       </c>
@@ -13719,31 +13728,31 @@
         <v>297</v>
       </c>
       <c r="F115" t="s">
+        <v>822</v>
+      </c>
+      <c r="G115" t="s">
         <v>28</v>
       </c>
-      <c r="G115" t="s">
-        <v>822</v>
-      </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>823</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>289</v>
       </c>
-      <c r="J115" t="s">
-        <v>323</v>
-      </c>
       <c r="K115" t="s">
+        <v>323</v>
+      </c>
+      <c r="L115" t="s">
         <v>3</v>
       </c>
-      <c r="L115" t="s">
+      <c r="M115" t="s">
         <v>343</v>
       </c>
-      <c r="M115" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N115" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>824</v>
       </c>
@@ -13757,31 +13766,31 @@
         <v>296</v>
       </c>
       <c r="F116" t="s">
+        <v>825</v>
+      </c>
+      <c r="G116" t="s">
         <v>79</v>
       </c>
-      <c r="G116" t="s">
-        <v>825</v>
-      </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>826</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>293</v>
       </c>
-      <c r="J116" t="s">
-        <v>323</v>
-      </c>
       <c r="K116" t="s">
+        <v>323</v>
+      </c>
+      <c r="L116" t="s">
         <v>9</v>
       </c>
-      <c r="L116" t="s">
+      <c r="M116" t="s">
         <v>346</v>
       </c>
-      <c r="M116" t="s">
+      <c r="N116" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>828</v>
       </c>
@@ -13795,31 +13804,31 @@
         <v>297</v>
       </c>
       <c r="F117" t="s">
+        <v>829</v>
+      </c>
+      <c r="G117" t="s">
         <v>143</v>
       </c>
-      <c r="G117" t="s">
-        <v>829</v>
-      </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>640</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>1261</v>
       </c>
-      <c r="J117" t="s">
-        <v>323</v>
-      </c>
       <c r="K117" t="s">
+        <v>323</v>
+      </c>
+      <c r="L117" t="s">
         <v>8</v>
       </c>
-      <c r="L117" t="s">
+      <c r="M117" t="s">
         <v>342</v>
       </c>
-      <c r="M117" t="s">
+      <c r="N117" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>830</v>
       </c>
@@ -13833,31 +13842,31 @@
         <v>297</v>
       </c>
       <c r="F118" t="s">
+        <v>763</v>
+      </c>
+      <c r="G118" t="s">
         <v>831</v>
       </c>
-      <c r="G118" t="s">
-        <v>763</v>
-      </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>832</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>287</v>
       </c>
-      <c r="J118" t="s">
-        <v>323</v>
-      </c>
       <c r="K118" t="s">
+        <v>323</v>
+      </c>
+      <c r="L118" t="s">
         <v>8</v>
       </c>
-      <c r="L118" t="s">
+      <c r="M118" t="s">
         <v>342</v>
       </c>
-      <c r="M118" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N118" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>833</v>
       </c>
@@ -13871,31 +13880,31 @@
         <v>296</v>
       </c>
       <c r="F119" t="s">
+        <v>834</v>
+      </c>
+      <c r="G119" t="s">
         <v>123</v>
       </c>
-      <c r="G119" t="s">
-        <v>834</v>
-      </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>835</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>293</v>
       </c>
-      <c r="J119" t="s">
-        <v>323</v>
-      </c>
       <c r="K119" t="s">
+        <v>323</v>
+      </c>
+      <c r="L119" t="s">
         <v>2</v>
       </c>
-      <c r="L119" t="s">
+      <c r="M119" t="s">
         <v>346</v>
       </c>
-      <c r="M119" t="s">
+      <c r="N119" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>836</v>
       </c>
@@ -13909,31 +13918,31 @@
         <v>297</v>
       </c>
       <c r="F120" t="s">
+        <v>695</v>
+      </c>
+      <c r="G120" t="s">
         <v>138</v>
       </c>
-      <c r="G120" t="s">
-        <v>695</v>
-      </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>837</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>1261</v>
       </c>
-      <c r="J120" t="s">
-        <v>323</v>
-      </c>
       <c r="K120" t="s">
+        <v>323</v>
+      </c>
+      <c r="L120" t="s">
         <v>7</v>
       </c>
-      <c r="L120" t="s">
+      <c r="M120" t="s">
         <v>342</v>
       </c>
-      <c r="M120" t="s">
+      <c r="N120" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>838</v>
       </c>
@@ -13947,31 +13956,31 @@
         <v>297</v>
       </c>
       <c r="F121" t="s">
+        <v>839</v>
+      </c>
+      <c r="G121" t="s">
         <v>138</v>
       </c>
-      <c r="G121" t="s">
-        <v>839</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>840</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>286</v>
       </c>
-      <c r="J121" t="s">
-        <v>323</v>
-      </c>
       <c r="K121" t="s">
+        <v>323</v>
+      </c>
+      <c r="L121" t="s">
         <v>7</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M121" t="s">
         <v>339</v>
       </c>
-      <c r="M121" t="s">
+      <c r="N121" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>841</v>
       </c>
@@ -13985,31 +13994,31 @@
         <v>296</v>
       </c>
       <c r="F122" t="s">
+        <v>842</v>
+      </c>
+      <c r="G122" t="s">
         <v>28</v>
       </c>
-      <c r="G122" t="s">
-        <v>842</v>
-      </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>843</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>289</v>
       </c>
-      <c r="J122" t="s">
-        <v>323</v>
-      </c>
       <c r="K122" t="s">
+        <v>323</v>
+      </c>
+      <c r="L122" t="s">
         <v>3</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
         <v>343</v>
       </c>
-      <c r="M122" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N122" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>844</v>
       </c>
@@ -14023,31 +14032,31 @@
         <v>296</v>
       </c>
       <c r="F123" t="s">
+        <v>845</v>
+      </c>
+      <c r="G123" t="s">
         <v>123</v>
       </c>
-      <c r="G123" t="s">
-        <v>845</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>631</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>293</v>
       </c>
-      <c r="J123" t="s">
-        <v>323</v>
-      </c>
       <c r="K123" t="s">
+        <v>323</v>
+      </c>
+      <c r="L123" t="s">
         <v>2</v>
       </c>
-      <c r="L123" t="s">
+      <c r="M123" t="s">
         <v>346</v>
       </c>
-      <c r="M123" t="s">
+      <c r="N123" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>846</v>
       </c>
@@ -14061,31 +14070,31 @@
         <v>296</v>
       </c>
       <c r="F124" t="s">
+        <v>720</v>
+      </c>
+      <c r="G124" t="s">
         <v>111</v>
       </c>
-      <c r="G124" t="s">
-        <v>720</v>
-      </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>847</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>288</v>
       </c>
-      <c r="J124" t="s">
-        <v>323</v>
-      </c>
       <c r="K124" t="s">
+        <v>323</v>
+      </c>
+      <c r="L124" t="s">
         <v>3</v>
       </c>
-      <c r="L124" t="s">
+      <c r="M124" t="s">
         <v>342</v>
       </c>
-      <c r="M124" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N124" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>848</v>
       </c>
@@ -14099,31 +14108,31 @@
         <v>297</v>
       </c>
       <c r="F125" t="s">
+        <v>849</v>
+      </c>
+      <c r="G125" t="s">
         <v>100</v>
       </c>
-      <c r="G125" t="s">
-        <v>849</v>
-      </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>850</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>290</v>
       </c>
-      <c r="J125" t="s">
-        <v>323</v>
-      </c>
       <c r="K125" t="s">
+        <v>323</v>
+      </c>
+      <c r="L125" t="s">
         <v>3</v>
       </c>
-      <c r="L125" t="s">
+      <c r="M125" t="s">
         <v>343</v>
       </c>
-      <c r="M125" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N125" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>851</v>
       </c>
@@ -14137,31 +14146,31 @@
         <v>297</v>
       </c>
       <c r="F126" t="s">
+        <v>852</v>
+      </c>
+      <c r="G126" t="s">
         <v>138</v>
       </c>
-      <c r="G126" t="s">
-        <v>852</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>853</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>286</v>
       </c>
-      <c r="J126" t="s">
-        <v>323</v>
-      </c>
       <c r="K126" t="s">
+        <v>323</v>
+      </c>
+      <c r="L126" t="s">
         <v>7</v>
       </c>
-      <c r="L126" t="s">
+      <c r="M126" t="s">
         <v>342</v>
       </c>
-      <c r="M126" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N126" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>854</v>
       </c>
@@ -14175,31 +14184,31 @@
         <v>297</v>
       </c>
       <c r="F127" t="s">
+        <v>855</v>
+      </c>
+      <c r="G127" t="s">
         <v>138</v>
       </c>
-      <c r="G127" t="s">
-        <v>855</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>856</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>1261</v>
       </c>
-      <c r="J127" t="s">
-        <v>323</v>
-      </c>
       <c r="K127" t="s">
+        <v>323</v>
+      </c>
+      <c r="L127" t="s">
         <v>3</v>
       </c>
-      <c r="L127" t="s">
+      <c r="M127" t="s">
         <v>346</v>
       </c>
-      <c r="M127" t="s">
+      <c r="N127" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>857</v>
       </c>
@@ -14213,31 +14222,31 @@
         <v>297</v>
       </c>
       <c r="F128" t="s">
+        <v>456</v>
+      </c>
+      <c r="G128" t="s">
         <v>28</v>
       </c>
-      <c r="G128" t="s">
-        <v>456</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>814</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>289</v>
       </c>
-      <c r="J128" t="s">
-        <v>323</v>
-      </c>
       <c r="K128" t="s">
+        <v>323</v>
+      </c>
+      <c r="L128" t="s">
         <v>8</v>
       </c>
-      <c r="L128" t="s">
+      <c r="M128" t="s">
         <v>697</v>
       </c>
-      <c r="M128" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N128" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>858</v>
       </c>
@@ -14251,31 +14260,31 @@
         <v>296</v>
       </c>
       <c r="F129" t="s">
+        <v>538</v>
+      </c>
+      <c r="G129" t="s">
         <v>111</v>
       </c>
-      <c r="G129" t="s">
-        <v>538</v>
-      </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>568</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>288</v>
       </c>
-      <c r="J129" t="s">
-        <v>323</v>
-      </c>
       <c r="K129" t="s">
+        <v>323</v>
+      </c>
+      <c r="L129" t="s">
         <v>3</v>
       </c>
-      <c r="L129" t="s">
+      <c r="M129" t="s">
         <v>343</v>
       </c>
-      <c r="M129" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N129" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>859</v>
       </c>
@@ -14289,31 +14298,31 @@
         <v>297</v>
       </c>
       <c r="F130" t="s">
+        <v>772</v>
+      </c>
+      <c r="G130" t="s">
         <v>149</v>
       </c>
-      <c r="G130" t="s">
-        <v>772</v>
-      </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>372</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
         <v>287</v>
       </c>
-      <c r="J130" t="s">
-        <v>323</v>
-      </c>
       <c r="K130" t="s">
+        <v>323</v>
+      </c>
+      <c r="L130" t="s">
         <v>3</v>
       </c>
-      <c r="L130" t="s">
+      <c r="M130" t="s">
         <v>342</v>
       </c>
-      <c r="M130" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N130" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>860</v>
       </c>
@@ -14327,31 +14336,31 @@
         <v>297</v>
       </c>
       <c r="F131" t="s">
+        <v>574</v>
+      </c>
+      <c r="G131" t="s">
         <v>149</v>
       </c>
-      <c r="G131" t="s">
-        <v>574</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>861</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" t="s">
         <v>290</v>
       </c>
-      <c r="J131" t="s">
-        <v>323</v>
-      </c>
       <c r="K131" t="s">
+        <v>323</v>
+      </c>
+      <c r="L131" t="s">
         <v>2</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>343</v>
       </c>
-      <c r="M131" t="s">
+      <c r="N131" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>862</v>
       </c>
@@ -14365,31 +14374,31 @@
         <v>297</v>
       </c>
       <c r="F132" t="s">
+        <v>863</v>
+      </c>
+      <c r="G132" t="s">
         <v>138</v>
       </c>
-      <c r="G132" t="s">
-        <v>863</v>
-      </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>864</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
         <v>286</v>
       </c>
-      <c r="J132" t="s">
-        <v>323</v>
-      </c>
       <c r="K132" t="s">
+        <v>323</v>
+      </c>
+      <c r="L132" t="s">
         <v>7</v>
       </c>
-      <c r="L132" t="s">
+      <c r="M132" t="s">
         <v>342</v>
       </c>
-      <c r="M132" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N132" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>865</v>
       </c>
@@ -14403,31 +14412,31 @@
         <v>297</v>
       </c>
       <c r="F133" t="s">
+        <v>739</v>
+      </c>
+      <c r="G133" t="s">
         <v>831</v>
       </c>
-      <c r="G133" t="s">
-        <v>739</v>
-      </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>866</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
         <v>1261</v>
       </c>
-      <c r="J133" t="s">
-        <v>323</v>
-      </c>
       <c r="K133" t="s">
+        <v>323</v>
+      </c>
+      <c r="L133" t="s">
         <v>3</v>
       </c>
-      <c r="L133" t="s">
+      <c r="M133" t="s">
         <v>347</v>
       </c>
-      <c r="M133" t="s">
+      <c r="N133" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>867</v>
       </c>
@@ -14441,31 +14450,31 @@
         <v>297</v>
       </c>
       <c r="F134" t="s">
+        <v>868</v>
+      </c>
+      <c r="G134" t="s">
         <v>138</v>
       </c>
-      <c r="G134" t="s">
-        <v>868</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>493</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>1261</v>
       </c>
-      <c r="J134" t="s">
-        <v>323</v>
-      </c>
       <c r="K134" t="s">
+        <v>323</v>
+      </c>
+      <c r="L134" t="s">
         <v>3</v>
       </c>
-      <c r="L134" t="s">
+      <c r="M134" t="s">
         <v>342</v>
       </c>
-      <c r="M134" t="s">
+      <c r="N134" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>869</v>
       </c>
@@ -14479,31 +14488,31 @@
         <v>297</v>
       </c>
       <c r="F135" t="s">
+        <v>870</v>
+      </c>
+      <c r="G135" t="s">
         <v>143</v>
       </c>
-      <c r="G135" t="s">
-        <v>870</v>
-      </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>871</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>1261</v>
       </c>
-      <c r="J135" t="s">
-        <v>323</v>
-      </c>
       <c r="K135" t="s">
+        <v>323</v>
+      </c>
+      <c r="L135" t="s">
         <v>8</v>
       </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
         <v>342</v>
       </c>
-      <c r="M135" t="s">
+      <c r="N135" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>872</v>
       </c>
@@ -14517,31 +14526,31 @@
         <v>297</v>
       </c>
       <c r="F136" t="s">
+        <v>873</v>
+      </c>
+      <c r="G136" t="s">
         <v>138</v>
       </c>
-      <c r="G136" t="s">
-        <v>873</v>
-      </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>874</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>1261</v>
       </c>
-      <c r="J136" t="s">
-        <v>323</v>
-      </c>
       <c r="K136" t="s">
+        <v>323</v>
+      </c>
+      <c r="L136" t="s">
         <v>7</v>
       </c>
-      <c r="L136" t="s">
+      <c r="M136" t="s">
         <v>342</v>
       </c>
-      <c r="M136" t="s">
+      <c r="N136" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>875</v>
       </c>
@@ -14555,31 +14564,31 @@
         <v>297</v>
       </c>
       <c r="F137" t="s">
+        <v>876</v>
+      </c>
+      <c r="G137" t="s">
         <v>144</v>
       </c>
-      <c r="G137" t="s">
-        <v>876</v>
-      </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>625</v>
       </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
         <v>1261</v>
       </c>
-      <c r="J137" t="s">
-        <v>323</v>
-      </c>
       <c r="K137" t="s">
+        <v>323</v>
+      </c>
+      <c r="L137" t="s">
         <v>3</v>
       </c>
-      <c r="L137" t="s">
+      <c r="M137" t="s">
         <v>342</v>
       </c>
-      <c r="M137" t="s">
+      <c r="N137" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>877</v>
       </c>
@@ -14593,31 +14602,31 @@
         <v>297</v>
       </c>
       <c r="F138" t="s">
+        <v>377</v>
+      </c>
+      <c r="G138" t="s">
         <v>148</v>
       </c>
-      <c r="G138" t="s">
-        <v>377</v>
-      </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>413</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>291</v>
       </c>
-      <c r="J138" t="s">
-        <v>323</v>
-      </c>
       <c r="K138" t="s">
+        <v>323</v>
+      </c>
+      <c r="L138" t="s">
         <v>3</v>
       </c>
-      <c r="L138" t="s">
+      <c r="M138" t="s">
         <v>343</v>
       </c>
-      <c r="M138" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N138" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>878</v>
       </c>
@@ -14631,31 +14640,31 @@
         <v>297</v>
       </c>
       <c r="F139" t="s">
+        <v>801</v>
+      </c>
+      <c r="G139" t="s">
         <v>149</v>
       </c>
-      <c r="G139" t="s">
-        <v>801</v>
-      </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>879</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
         <v>290</v>
       </c>
-      <c r="J139" t="s">
-        <v>323</v>
-      </c>
       <c r="K139" t="s">
+        <v>323</v>
+      </c>
+      <c r="L139" t="s">
         <v>2</v>
       </c>
-      <c r="L139" t="s">
+      <c r="M139" t="s">
         <v>343</v>
       </c>
-      <c r="M139" t="s">
+      <c r="N139" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>880</v>
       </c>
@@ -14669,31 +14678,31 @@
         <v>297</v>
       </c>
       <c r="F140" t="s">
+        <v>665</v>
+      </c>
+      <c r="G140" t="s">
         <v>145</v>
       </c>
-      <c r="G140" t="s">
-        <v>665</v>
-      </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
         <v>881</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
         <v>1261</v>
       </c>
-      <c r="J140" t="s">
-        <v>323</v>
-      </c>
       <c r="K140" t="s">
+        <v>323</v>
+      </c>
+      <c r="L140" t="s">
         <v>7</v>
       </c>
-      <c r="L140" t="s">
+      <c r="M140" t="s">
         <v>342</v>
       </c>
-      <c r="M140" t="s">
+      <c r="N140" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>882</v>
       </c>
@@ -14707,31 +14716,31 @@
         <v>297</v>
       </c>
       <c r="F141" t="s">
+        <v>883</v>
+      </c>
+      <c r="G141" t="s">
         <v>79</v>
       </c>
-      <c r="G141" t="s">
-        <v>883</v>
-      </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>884</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>1261</v>
       </c>
-      <c r="J141" t="s">
-        <v>323</v>
-      </c>
       <c r="K141" t="s">
+        <v>323</v>
+      </c>
+      <c r="L141" t="s">
         <v>4</v>
       </c>
-      <c r="L141" t="s">
+      <c r="M141" t="s">
         <v>342</v>
       </c>
-      <c r="M141" t="s">
+      <c r="N141" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>885</v>
       </c>
@@ -14745,31 +14754,31 @@
         <v>296</v>
       </c>
       <c r="F142" t="s">
+        <v>834</v>
+      </c>
+      <c r="G142" t="s">
         <v>111</v>
       </c>
-      <c r="G142" t="s">
-        <v>834</v>
-      </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>367</v>
       </c>
-      <c r="I142" t="s">
+      <c r="J142" t="s">
         <v>293</v>
       </c>
-      <c r="J142" t="s">
-        <v>323</v>
-      </c>
       <c r="K142" t="s">
+        <v>323</v>
+      </c>
+      <c r="L142" t="s">
         <v>8</v>
       </c>
-      <c r="L142" t="s">
+      <c r="M142" t="s">
         <v>343</v>
       </c>
-      <c r="M142" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N142" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>886</v>
       </c>
@@ -14783,31 +14792,31 @@
         <v>297</v>
       </c>
       <c r="F143" t="s">
+        <v>887</v>
+      </c>
+      <c r="G143" t="s">
         <v>149</v>
       </c>
-      <c r="G143" t="s">
-        <v>887</v>
-      </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>476</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
         <v>290</v>
       </c>
-      <c r="J143" t="s">
-        <v>323</v>
-      </c>
       <c r="K143" t="s">
+        <v>323</v>
+      </c>
+      <c r="L143" t="s">
         <v>2</v>
       </c>
-      <c r="L143" t="s">
+      <c r="M143" t="s">
         <v>343</v>
       </c>
-      <c r="M143" t="s">
+      <c r="N143" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>888</v>
       </c>
@@ -14821,31 +14830,31 @@
         <v>297</v>
       </c>
       <c r="F144" t="s">
+        <v>889</v>
+      </c>
+      <c r="G144" t="s">
         <v>138</v>
       </c>
-      <c r="G144" t="s">
-        <v>889</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>615</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
         <v>1261</v>
       </c>
-      <c r="J144" t="s">
-        <v>323</v>
-      </c>
       <c r="K144" t="s">
+        <v>323</v>
+      </c>
+      <c r="L144" t="s">
         <v>3</v>
       </c>
-      <c r="L144" t="s">
+      <c r="M144" t="s">
         <v>342</v>
       </c>
-      <c r="M144" t="s">
+      <c r="N144" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>890</v>
       </c>
@@ -14859,31 +14868,31 @@
         <v>296</v>
       </c>
       <c r="F145" t="s">
+        <v>618</v>
+      </c>
+      <c r="G145" t="s">
         <v>111</v>
       </c>
-      <c r="G145" t="s">
-        <v>618</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>891</v>
       </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>1261</v>
       </c>
-      <c r="J145" t="s">
-        <v>323</v>
-      </c>
       <c r="K145" t="s">
+        <v>323</v>
+      </c>
+      <c r="L145" t="s">
         <v>3</v>
       </c>
-      <c r="L145" t="s">
+      <c r="M145" t="s">
         <v>342</v>
       </c>
-      <c r="M145" t="s">
+      <c r="N145" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>892</v>
       </c>
@@ -14897,31 +14906,31 @@
         <v>297</v>
       </c>
       <c r="F146" t="s">
+        <v>893</v>
+      </c>
+      <c r="G146" t="s">
         <v>138</v>
       </c>
-      <c r="G146" t="s">
-        <v>893</v>
-      </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>894</v>
       </c>
-      <c r="I146" t="s">
+      <c r="J146" t="s">
         <v>1261</v>
       </c>
-      <c r="J146" t="s">
-        <v>323</v>
-      </c>
       <c r="K146" t="s">
+        <v>323</v>
+      </c>
+      <c r="L146" t="s">
         <v>3</v>
       </c>
-      <c r="L146" t="s">
+      <c r="M146" t="s">
         <v>342</v>
       </c>
-      <c r="M146" t="s">
+      <c r="N146" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>895</v>
       </c>
@@ -14935,31 +14944,31 @@
         <v>297</v>
       </c>
       <c r="F147" t="s">
+        <v>896</v>
+      </c>
+      <c r="G147" t="s">
         <v>144</v>
       </c>
-      <c r="G147" t="s">
-        <v>896</v>
-      </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>897</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>1261</v>
       </c>
-      <c r="J147" t="s">
-        <v>323</v>
-      </c>
       <c r="K147" t="s">
+        <v>323</v>
+      </c>
+      <c r="L147" t="s">
         <v>7</v>
       </c>
-      <c r="L147" t="s">
+      <c r="M147" t="s">
         <v>342</v>
       </c>
-      <c r="M147" t="s">
+      <c r="N147" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>898</v>
       </c>
@@ -14973,31 +14982,31 @@
         <v>297</v>
       </c>
       <c r="F148" t="s">
+        <v>899</v>
+      </c>
+      <c r="G148" t="s">
         <v>138</v>
       </c>
-      <c r="G148" t="s">
-        <v>899</v>
-      </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>900</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>1261</v>
       </c>
-      <c r="J148" t="s">
-        <v>323</v>
-      </c>
       <c r="K148" t="s">
+        <v>323</v>
+      </c>
+      <c r="L148" t="s">
         <v>3</v>
       </c>
-      <c r="L148" t="s">
+      <c r="M148" t="s">
         <v>342</v>
       </c>
-      <c r="M148" t="s">
+      <c r="N148" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>901</v>
       </c>
@@ -15011,31 +15020,31 @@
         <v>297</v>
       </c>
       <c r="F149" t="s">
+        <v>902</v>
+      </c>
+      <c r="G149" t="s">
         <v>138</v>
       </c>
-      <c r="G149" t="s">
-        <v>902</v>
-      </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>903</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>1261</v>
       </c>
-      <c r="J149" t="s">
-        <v>323</v>
-      </c>
       <c r="K149" t="s">
+        <v>323</v>
+      </c>
+      <c r="L149" t="s">
         <v>3</v>
       </c>
-      <c r="L149" t="s">
+      <c r="M149" t="s">
         <v>342</v>
       </c>
-      <c r="M149" t="s">
+      <c r="N149" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>904</v>
       </c>
@@ -15049,31 +15058,31 @@
         <v>297</v>
       </c>
       <c r="F150" t="s">
+        <v>905</v>
+      </c>
+      <c r="G150" t="s">
         <v>138</v>
       </c>
-      <c r="G150" t="s">
-        <v>905</v>
-      </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>906</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
         <v>1261</v>
       </c>
-      <c r="J150" t="s">
-        <v>323</v>
-      </c>
       <c r="K150" t="s">
+        <v>323</v>
+      </c>
+      <c r="L150" t="s">
         <v>3</v>
       </c>
-      <c r="L150" t="s">
+      <c r="M150" t="s">
         <v>342</v>
       </c>
-      <c r="M150" t="s">
+      <c r="N150" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>907</v>
       </c>
@@ -15087,31 +15096,31 @@
         <v>297</v>
       </c>
       <c r="F151" t="s">
+        <v>908</v>
+      </c>
+      <c r="G151" t="s">
         <v>144</v>
       </c>
-      <c r="G151" t="s">
-        <v>908</v>
-      </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
         <v>909</v>
       </c>
-      <c r="I151" t="s">
+      <c r="J151" t="s">
         <v>1261</v>
       </c>
-      <c r="J151" t="s">
-        <v>323</v>
-      </c>
       <c r="K151" t="s">
+        <v>323</v>
+      </c>
+      <c r="L151" t="s">
         <v>3</v>
       </c>
-      <c r="L151" t="s">
+      <c r="M151" t="s">
         <v>342</v>
       </c>
-      <c r="M151" t="s">
+      <c r="N151" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>910</v>
       </c>
@@ -15125,31 +15134,31 @@
         <v>296</v>
       </c>
       <c r="F152" t="s">
+        <v>911</v>
+      </c>
+      <c r="G152" t="s">
         <v>123</v>
       </c>
-      <c r="G152" t="s">
-        <v>911</v>
-      </c>
-      <c r="H152" t="s">
+      <c r="I152" t="s">
         <v>912</v>
       </c>
-      <c r="I152" t="s">
+      <c r="J152" t="s">
         <v>293</v>
       </c>
-      <c r="J152" t="s">
-        <v>323</v>
-      </c>
       <c r="K152" t="s">
+        <v>323</v>
+      </c>
+      <c r="L152" t="s">
         <v>3</v>
       </c>
-      <c r="L152" t="s">
+      <c r="M152" t="s">
         <v>346</v>
       </c>
-      <c r="M152" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N152" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>913</v>
       </c>
@@ -15163,31 +15172,31 @@
         <v>297</v>
       </c>
       <c r="F153" t="s">
+        <v>739</v>
+      </c>
+      <c r="G153" t="s">
         <v>138</v>
       </c>
-      <c r="G153" t="s">
-        <v>739</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>914</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
         <v>1261</v>
       </c>
-      <c r="J153" t="s">
-        <v>323</v>
-      </c>
       <c r="K153" t="s">
+        <v>323</v>
+      </c>
+      <c r="L153" t="s">
         <v>8</v>
       </c>
-      <c r="L153" t="s">
+      <c r="M153" t="s">
         <v>342</v>
       </c>
-      <c r="M153" t="s">
+      <c r="N153" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>915</v>
       </c>
@@ -15201,31 +15210,31 @@
         <v>296</v>
       </c>
       <c r="F154" t="s">
+        <v>576</v>
+      </c>
+      <c r="G154" t="s">
         <v>123</v>
       </c>
-      <c r="G154" t="s">
-        <v>576</v>
-      </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>916</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>293</v>
       </c>
-      <c r="J154" t="s">
-        <v>323</v>
-      </c>
       <c r="K154" t="s">
+        <v>323</v>
+      </c>
+      <c r="L154" t="s">
         <v>2</v>
       </c>
-      <c r="L154" t="s">
+      <c r="M154" t="s">
         <v>346</v>
       </c>
-      <c r="M154" t="s">
+      <c r="N154" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>917</v>
       </c>
@@ -15239,31 +15248,31 @@
         <v>297</v>
       </c>
       <c r="F155" t="s">
+        <v>918</v>
+      </c>
+      <c r="G155" t="s">
         <v>28</v>
       </c>
-      <c r="G155" t="s">
-        <v>918</v>
-      </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>428</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
         <v>289</v>
       </c>
-      <c r="J155" t="s">
-        <v>323</v>
-      </c>
       <c r="K155" t="s">
+        <v>323</v>
+      </c>
+      <c r="L155" t="s">
         <v>8</v>
       </c>
-      <c r="L155" t="s">
+      <c r="M155" t="s">
         <v>345</v>
       </c>
-      <c r="M155" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N155" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>919</v>
       </c>
@@ -15277,31 +15286,31 @@
         <v>296</v>
       </c>
       <c r="F156" t="s">
+        <v>660</v>
+      </c>
+      <c r="G156" t="s">
         <v>119</v>
       </c>
-      <c r="G156" t="s">
-        <v>660</v>
-      </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>920</v>
       </c>
-      <c r="I156" t="s">
+      <c r="J156" t="s">
         <v>293</v>
       </c>
-      <c r="J156" t="s">
-        <v>323</v>
-      </c>
       <c r="K156" t="s">
+        <v>323</v>
+      </c>
+      <c r="L156" t="s">
         <v>9</v>
       </c>
-      <c r="L156" t="s">
+      <c r="M156" t="s">
         <v>347</v>
       </c>
-      <c r="M156" t="s">
+      <c r="N156" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>921</v>
       </c>
@@ -15315,31 +15324,31 @@
         <v>297</v>
       </c>
       <c r="F157" t="s">
+        <v>922</v>
+      </c>
+      <c r="G157" t="s">
         <v>138</v>
       </c>
-      <c r="G157" t="s">
-        <v>922</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="I157" t="s">
         <v>923</v>
       </c>
-      <c r="I157" t="s">
+      <c r="J157" t="s">
         <v>286</v>
       </c>
-      <c r="J157" t="s">
-        <v>323</v>
-      </c>
       <c r="K157" t="s">
+        <v>323</v>
+      </c>
+      <c r="L157" t="s">
         <v>8</v>
       </c>
-      <c r="L157" t="s">
+      <c r="M157" t="s">
         <v>342</v>
       </c>
-      <c r="M157" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N157" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>924</v>
       </c>
@@ -15353,31 +15362,31 @@
         <v>297</v>
       </c>
       <c r="F158" t="s">
+        <v>925</v>
+      </c>
+      <c r="G158" t="s">
         <v>143</v>
       </c>
-      <c r="G158" t="s">
-        <v>925</v>
-      </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>926</v>
       </c>
-      <c r="I158" t="s">
+      <c r="J158" t="s">
         <v>1261</v>
       </c>
-      <c r="J158" t="s">
-        <v>323</v>
-      </c>
       <c r="K158" t="s">
+        <v>323</v>
+      </c>
+      <c r="L158" t="s">
         <v>8</v>
       </c>
-      <c r="L158" t="s">
+      <c r="M158" t="s">
         <v>342</v>
       </c>
-      <c r="M158" t="s">
+      <c r="N158" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>927</v>
       </c>
@@ -15391,31 +15400,31 @@
         <v>297</v>
       </c>
       <c r="F159" t="s">
+        <v>928</v>
+      </c>
+      <c r="G159" t="s">
         <v>138</v>
       </c>
-      <c r="G159" t="s">
-        <v>928</v>
-      </c>
-      <c r="H159" t="s">
+      <c r="I159" t="s">
         <v>602</v>
       </c>
-      <c r="I159" t="s">
+      <c r="J159" t="s">
         <v>286</v>
       </c>
-      <c r="J159" t="s">
-        <v>323</v>
-      </c>
       <c r="K159" t="s">
+        <v>323</v>
+      </c>
+      <c r="L159" t="s">
         <v>7</v>
       </c>
-      <c r="L159" t="s">
+      <c r="M159" t="s">
         <v>342</v>
       </c>
-      <c r="M159" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N159" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>929</v>
       </c>
@@ -15429,31 +15438,31 @@
         <v>297</v>
       </c>
       <c r="F160" t="s">
+        <v>930</v>
+      </c>
+      <c r="G160" t="s">
         <v>79</v>
       </c>
-      <c r="G160" t="s">
-        <v>930</v>
-      </c>
-      <c r="H160" t="s">
+      <c r="I160" t="s">
         <v>931</v>
       </c>
-      <c r="I160" t="s">
+      <c r="J160" t="s">
         <v>288</v>
       </c>
-      <c r="J160" t="s">
-        <v>323</v>
-      </c>
       <c r="K160" t="s">
+        <v>323</v>
+      </c>
+      <c r="L160" t="s">
         <v>7</v>
       </c>
-      <c r="L160" t="s">
+      <c r="M160" t="s">
         <v>346</v>
       </c>
-      <c r="M160" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N160" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>932</v>
       </c>
@@ -15467,31 +15476,31 @@
         <v>296</v>
       </c>
       <c r="F161" t="s">
+        <v>933</v>
+      </c>
+      <c r="G161" t="s">
         <v>111</v>
       </c>
-      <c r="G161" t="s">
-        <v>933</v>
-      </c>
-      <c r="H161" t="s">
+      <c r="I161" t="s">
         <v>934</v>
       </c>
-      <c r="I161" t="s">
+      <c r="J161" t="s">
         <v>288</v>
       </c>
-      <c r="J161" t="s">
-        <v>323</v>
-      </c>
       <c r="K161" t="s">
+        <v>323</v>
+      </c>
+      <c r="L161" t="s">
         <v>3</v>
       </c>
-      <c r="L161" t="s">
+      <c r="M161" t="s">
         <v>343</v>
       </c>
-      <c r="M161" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N161" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>935</v>
       </c>
@@ -15505,31 +15514,31 @@
         <v>297</v>
       </c>
       <c r="F162" t="s">
+        <v>720</v>
+      </c>
+      <c r="G162" t="s">
         <v>148</v>
       </c>
-      <c r="G162" t="s">
-        <v>720</v>
-      </c>
-      <c r="H162" t="s">
+      <c r="I162" t="s">
         <v>936</v>
       </c>
-      <c r="I162" t="s">
+      <c r="J162" t="s">
         <v>291</v>
       </c>
-      <c r="J162" t="s">
-        <v>323</v>
-      </c>
       <c r="K162" t="s">
+        <v>323</v>
+      </c>
+      <c r="L162" t="s">
         <v>3</v>
       </c>
-      <c r="L162" t="s">
+      <c r="M162" t="s">
         <v>343</v>
       </c>
-      <c r="M162" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>937</v>
       </c>
@@ -15543,31 +15552,31 @@
         <v>296</v>
       </c>
       <c r="F163" t="s">
+        <v>938</v>
+      </c>
+      <c r="G163" t="s">
         <v>111</v>
       </c>
-      <c r="G163" t="s">
-        <v>938</v>
-      </c>
-      <c r="H163" t="s">
+      <c r="I163" t="s">
         <v>939</v>
       </c>
-      <c r="I163" t="s">
+      <c r="J163" t="s">
         <v>1261</v>
       </c>
-      <c r="J163" t="s">
-        <v>323</v>
-      </c>
       <c r="K163" t="s">
+        <v>323</v>
+      </c>
+      <c r="L163" t="s">
         <v>3</v>
       </c>
-      <c r="L163" t="s">
+      <c r="M163" t="s">
         <v>342</v>
       </c>
-      <c r="M163" t="s">
+      <c r="N163" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>940</v>
       </c>
@@ -15581,31 +15590,31 @@
         <v>296</v>
       </c>
       <c r="F164" t="s">
+        <v>941</v>
+      </c>
+      <c r="G164" t="s">
         <v>100</v>
       </c>
-      <c r="G164" t="s">
-        <v>941</v>
-      </c>
-      <c r="H164" t="s">
+      <c r="I164" t="s">
         <v>942</v>
       </c>
-      <c r="I164" t="s">
+      <c r="J164" t="s">
         <v>293</v>
       </c>
-      <c r="J164" t="s">
-        <v>323</v>
-      </c>
       <c r="K164" t="s">
+        <v>323</v>
+      </c>
+      <c r="L164" t="s">
         <v>11</v>
       </c>
-      <c r="L164" t="s">
+      <c r="M164" t="s">
         <v>339</v>
       </c>
-      <c r="M164" t="s">
+      <c r="N164" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>943</v>
       </c>
@@ -15619,31 +15628,31 @@
         <v>296</v>
       </c>
       <c r="F165" t="s">
+        <v>944</v>
+      </c>
+      <c r="G165" t="s">
         <v>123</v>
       </c>
-      <c r="G165" t="s">
-        <v>944</v>
-      </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>945</v>
       </c>
-      <c r="I165" t="s">
+      <c r="J165" t="s">
         <v>293</v>
       </c>
-      <c r="J165" t="s">
-        <v>323</v>
-      </c>
       <c r="K165" t="s">
+        <v>323</v>
+      </c>
+      <c r="L165" t="s">
         <v>5</v>
       </c>
-      <c r="L165" t="s">
+      <c r="M165" t="s">
         <v>346</v>
       </c>
-      <c r="M165" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N165" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>946</v>
       </c>
@@ -15657,31 +15666,31 @@
         <v>297</v>
       </c>
       <c r="F166" t="s">
+        <v>631</v>
+      </c>
+      <c r="G166" t="s">
         <v>138</v>
       </c>
-      <c r="G166" t="s">
-        <v>631</v>
-      </c>
-      <c r="H166" t="s">
+      <c r="I166" t="s">
         <v>947</v>
       </c>
-      <c r="I166" t="s">
+      <c r="J166" t="s">
         <v>1261</v>
       </c>
-      <c r="J166" t="s">
-        <v>323</v>
-      </c>
       <c r="K166" t="s">
+        <v>323</v>
+      </c>
+      <c r="L166" t="s">
         <v>3</v>
       </c>
-      <c r="L166" t="s">
+      <c r="M166" t="s">
         <v>342</v>
       </c>
-      <c r="M166" t="s">
+      <c r="N166" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>948</v>
       </c>
@@ -15695,31 +15704,31 @@
         <v>296</v>
       </c>
       <c r="F167" t="s">
+        <v>949</v>
+      </c>
+      <c r="G167" t="s">
         <v>111</v>
       </c>
-      <c r="G167" t="s">
-        <v>949</v>
-      </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
         <v>950</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" t="s">
         <v>288</v>
       </c>
-      <c r="J167" t="s">
-        <v>323</v>
-      </c>
       <c r="K167" t="s">
+        <v>323</v>
+      </c>
+      <c r="L167" t="s">
         <v>3</v>
       </c>
-      <c r="L167" t="s">
+      <c r="M167" t="s">
         <v>342</v>
       </c>
-      <c r="M167" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N167" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>951</v>
       </c>
@@ -15733,31 +15742,31 @@
         <v>296</v>
       </c>
       <c r="F168" t="s">
+        <v>952</v>
+      </c>
+      <c r="G168" t="s">
         <v>111</v>
       </c>
-      <c r="G168" t="s">
-        <v>952</v>
-      </c>
-      <c r="H168" t="s">
+      <c r="I168" t="s">
         <v>953</v>
       </c>
-      <c r="I168" t="s">
+      <c r="J168" t="s">
         <v>1261</v>
       </c>
-      <c r="J168" t="s">
-        <v>323</v>
-      </c>
       <c r="K168" t="s">
+        <v>323</v>
+      </c>
+      <c r="L168" t="s">
         <v>3</v>
       </c>
-      <c r="L168" t="s">
+      <c r="M168" t="s">
         <v>342</v>
       </c>
-      <c r="M168" t="s">
+      <c r="N168" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>954</v>
       </c>
@@ -15771,31 +15780,31 @@
         <v>296</v>
       </c>
       <c r="F169" t="s">
+        <v>430</v>
+      </c>
+      <c r="G169" t="s">
         <v>28</v>
       </c>
-      <c r="G169" t="s">
-        <v>430</v>
-      </c>
-      <c r="H169" t="s">
+      <c r="I169" t="s">
         <v>560</v>
       </c>
-      <c r="I169" t="s">
+      <c r="J169" t="s">
         <v>289</v>
       </c>
-      <c r="J169" t="s">
-        <v>323</v>
-      </c>
       <c r="K169" t="s">
+        <v>323</v>
+      </c>
+      <c r="L169" t="s">
         <v>5</v>
       </c>
-      <c r="L169" t="s">
+      <c r="M169" t="s">
         <v>346</v>
       </c>
-      <c r="M169" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N169" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>955</v>
       </c>
@@ -15809,31 +15818,31 @@
         <v>297</v>
       </c>
       <c r="F170" t="s">
+        <v>840</v>
+      </c>
+      <c r="G170" t="s">
         <v>138</v>
       </c>
-      <c r="G170" t="s">
-        <v>840</v>
-      </c>
-      <c r="H170" t="s">
+      <c r="I170" t="s">
         <v>883</v>
       </c>
-      <c r="I170" t="s">
+      <c r="J170" t="s">
         <v>1261</v>
       </c>
-      <c r="J170" t="s">
-        <v>323</v>
-      </c>
       <c r="K170" t="s">
+        <v>323</v>
+      </c>
+      <c r="L170" t="s">
         <v>3</v>
       </c>
-      <c r="L170" t="s">
+      <c r="M170" t="s">
         <v>342</v>
       </c>
-      <c r="M170" t="s">
+      <c r="N170" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>956</v>
       </c>
@@ -15847,31 +15856,31 @@
         <v>296</v>
       </c>
       <c r="F171" t="s">
+        <v>957</v>
+      </c>
+      <c r="G171" t="s">
         <v>123</v>
       </c>
-      <c r="G171" t="s">
-        <v>957</v>
-      </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
         <v>958</v>
       </c>
-      <c r="I171" t="s">
+      <c r="J171" t="s">
         <v>293</v>
       </c>
-      <c r="J171" t="s">
-        <v>323</v>
-      </c>
       <c r="K171" t="s">
+        <v>323</v>
+      </c>
+      <c r="L171" t="s">
         <v>5</v>
       </c>
-      <c r="L171" t="s">
+      <c r="M171" t="s">
         <v>337</v>
       </c>
-      <c r="M171" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N171" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>959</v>
       </c>
@@ -15885,31 +15894,31 @@
         <v>297</v>
       </c>
       <c r="F172" t="s">
+        <v>960</v>
+      </c>
+      <c r="G172" t="s">
         <v>138</v>
       </c>
-      <c r="G172" t="s">
-        <v>960</v>
-      </c>
-      <c r="H172" t="s">
+      <c r="I172" t="s">
         <v>961</v>
       </c>
-      <c r="I172" t="s">
+      <c r="J172" t="s">
         <v>286</v>
       </c>
-      <c r="J172" t="s">
-        <v>323</v>
-      </c>
       <c r="K172" t="s">
+        <v>323</v>
+      </c>
+      <c r="L172" t="s">
         <v>7</v>
       </c>
-      <c r="L172" t="s">
+      <c r="M172" t="s">
         <v>339</v>
       </c>
-      <c r="M172" t="s">
+      <c r="N172" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>962</v>
       </c>
@@ -15923,31 +15932,31 @@
         <v>297</v>
       </c>
       <c r="F173" t="s">
+        <v>963</v>
+      </c>
+      <c r="G173" t="s">
         <v>138</v>
       </c>
-      <c r="G173" t="s">
-        <v>963</v>
-      </c>
-      <c r="H173" t="s">
+      <c r="I173" t="s">
         <v>373</v>
       </c>
-      <c r="I173" t="s">
+      <c r="J173" t="s">
         <v>1261</v>
       </c>
-      <c r="J173" t="s">
-        <v>323</v>
-      </c>
       <c r="K173" t="s">
+        <v>323</v>
+      </c>
+      <c r="L173" t="s">
         <v>7</v>
       </c>
-      <c r="L173" t="s">
+      <c r="M173" t="s">
         <v>346</v>
       </c>
-      <c r="M173" t="s">
+      <c r="N173" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>964</v>
       </c>
@@ -15961,31 +15970,31 @@
         <v>296</v>
       </c>
       <c r="F174" t="s">
+        <v>965</v>
+      </c>
+      <c r="G174" t="s">
         <v>123</v>
       </c>
-      <c r="G174" t="s">
-        <v>965</v>
-      </c>
-      <c r="H174" t="s">
+      <c r="I174" t="s">
         <v>966</v>
       </c>
-      <c r="I174" t="s">
+      <c r="J174" t="s">
         <v>293</v>
       </c>
-      <c r="J174" t="s">
-        <v>323</v>
-      </c>
       <c r="K174" t="s">
+        <v>323</v>
+      </c>
+      <c r="L174" t="s">
         <v>2</v>
       </c>
-      <c r="L174" t="s">
+      <c r="M174" t="s">
         <v>346</v>
       </c>
-      <c r="M174" t="s">
+      <c r="N174" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>967</v>
       </c>
@@ -15999,31 +16008,31 @@
         <v>296</v>
       </c>
       <c r="F175" t="s">
+        <v>624</v>
+      </c>
+      <c r="G175" t="s">
         <v>123</v>
       </c>
-      <c r="G175" t="s">
-        <v>624</v>
-      </c>
-      <c r="H175" t="s">
+      <c r="I175" t="s">
         <v>968</v>
       </c>
-      <c r="I175" t="s">
+      <c r="J175" t="s">
         <v>293</v>
       </c>
-      <c r="J175" t="s">
-        <v>323</v>
-      </c>
       <c r="K175" t="s">
+        <v>323</v>
+      </c>
+      <c r="L175" t="s">
         <v>5</v>
       </c>
-      <c r="L175" t="s">
+      <c r="M175" t="s">
         <v>346</v>
       </c>
-      <c r="M175" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N175" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>969</v>
       </c>
@@ -16037,31 +16046,31 @@
         <v>296</v>
       </c>
       <c r="F176" t="s">
+        <v>970</v>
+      </c>
+      <c r="G176" t="s">
         <v>123</v>
       </c>
-      <c r="G176" t="s">
-        <v>970</v>
-      </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>971</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J176" t="s">
         <v>293</v>
       </c>
-      <c r="J176" t="s">
-        <v>323</v>
-      </c>
       <c r="K176" t="s">
+        <v>323</v>
+      </c>
+      <c r="L176" t="s">
         <v>2</v>
       </c>
-      <c r="L176" t="s">
+      <c r="M176" t="s">
         <v>346</v>
       </c>
-      <c r="M176" t="s">
+      <c r="N176" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>972</v>
       </c>
@@ -16075,31 +16084,31 @@
         <v>297</v>
       </c>
       <c r="F177" t="s">
+        <v>622</v>
+      </c>
+      <c r="G177" t="s">
         <v>149</v>
       </c>
-      <c r="G177" t="s">
-        <v>622</v>
-      </c>
-      <c r="H177" t="s">
+      <c r="I177" t="s">
         <v>973</v>
       </c>
-      <c r="I177" t="s">
+      <c r="J177" t="s">
         <v>290</v>
       </c>
-      <c r="J177" t="s">
-        <v>323</v>
-      </c>
       <c r="K177" t="s">
+        <v>323</v>
+      </c>
+      <c r="L177" t="s">
         <v>2</v>
       </c>
-      <c r="L177" t="s">
+      <c r="M177" t="s">
         <v>343</v>
       </c>
-      <c r="M177" t="s">
+      <c r="N177" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>974</v>
       </c>
@@ -16113,31 +16122,31 @@
         <v>297</v>
       </c>
       <c r="F178" t="s">
+        <v>975</v>
+      </c>
+      <c r="G178" t="s">
         <v>28</v>
       </c>
-      <c r="G178" t="s">
-        <v>975</v>
-      </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
         <v>976</v>
       </c>
-      <c r="I178" t="s">
+      <c r="J178" t="s">
         <v>289</v>
       </c>
-      <c r="J178" t="s">
-        <v>323</v>
-      </c>
       <c r="K178" t="s">
+        <v>323</v>
+      </c>
+      <c r="L178" t="s">
         <v>8</v>
       </c>
-      <c r="L178" t="s">
+      <c r="M178" t="s">
         <v>345</v>
       </c>
-      <c r="M178" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N178" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>977</v>
       </c>
@@ -16151,31 +16160,31 @@
         <v>296</v>
       </c>
       <c r="F179" t="s">
+        <v>389</v>
+      </c>
+      <c r="G179" t="s">
         <v>123</v>
       </c>
-      <c r="G179" t="s">
-        <v>389</v>
-      </c>
-      <c r="H179" t="s">
+      <c r="I179" t="s">
         <v>978</v>
       </c>
-      <c r="I179" t="s">
+      <c r="J179" t="s">
         <v>293</v>
       </c>
-      <c r="J179" t="s">
-        <v>323</v>
-      </c>
       <c r="K179" t="s">
+        <v>323</v>
+      </c>
+      <c r="L179" t="s">
         <v>3</v>
       </c>
-      <c r="L179" t="s">
+      <c r="M179" t="s">
         <v>337</v>
       </c>
-      <c r="M179" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N179" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>979</v>
       </c>
@@ -16189,31 +16198,31 @@
         <v>297</v>
       </c>
       <c r="F180" t="s">
+        <v>767</v>
+      </c>
+      <c r="G180" t="s">
         <v>145</v>
       </c>
-      <c r="G180" t="s">
-        <v>767</v>
-      </c>
-      <c r="H180" t="s">
+      <c r="I180" t="s">
         <v>482</v>
       </c>
-      <c r="I180" t="s">
+      <c r="J180" t="s">
         <v>1261</v>
       </c>
-      <c r="J180" t="s">
-        <v>323</v>
-      </c>
       <c r="K180" t="s">
+        <v>323</v>
+      </c>
+      <c r="L180" t="s">
         <v>7</v>
       </c>
-      <c r="L180" t="s">
+      <c r="M180" t="s">
         <v>342</v>
       </c>
-      <c r="M180" t="s">
+      <c r="N180" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>980</v>
       </c>
@@ -16227,31 +16236,31 @@
         <v>297</v>
       </c>
       <c r="F181" t="s">
+        <v>981</v>
+      </c>
+      <c r="G181" t="s">
         <v>28</v>
       </c>
-      <c r="G181" t="s">
-        <v>981</v>
-      </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
         <v>594</v>
       </c>
-      <c r="I181" t="s">
+      <c r="J181" t="s">
         <v>289</v>
       </c>
-      <c r="J181" t="s">
-        <v>323</v>
-      </c>
       <c r="K181" t="s">
+        <v>323</v>
+      </c>
+      <c r="L181" t="s">
         <v>8</v>
       </c>
-      <c r="L181" t="s">
+      <c r="M181" t="s">
         <v>345</v>
       </c>
-      <c r="M181" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N181" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>982</v>
       </c>
@@ -16265,31 +16274,31 @@
         <v>297</v>
       </c>
       <c r="F182" t="s">
+        <v>498</v>
+      </c>
+      <c r="G182" t="s">
         <v>143</v>
       </c>
-      <c r="G182" t="s">
-        <v>498</v>
-      </c>
-      <c r="H182" t="s">
+      <c r="I182" t="s">
         <v>631</v>
       </c>
-      <c r="I182" t="s">
+      <c r="J182" t="s">
         <v>1261</v>
       </c>
-      <c r="J182" t="s">
-        <v>323</v>
-      </c>
       <c r="K182" t="s">
+        <v>323</v>
+      </c>
+      <c r="L182" t="s">
         <v>8</v>
       </c>
-      <c r="L182" t="s">
+      <c r="M182" t="s">
         <v>342</v>
       </c>
-      <c r="M182" t="s">
+      <c r="N182" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>983</v>
       </c>
@@ -16303,31 +16312,31 @@
         <v>297</v>
       </c>
       <c r="F183" t="s">
+        <v>984</v>
+      </c>
+      <c r="G183" t="s">
         <v>138</v>
       </c>
-      <c r="G183" t="s">
-        <v>984</v>
-      </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>985</v>
       </c>
-      <c r="I183" t="s">
+      <c r="J183" t="s">
         <v>1261</v>
       </c>
-      <c r="J183" t="s">
-        <v>323</v>
-      </c>
       <c r="K183" t="s">
+        <v>323</v>
+      </c>
+      <c r="L183" t="s">
         <v>8</v>
       </c>
-      <c r="L183" t="s">
+      <c r="M183" t="s">
         <v>342</v>
       </c>
-      <c r="M183" t="s">
+      <c r="N183" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>986</v>
       </c>
@@ -16341,31 +16350,31 @@
         <v>296</v>
       </c>
       <c r="F184" t="s">
+        <v>987</v>
+      </c>
+      <c r="G184" t="s">
         <v>111</v>
       </c>
-      <c r="G184" t="s">
-        <v>987</v>
-      </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>988</v>
       </c>
-      <c r="I184" t="s">
+      <c r="J184" t="s">
         <v>1261</v>
       </c>
-      <c r="J184" t="s">
-        <v>323</v>
-      </c>
       <c r="K184" t="s">
+        <v>323</v>
+      </c>
+      <c r="L184" t="s">
         <v>3</v>
       </c>
-      <c r="L184" t="s">
+      <c r="M184" t="s">
         <v>342</v>
       </c>
-      <c r="M184" t="s">
+      <c r="N184" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>989</v>
       </c>
@@ -16379,31 +16388,31 @@
         <v>297</v>
       </c>
       <c r="F185" t="s">
+        <v>990</v>
+      </c>
+      <c r="G185" t="s">
         <v>143</v>
       </c>
-      <c r="G185" t="s">
-        <v>990</v>
-      </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
         <v>791</v>
       </c>
-      <c r="I185" t="s">
+      <c r="J185" t="s">
         <v>1261</v>
       </c>
-      <c r="J185" t="s">
-        <v>323</v>
-      </c>
       <c r="K185" t="s">
+        <v>323</v>
+      </c>
+      <c r="L185" t="s">
         <v>8</v>
       </c>
-      <c r="L185" t="s">
+      <c r="M185" t="s">
         <v>342</v>
       </c>
-      <c r="M185" t="s">
+      <c r="N185" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>991</v>
       </c>
@@ -16417,31 +16426,31 @@
         <v>297</v>
       </c>
       <c r="F186" t="s">
+        <v>992</v>
+      </c>
+      <c r="G186" t="s">
         <v>149</v>
       </c>
-      <c r="G186" t="s">
-        <v>992</v>
-      </c>
-      <c r="H186" t="s">
+      <c r="I186" t="s">
         <v>671</v>
       </c>
-      <c r="I186" t="s">
+      <c r="J186" t="s">
         <v>290</v>
       </c>
-      <c r="J186" t="s">
-        <v>323</v>
-      </c>
       <c r="K186" t="s">
+        <v>323</v>
+      </c>
+      <c r="L186" t="s">
         <v>2</v>
       </c>
-      <c r="L186" t="s">
+      <c r="M186" t="s">
         <v>343</v>
       </c>
-      <c r="M186" t="s">
+      <c r="N186" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>993</v>
       </c>
@@ -16455,31 +16464,31 @@
         <v>297</v>
       </c>
       <c r="F187" t="s">
+        <v>417</v>
+      </c>
+      <c r="G187" t="s">
         <v>97</v>
       </c>
-      <c r="G187" t="s">
-        <v>417</v>
-      </c>
-      <c r="H187" t="s">
+      <c r="I187" t="s">
         <v>994</v>
       </c>
-      <c r="I187" t="s">
+      <c r="J187" t="s">
         <v>291</v>
       </c>
-      <c r="J187" t="s">
-        <v>323</v>
-      </c>
       <c r="K187" t="s">
+        <v>323</v>
+      </c>
+      <c r="L187" t="s">
         <v>7</v>
       </c>
-      <c r="L187" t="s">
+      <c r="M187" t="s">
         <v>343</v>
       </c>
-      <c r="M187" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N187" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>995</v>
       </c>
@@ -16493,31 +16502,31 @@
         <v>297</v>
       </c>
       <c r="F188" t="s">
+        <v>996</v>
+      </c>
+      <c r="G188" t="s">
         <v>145</v>
       </c>
-      <c r="G188" t="s">
-        <v>996</v>
-      </c>
-      <c r="H188" t="s">
+      <c r="I188" t="s">
         <v>997</v>
       </c>
-      <c r="I188" t="s">
+      <c r="J188" t="s">
         <v>1261</v>
       </c>
-      <c r="J188" t="s">
-        <v>323</v>
-      </c>
       <c r="K188" t="s">
+        <v>323</v>
+      </c>
+      <c r="L188" t="s">
         <v>7</v>
       </c>
-      <c r="L188" t="s">
+      <c r="M188" t="s">
         <v>342</v>
       </c>
-      <c r="M188" t="s">
+      <c r="N188" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>998</v>
       </c>
@@ -16531,31 +16540,31 @@
         <v>297</v>
       </c>
       <c r="F189" t="s">
+        <v>377</v>
+      </c>
+      <c r="G189" t="s">
         <v>145</v>
       </c>
-      <c r="G189" t="s">
-        <v>377</v>
-      </c>
-      <c r="H189" t="s">
+      <c r="I189" t="s">
         <v>999</v>
       </c>
-      <c r="I189" t="s">
+      <c r="J189" t="s">
         <v>1261</v>
       </c>
-      <c r="J189" t="s">
-        <v>323</v>
-      </c>
       <c r="K189" t="s">
+        <v>323</v>
+      </c>
+      <c r="L189" t="s">
         <v>7</v>
       </c>
-      <c r="L189" t="s">
+      <c r="M189" t="s">
         <v>342</v>
       </c>
-      <c r="M189" t="s">
+      <c r="N189" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>1000</v>
       </c>
@@ -16569,31 +16578,31 @@
         <v>297</v>
       </c>
       <c r="F190" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G190" t="s">
         <v>148</v>
       </c>
-      <c r="G190" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H190" t="s">
+      <c r="I190" t="s">
         <v>1002</v>
       </c>
-      <c r="I190" t="s">
+      <c r="J190" t="s">
         <v>291</v>
       </c>
-      <c r="J190" t="s">
-        <v>323</v>
-      </c>
       <c r="K190" t="s">
+        <v>323</v>
+      </c>
+      <c r="L190" t="s">
         <v>3</v>
       </c>
-      <c r="L190" t="s">
+      <c r="M190" t="s">
         <v>343</v>
       </c>
-      <c r="M190" t="s">
+      <c r="N190" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>1003</v>
       </c>
@@ -16607,31 +16616,31 @@
         <v>296</v>
       </c>
       <c r="F191" t="s">
+        <v>717</v>
+      </c>
+      <c r="G191" t="s">
         <v>133</v>
       </c>
-      <c r="G191" t="s">
-        <v>717</v>
-      </c>
-      <c r="H191" t="s">
+      <c r="I191" t="s">
         <v>1004</v>
       </c>
-      <c r="I191" t="s">
+      <c r="J191" t="s">
         <v>293</v>
       </c>
-      <c r="J191" t="s">
-        <v>323</v>
-      </c>
       <c r="K191" t="s">
+        <v>323</v>
+      </c>
+      <c r="L191" t="s">
         <v>5</v>
       </c>
-      <c r="L191" t="s">
+      <c r="M191" t="s">
         <v>345</v>
       </c>
-      <c r="M191" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N191" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>1005</v>
       </c>
@@ -16645,31 +16654,31 @@
         <v>297</v>
       </c>
       <c r="F192" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G192" t="s">
         <v>138</v>
       </c>
-      <c r="G192" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H192" t="s">
+      <c r="I192" t="s">
         <v>592</v>
       </c>
-      <c r="I192" t="s">
+      <c r="J192" t="s">
         <v>1261</v>
       </c>
-      <c r="J192" t="s">
-        <v>323</v>
-      </c>
       <c r="K192" t="s">
+        <v>323</v>
+      </c>
+      <c r="L192" t="s">
         <v>3</v>
       </c>
-      <c r="L192" t="s">
+      <c r="M192" t="s">
         <v>346</v>
       </c>
-      <c r="M192" t="s">
+      <c r="N192" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1007</v>
       </c>
@@ -16683,31 +16692,31 @@
         <v>296</v>
       </c>
       <c r="F193" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G193" t="s">
         <v>111</v>
       </c>
-      <c r="G193" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H193" t="s">
+      <c r="I193" t="s">
         <v>770</v>
       </c>
-      <c r="I193" t="s">
+      <c r="J193" t="s">
         <v>288</v>
       </c>
-      <c r="J193" t="s">
-        <v>323</v>
-      </c>
       <c r="K193" t="s">
+        <v>323</v>
+      </c>
+      <c r="L193" t="s">
         <v>3</v>
       </c>
-      <c r="L193" t="s">
+      <c r="M193" t="s">
         <v>343</v>
       </c>
-      <c r="M193" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N193" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>1009</v>
       </c>
@@ -16721,31 +16730,31 @@
         <v>297</v>
       </c>
       <c r="F194" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G194" t="s">
         <v>138</v>
       </c>
-      <c r="G194" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H194" t="s">
+      <c r="I194" t="s">
         <v>1011</v>
       </c>
-      <c r="I194" t="s">
+      <c r="J194" t="s">
         <v>1261</v>
       </c>
-      <c r="J194" t="s">
-        <v>323</v>
-      </c>
       <c r="K194" t="s">
+        <v>323</v>
+      </c>
+      <c r="L194" t="s">
         <v>3</v>
       </c>
-      <c r="L194" t="s">
+      <c r="M194" t="s">
         <v>342</v>
       </c>
-      <c r="M194" t="s">
+      <c r="N194" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1012</v>
       </c>
@@ -16759,31 +16768,31 @@
         <v>297</v>
       </c>
       <c r="F195" t="s">
+        <v>622</v>
+      </c>
+      <c r="G195" t="s">
         <v>28</v>
       </c>
-      <c r="G195" t="s">
-        <v>622</v>
-      </c>
-      <c r="H195" t="s">
+      <c r="I195" t="s">
         <v>1013</v>
       </c>
-      <c r="I195" t="s">
+      <c r="J195" t="s">
         <v>289</v>
       </c>
-      <c r="J195" t="s">
-        <v>323</v>
-      </c>
       <c r="K195" t="s">
+        <v>323</v>
+      </c>
+      <c r="L195" t="s">
         <v>8</v>
       </c>
-      <c r="L195" t="s">
+      <c r="M195" t="s">
         <v>697</v>
       </c>
-      <c r="M195" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N195" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>1014</v>
       </c>
@@ -16797,31 +16806,31 @@
         <v>297</v>
       </c>
       <c r="F196" t="s">
+        <v>353</v>
+      </c>
+      <c r="G196" t="s">
         <v>138</v>
       </c>
-      <c r="G196" t="s">
-        <v>353</v>
-      </c>
-      <c r="H196" t="s">
+      <c r="I196" t="s">
         <v>1015</v>
       </c>
-      <c r="I196" t="s">
+      <c r="J196" t="s">
         <v>286</v>
       </c>
-      <c r="J196" t="s">
-        <v>323</v>
-      </c>
       <c r="K196" t="s">
+        <v>323</v>
+      </c>
+      <c r="L196" t="s">
         <v>7</v>
       </c>
-      <c r="L196" t="s">
+      <c r="M196" t="s">
         <v>342</v>
       </c>
-      <c r="M196" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N196" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>1016</v>
       </c>
@@ -16835,31 +16844,31 @@
         <v>296</v>
       </c>
       <c r="F197" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G197" t="s">
         <v>123</v>
       </c>
-      <c r="G197" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H197" t="s">
+      <c r="I197" t="s">
         <v>1018</v>
       </c>
-      <c r="I197" t="s">
+      <c r="J197" t="s">
         <v>293</v>
       </c>
-      <c r="J197" t="s">
-        <v>323</v>
-      </c>
       <c r="K197" t="s">
+        <v>323</v>
+      </c>
+      <c r="L197" t="s">
         <v>2</v>
       </c>
-      <c r="L197" t="s">
+      <c r="M197" t="s">
         <v>346</v>
       </c>
-      <c r="M197" t="s">
+      <c r="N197" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>1019</v>
       </c>
@@ -16873,31 +16882,31 @@
         <v>297</v>
       </c>
       <c r="F198" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G198" t="s">
         <v>138</v>
       </c>
-      <c r="G198" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H198" t="s">
+      <c r="I198" t="s">
         <v>384</v>
       </c>
-      <c r="I198" t="s">
+      <c r="J198" t="s">
         <v>286</v>
       </c>
-      <c r="J198" t="s">
-        <v>323</v>
-      </c>
       <c r="K198" t="s">
+        <v>323</v>
+      </c>
+      <c r="L198" t="s">
         <v>3</v>
       </c>
-      <c r="L198" t="s">
+      <c r="M198" t="s">
         <v>342</v>
       </c>
-      <c r="M198" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N198" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>1021</v>
       </c>
@@ -16911,31 +16920,31 @@
         <v>297</v>
       </c>
       <c r="F199" t="s">
+        <v>402</v>
+      </c>
+      <c r="G199" t="s">
         <v>138</v>
       </c>
-      <c r="G199" t="s">
-        <v>402</v>
-      </c>
-      <c r="H199" t="s">
+      <c r="I199" t="s">
         <v>1022</v>
       </c>
-      <c r="I199" t="s">
+      <c r="J199" t="s">
         <v>1261</v>
       </c>
-      <c r="J199" t="s">
-        <v>323</v>
-      </c>
       <c r="K199" t="s">
+        <v>323</v>
+      </c>
+      <c r="L199" t="s">
         <v>3</v>
       </c>
-      <c r="L199" t="s">
+      <c r="M199" t="s">
         <v>342</v>
       </c>
-      <c r="M199" t="s">
+      <c r="N199" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1023</v>
       </c>
@@ -16949,31 +16958,31 @@
         <v>297</v>
       </c>
       <c r="F200" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G200" t="s">
         <v>149</v>
       </c>
-      <c r="G200" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H200" t="s">
+      <c r="I200" t="s">
         <v>1025</v>
       </c>
-      <c r="I200" t="s">
+      <c r="J200" t="s">
         <v>290</v>
       </c>
-      <c r="J200" t="s">
-        <v>323</v>
-      </c>
       <c r="K200" t="s">
+        <v>323</v>
+      </c>
+      <c r="L200" t="s">
         <v>3</v>
       </c>
-      <c r="L200" t="s">
+      <c r="M200" t="s">
         <v>346</v>
       </c>
-      <c r="M200" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N200" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1026</v>
       </c>
@@ -16987,27 +16996,27 @@
         <v>297</v>
       </c>
       <c r="F201" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G201" t="s">
         <v>138</v>
       </c>
-      <c r="G201" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H201" t="s">
+      <c r="I201" t="s">
         <v>1028</v>
       </c>
-      <c r="I201" t="s">
+      <c r="J201" t="s">
         <v>1261</v>
       </c>
-      <c r="J201" t="s">
-        <v>323</v>
-      </c>
       <c r="K201" t="s">
+        <v>323</v>
+      </c>
+      <c r="L201" t="s">
         <v>7</v>
       </c>
-      <c r="L201" t="s">
+      <c r="M201" t="s">
         <v>342</v>
       </c>
-      <c r="M201" t="s">
+      <c r="N201" t="s">
         <v>304</v>
       </c>
     </row>
@@ -17015,7 +17024,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I2 A1:C1 A2:D201 F1:F201 M2:M201 I12 I15 I7 I9 I17:I18 I20:I21 I23 I25 I28:I29 I33:I37 I39 I41 I43:I44 I46:I50 I52:I53 I55:I57 I59:I61 I63:I64 I66 I70 I72:I73 I75:I82 I87 I89:I92 I94:I96 I99 I101:I104 I106:I111 I113:I116 I118:I119 I121:I126 I128:I132 I138:I139 I142:I143 I152 I154:I157 I159:I162 I164:I165 I167 I169 I171:I172 I174:I179 I181 I186:I187 I190:I191 I193 I195:I198 I200" numberStoredAsText="1"/>
+    <ignoredError sqref="J2 A1:C1 A2:D201 G1:G201 N2:N201 J12 J15 J7 J9 J17:J18 J20:J21 J23 J25 J28:J29 J33:J37 J39 J41 J43:J44 J46:J50 J52:J53 J55:J57 J59:J61 J63:J64 J66 J70 J72:J73 J75:J82 J87 J89:J92 J94:J96 J99 J101:J104 J106:J111 J113:J116 J118:J119 J121:J126 J128:J132 J138:J139 J142:J143 J152 J154:J157 J159:J162 J164:J165 J167 J169 J171:J172 J174:J179 J181 J186:J187 J190:J191 J193 J195:J198 J200" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -21228,7 +21237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/Account_Invest_Income_Task_TxnMaster_Demo_2025_10_27.xlsx
+++ b/Account_Invest_Income_Task_TxnMaster_Demo_2025_10_27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Ac_Holder" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">[1]Txn_Expanse!A1:M201</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Txn_Income!$A$1:$K$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Txn_Investment!$A$1:$M$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Txn_Investment!$A$1:$N$40</definedName>
     <definedName name="Ac_Holder_List">Ac_Holder!$A$2:$A$12</definedName>
     <definedName name="Ac_Status_List" localSheetId="10">Txn_Status!$A$2:$A$21</definedName>
     <definedName name="Ac_Status_List">#REF!</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4991" uniqueCount="1261">
   <si>
     <t>Expense_Holder</t>
   </si>
@@ -3154,15 +3154,6 @@
   </si>
   <si>
     <t>Task_Tag</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Assignee</t>
-  </si>
-  <si>
-    <t>Priority</t>
   </si>
   <si>
     <t>Task_Category</t>
@@ -4337,7 +4328,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -4433,7 +4424,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -4592,7 +4583,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -4663,7 +4654,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4682,28 +4673,28 @@
         <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="E1" t="s">
         <v>349</v>
       </c>
       <c r="F1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I1" t="s">
         <v>1253</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>1254</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>1255</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -8043,7 +8034,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -8051,45 +8042,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.9140625" customWidth="1"/>
+    <col min="4" max="4" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="H1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>475</v>
       </c>
@@ -8097,34 +8102,37 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" t="s">
         <v>476</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>294</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>343</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>477</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>304</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>478</v>
       </c>
@@ -8132,31 +8140,34 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" t="s">
         <v>298</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>479</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>81</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>295</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>346</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>304</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>480</v>
       </c>
@@ -8164,34 +8175,37 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" t="s">
         <v>481</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>148</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>288</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>343</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>482</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>304</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>483</v>
       </c>
@@ -8199,31 +8213,34 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" t="s">
         <v>296</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>484</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>105</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>289</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>346</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>485</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>486</v>
       </c>
@@ -8231,31 +8248,34 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" t="s">
         <v>296</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>402</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>105</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>289</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>346</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>304</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>487</v>
       </c>
@@ -8263,34 +8283,37 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" t="s">
         <v>488</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>148</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>288</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>346</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>489</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>304</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>490</v>
       </c>
@@ -8298,31 +8321,34 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" t="s">
         <v>296</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>491</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>105</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>289</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>346</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>304</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>492</v>
       </c>
@@ -8330,31 +8356,34 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="D9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" t="s">
         <v>493</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>79</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>288</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>339</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>308</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>494</v>
       </c>
@@ -8362,31 +8391,34 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" t="s">
         <v>296</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>495</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>105</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>288</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>343</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>304</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>496</v>
       </c>
@@ -8394,31 +8426,34 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" t="s">
         <v>370</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>138</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>288</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>2</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>337</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>304</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>497</v>
       </c>
@@ -8426,31 +8461,34 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" t="s">
         <v>299</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>498</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>145</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>288</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>7</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>343</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>304</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>499</v>
       </c>
@@ -8458,31 +8496,34 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" t="s">
         <v>296</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>500</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>128</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>288</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>346</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>304</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>501</v>
       </c>
@@ -8490,31 +8531,34 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="D14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" t="s">
         <v>502</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>144</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>288</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>7</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>342</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>311</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>503</v>
       </c>
@@ -8522,31 +8566,34 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" t="s">
         <v>296</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>504</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>105</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>288</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>3</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>343</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>304</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>505</v>
       </c>
@@ -8554,31 +8601,34 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" t="s">
         <v>504</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>105</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>289</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>3</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>346</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>304</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>506</v>
       </c>
@@ -8586,31 +8636,34 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" t="s">
         <v>296</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>507</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>111</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>288</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>346</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>304</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>508</v>
       </c>
@@ -8618,31 +8671,34 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" t="s">
         <v>509</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>105</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>289</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>8</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>346</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>304</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -8650,31 +8706,34 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" t="s">
         <v>500</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>105</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>289</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>346</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>304</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>511</v>
       </c>
@@ -8682,31 +8741,34 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="D20" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" t="s">
         <v>512</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>105</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>289</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>2</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>346</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>304</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>513</v>
       </c>
@@ -8714,34 +8776,37 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" t="s">
         <v>298</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>514</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>105</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>294</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>7</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>343</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>515</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>304</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>516</v>
       </c>
@@ -8749,31 +8814,34 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" t="s">
         <v>296</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>517</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>124</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>288</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>5</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>346</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>304</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>518</v>
       </c>
@@ -8781,31 +8849,34 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" t="s">
         <v>298</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>500</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>105</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>289</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>7</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>346</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>304</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>519</v>
       </c>
@@ -8813,31 +8884,34 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" t="s">
         <v>296</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>484</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>105</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>289</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>3</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>346</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>485</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>520</v>
       </c>
@@ -8845,31 +8919,34 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D25" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" t="s">
         <v>484</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>105</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>289</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>3</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>346</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>485</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>521</v>
       </c>
@@ -8877,31 +8954,34 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" t="s">
         <v>298</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>484</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>105</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>289</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>3</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>346</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>485</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>522</v>
       </c>
@@ -8909,31 +8989,34 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
+        <v>280</v>
+      </c>
+      <c r="D27" t="s">
         <v>300</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>484</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>105</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>289</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>3</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>346</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>485</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>523</v>
       </c>
@@ -8941,31 +9024,34 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" t="s">
         <v>301</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>484</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>105</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>289</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>3</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>346</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>485</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>524</v>
       </c>
@@ -8973,31 +9059,34 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D29" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" t="s">
         <v>484</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>105</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>289</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>7</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>346</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>485</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>525</v>
       </c>
@@ -9005,31 +9094,34 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" t="s">
         <v>298</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>484</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>105</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>289</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>7</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>346</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>485</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>526</v>
       </c>
@@ -9037,31 +9129,34 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" t="s">
         <v>484</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>105</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>289</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>2</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>346</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>485</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>527</v>
       </c>
@@ -9069,31 +9164,34 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D32" t="s">
         <v>296</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>491</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>105</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>289</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>5</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>346</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>304</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>528</v>
       </c>
@@ -9101,31 +9199,34 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" t="s">
         <v>296</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>491</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>105</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>289</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>8</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>346</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>304</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>529</v>
       </c>
@@ -9133,31 +9234,34 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" t="s">
         <v>296</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>504</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>105</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>288</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>3</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>343</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>304</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>530</v>
       </c>
@@ -9165,31 +9269,34 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" t="s">
         <v>504</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>145</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>288</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>7</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>343</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>304</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>531</v>
       </c>
@@ -9197,31 +9304,34 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E36" t="s">
         <v>504</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>145</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>288</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>7</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>343</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>304</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>499</v>
       </c>
@@ -9229,31 +9339,34 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" t="s">
         <v>296</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>500</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>123</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>288</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>5</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>346</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>304</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>499</v>
       </c>
@@ -9261,31 +9374,34 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" t="s">
         <v>296</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>500</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>106</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>288</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>3</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>346</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>304</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>499</v>
       </c>
@@ -9293,31 +9409,34 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" t="s">
         <v>296</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>500</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>113</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>288</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>8</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>346</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>304</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>499</v>
       </c>
@@ -9325,34 +9444,38 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" t="s">
         <v>296</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>500</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>137</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>288</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>11</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>346</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>304</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>319</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:K40 A1:B1 D1:E1" numberStoredAsText="1"/>
+    <ignoredError sqref="D2:L40 E1:F1 A1:B40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9361,7 +9484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
@@ -9387,37 +9510,37 @@
         <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>474</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>1253</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -9481,7 +9604,7 @@
         <v>538</v>
       </c>
       <c r="J3" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K3" t="s">
         <v>323</v>
@@ -9519,7 +9642,7 @@
         <v>541</v>
       </c>
       <c r="J4" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K4" t="s">
         <v>323</v>
@@ -9557,7 +9680,7 @@
         <v>543</v>
       </c>
       <c r="J5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K5" t="s">
         <v>323</v>
@@ -9595,7 +9718,7 @@
         <v>477</v>
       </c>
       <c r="J6" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K6" t="s">
         <v>323</v>
@@ -9671,7 +9794,7 @@
         <v>551</v>
       </c>
       <c r="J8" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K8" t="s">
         <v>323</v>
@@ -9747,7 +9870,7 @@
         <v>557</v>
       </c>
       <c r="J10" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K10" t="s">
         <v>323</v>
@@ -9785,7 +9908,7 @@
         <v>560</v>
       </c>
       <c r="J11" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K11" t="s">
         <v>323</v>
@@ -9861,7 +9984,7 @@
         <v>402</v>
       </c>
       <c r="J13" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K13" t="s">
         <v>323</v>
@@ -9899,7 +10022,7 @@
         <v>568</v>
       </c>
       <c r="J14" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K14" t="s">
         <v>323</v>
@@ -9975,7 +10098,7 @@
         <v>574</v>
       </c>
       <c r="J16" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K16" t="s">
         <v>323</v>
@@ -10089,7 +10212,7 @@
         <v>583</v>
       </c>
       <c r="J19" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K19" t="s">
         <v>323</v>
@@ -10203,7 +10326,7 @@
         <v>589</v>
       </c>
       <c r="J22" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K22" t="s">
         <v>323</v>
@@ -10279,7 +10402,7 @@
         <v>538</v>
       </c>
       <c r="J24" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K24" t="s">
         <v>323</v>
@@ -10355,7 +10478,7 @@
         <v>600</v>
       </c>
       <c r="J26" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K26" t="s">
         <v>323</v>
@@ -10393,7 +10516,7 @@
         <v>440</v>
       </c>
       <c r="J27" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K27" t="s">
         <v>323</v>
@@ -10507,7 +10630,7 @@
         <v>610</v>
       </c>
       <c r="J30" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K30" t="s">
         <v>323</v>
@@ -10545,7 +10668,7 @@
         <v>613</v>
       </c>
       <c r="J31" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K31" t="s">
         <v>323</v>
@@ -10583,7 +10706,7 @@
         <v>616</v>
       </c>
       <c r="J32" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K32" t="s">
         <v>323</v>
@@ -10811,7 +10934,7 @@
         <v>597</v>
       </c>
       <c r="J38" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K38" t="s">
         <v>323</v>
@@ -10887,7 +11010,7 @@
         <v>638</v>
       </c>
       <c r="J40" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K40" t="s">
         <v>323</v>
@@ -10963,7 +11086,7 @@
         <v>643</v>
       </c>
       <c r="J42" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K42" t="s">
         <v>323</v>
@@ -11077,7 +11200,7 @@
         <v>650</v>
       </c>
       <c r="J45" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K45" t="s">
         <v>323</v>
@@ -11305,7 +11428,7 @@
         <v>665</v>
       </c>
       <c r="J51" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K51" t="s">
         <v>323</v>
@@ -11419,7 +11542,7 @@
         <v>675</v>
       </c>
       <c r="J54" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K54" t="s">
         <v>323</v>
@@ -11571,7 +11694,7 @@
         <v>684</v>
       </c>
       <c r="J58" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K58" t="s">
         <v>323</v>
@@ -11723,7 +11846,7 @@
         <v>695</v>
       </c>
       <c r="J62" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K62" t="s">
         <v>323</v>
@@ -11837,7 +11960,7 @@
         <v>703</v>
       </c>
       <c r="J65" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K65" t="s">
         <v>323</v>
@@ -11913,7 +12036,7 @@
         <v>710</v>
       </c>
       <c r="J67" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K67" t="s">
         <v>323</v>
@@ -11951,7 +12074,7 @@
         <v>713</v>
       </c>
       <c r="J68" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K68" t="s">
         <v>323</v>
@@ -11989,7 +12112,7 @@
         <v>715</v>
       </c>
       <c r="J69" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K69" t="s">
         <v>323</v>
@@ -12065,7 +12188,7 @@
         <v>720</v>
       </c>
       <c r="J71" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K71" t="s">
         <v>323</v>
@@ -12179,7 +12302,7 @@
         <v>729</v>
       </c>
       <c r="J74" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K74" t="s">
         <v>323</v>
@@ -12521,7 +12644,7 @@
         <v>553</v>
       </c>
       <c r="J83" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K83" t="s">
         <v>323</v>
@@ -12559,7 +12682,7 @@
         <v>749</v>
       </c>
       <c r="J84" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K84" t="s">
         <v>323</v>
@@ -12597,7 +12720,7 @@
         <v>752</v>
       </c>
       <c r="J85" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K85" t="s">
         <v>323</v>
@@ -12635,7 +12758,7 @@
         <v>754</v>
       </c>
       <c r="J86" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K86" t="s">
         <v>323</v>
@@ -12711,7 +12834,7 @@
         <v>759</v>
       </c>
       <c r="J88" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K88" t="s">
         <v>323</v>
@@ -12901,7 +13024,7 @@
         <v>630</v>
       </c>
       <c r="J93" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K93" t="s">
         <v>323</v>
@@ -13053,7 +13176,7 @@
         <v>466</v>
       </c>
       <c r="J97" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K97" t="s">
         <v>323</v>
@@ -13091,7 +13214,7 @@
         <v>554</v>
       </c>
       <c r="J98" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K98" t="s">
         <v>323</v>
@@ -13167,7 +13290,7 @@
         <v>787</v>
       </c>
       <c r="J100" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K100" t="s">
         <v>323</v>
@@ -13357,7 +13480,7 @@
         <v>799</v>
       </c>
       <c r="J105" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K105" t="s">
         <v>323</v>
@@ -13623,7 +13746,7 @@
         <v>817</v>
       </c>
       <c r="J112" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K112" t="s">
         <v>323</v>
@@ -13813,7 +13936,7 @@
         <v>640</v>
       </c>
       <c r="J117" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K117" t="s">
         <v>323</v>
@@ -13927,7 +14050,7 @@
         <v>837</v>
       </c>
       <c r="J120" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K120" t="s">
         <v>323</v>
@@ -14193,7 +14316,7 @@
         <v>856</v>
       </c>
       <c r="J127" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K127" t="s">
         <v>323</v>
@@ -14421,7 +14544,7 @@
         <v>866</v>
       </c>
       <c r="J133" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K133" t="s">
         <v>323</v>
@@ -14459,7 +14582,7 @@
         <v>493</v>
       </c>
       <c r="J134" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K134" t="s">
         <v>323</v>
@@ -14497,7 +14620,7 @@
         <v>871</v>
       </c>
       <c r="J135" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K135" t="s">
         <v>323</v>
@@ -14535,7 +14658,7 @@
         <v>874</v>
       </c>
       <c r="J136" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K136" t="s">
         <v>323</v>
@@ -14573,7 +14696,7 @@
         <v>625</v>
       </c>
       <c r="J137" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K137" t="s">
         <v>323</v>
@@ -14687,7 +14810,7 @@
         <v>881</v>
       </c>
       <c r="J140" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K140" t="s">
         <v>323</v>
@@ -14725,7 +14848,7 @@
         <v>884</v>
       </c>
       <c r="J141" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K141" t="s">
         <v>323</v>
@@ -14839,7 +14962,7 @@
         <v>615</v>
       </c>
       <c r="J144" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K144" t="s">
         <v>323</v>
@@ -14877,7 +15000,7 @@
         <v>891</v>
       </c>
       <c r="J145" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K145" t="s">
         <v>323</v>
@@ -14915,7 +15038,7 @@
         <v>894</v>
       </c>
       <c r="J146" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K146" t="s">
         <v>323</v>
@@ -14953,7 +15076,7 @@
         <v>897</v>
       </c>
       <c r="J147" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K147" t="s">
         <v>323</v>
@@ -14991,7 +15114,7 @@
         <v>900</v>
       </c>
       <c r="J148" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K148" t="s">
         <v>323</v>
@@ -15029,7 +15152,7 @@
         <v>903</v>
       </c>
       <c r="J149" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K149" t="s">
         <v>323</v>
@@ -15067,7 +15190,7 @@
         <v>906</v>
       </c>
       <c r="J150" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K150" t="s">
         <v>323</v>
@@ -15105,7 +15228,7 @@
         <v>909</v>
       </c>
       <c r="J151" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K151" t="s">
         <v>323</v>
@@ -15181,7 +15304,7 @@
         <v>914</v>
       </c>
       <c r="J153" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K153" t="s">
         <v>323</v>
@@ -15371,7 +15494,7 @@
         <v>926</v>
       </c>
       <c r="J158" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K158" t="s">
         <v>323</v>
@@ -15561,7 +15684,7 @@
         <v>939</v>
       </c>
       <c r="J163" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K163" t="s">
         <v>323</v>
@@ -15675,7 +15798,7 @@
         <v>947</v>
       </c>
       <c r="J166" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K166" t="s">
         <v>323</v>
@@ -15751,7 +15874,7 @@
         <v>953</v>
       </c>
       <c r="J168" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K168" t="s">
         <v>323</v>
@@ -15827,7 +15950,7 @@
         <v>883</v>
       </c>
       <c r="J170" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K170" t="s">
         <v>323</v>
@@ -15941,7 +16064,7 @@
         <v>373</v>
       </c>
       <c r="J173" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K173" t="s">
         <v>323</v>
@@ -16207,7 +16330,7 @@
         <v>482</v>
       </c>
       <c r="J180" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K180" t="s">
         <v>323</v>
@@ -16283,7 +16406,7 @@
         <v>631</v>
       </c>
       <c r="J182" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K182" t="s">
         <v>323</v>
@@ -16321,7 +16444,7 @@
         <v>985</v>
       </c>
       <c r="J183" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K183" t="s">
         <v>323</v>
@@ -16359,7 +16482,7 @@
         <v>988</v>
       </c>
       <c r="J184" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K184" t="s">
         <v>323</v>
@@ -16397,7 +16520,7 @@
         <v>791</v>
       </c>
       <c r="J185" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K185" t="s">
         <v>323</v>
@@ -16511,7 +16634,7 @@
         <v>997</v>
       </c>
       <c r="J188" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K188" t="s">
         <v>323</v>
@@ -16549,7 +16672,7 @@
         <v>999</v>
       </c>
       <c r="J189" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K189" t="s">
         <v>323</v>
@@ -16663,7 +16786,7 @@
         <v>592</v>
       </c>
       <c r="J192" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K192" t="s">
         <v>323</v>
@@ -16739,7 +16862,7 @@
         <v>1011</v>
       </c>
       <c r="J194" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K194" t="s">
         <v>323</v>
@@ -16929,7 +17052,7 @@
         <v>1022</v>
       </c>
       <c r="J199" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K199" t="s">
         <v>323</v>
@@ -17005,7 +17128,7 @@
         <v>1028</v>
       </c>
       <c r="J201" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K201" t="s">
         <v>323</v>
@@ -17033,74 +17156,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="25.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D2" t="s">
         <v>1037</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>1038</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>1039</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E3" t="s">
         <v>1043</v>
       </c>
-      <c r="B3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>1044</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1047</v>
       </c>
       <c r="G3" t="s">
         <v>829</v>
@@ -17111,45 +17240,45 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F4" t="s">
         <v>1048</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>1049</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E5" t="s">
         <v>1038</v>
       </c>
-      <c r="C5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1041</v>
-      </c>
       <c r="F5" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G5" t="s">
         <v>709</v>
@@ -17157,157 +17286,157 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B6" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C6" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D6" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E6" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F6" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F7" t="s">
         <v>1058</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E8" t="s">
         <v>1038</v>
       </c>
-      <c r="C8" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1041</v>
-      </c>
       <c r="F8" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="G8" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D9" t="s">
         <v>1065</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F9" t="s">
         <v>1066</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>1067</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B10" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C10" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D10" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E10" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F10" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="G10" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H11" t="s">
         <v>1074</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B12" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C12" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D12" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E12" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F12" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G12" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="H12" t="s">
         <v>580</v>
@@ -17315,22 +17444,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B13" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C13" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D13" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E13" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F13" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="G13" t="s">
         <v>912</v>
@@ -17338,303 +17467,303 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B14" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C14" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D14" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E14" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F14" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B15" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C15" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D15" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E15" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F15" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="G15" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B16" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C16" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D16" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E16" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F16" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B17" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C17" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D17" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E17" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F17" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B18" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C18" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D18" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E18" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F18" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B19" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E19" t="s">
         <v>1038</v>
       </c>
-      <c r="C19" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1041</v>
-      </c>
       <c r="F19" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="H19" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B20" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C20" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D20" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E20" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F20" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B21" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C21" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D21" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E21" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F21" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G21" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B22" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E22" t="s">
         <v>1038</v>
       </c>
-      <c r="C22" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1041</v>
-      </c>
       <c r="F22" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="H22" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B23" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E23" t="s">
         <v>1038</v>
       </c>
-      <c r="C23" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1041</v>
-      </c>
       <c r="F23" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G23" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E24" t="s">
         <v>1038</v>
       </c>
-      <c r="C24" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1041</v>
-      </c>
       <c r="F24" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B25" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C25" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D25" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E25" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F25" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="G25" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B26" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E26" t="s">
         <v>1038</v>
       </c>
-      <c r="C26" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1041</v>
-      </c>
       <c r="F26" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="G26" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B27" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C27" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D27" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E27" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F27" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G27" t="s">
         <v>668</v>
@@ -17642,42 +17771,42 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B28" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E28" t="s">
         <v>1038</v>
       </c>
-      <c r="C28" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1041</v>
-      </c>
       <c r="F28" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B29" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C29" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D29" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E29" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F29" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="G29" t="s">
         <v>694</v>
@@ -17685,45 +17814,45 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B30" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C30" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D30" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E30" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F30" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G30" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B31" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C31" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D31" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E31" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F31" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="H31" t="s">
         <v>357</v>
@@ -17731,45 +17860,45 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B32" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C32" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D32" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E32" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F32" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="G32" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B33" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E33" t="s">
         <v>1038</v>
       </c>
-      <c r="C33" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1041</v>
-      </c>
       <c r="F33" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="G33" t="s">
         <v>394</v>
@@ -17777,108 +17906,108 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B34" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E34" t="s">
         <v>1038</v>
       </c>
-      <c r="C34" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1041</v>
-      </c>
       <c r="F34" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B35" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E35" t="s">
         <v>1038</v>
       </c>
-      <c r="C35" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1041</v>
-      </c>
       <c r="F35" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B36" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C36" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D36" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E36" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F36" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="G36" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B37" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E37" t="s">
         <v>1038</v>
       </c>
-      <c r="C37" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1041</v>
-      </c>
       <c r="F37" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="G37" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B38" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C38" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D38" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E38" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F38" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="G38" t="s">
         <v>926</v>
@@ -17886,22 +18015,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B39" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C39" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D39" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E39" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F39" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G39" t="s">
         <v>684</v>
@@ -17909,111 +18038,111 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B40" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E40" t="s">
         <v>1038</v>
       </c>
-      <c r="C40" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1041</v>
-      </c>
       <c r="F40" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="G40" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B41" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E41" t="s">
         <v>1038</v>
       </c>
-      <c r="C41" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1041</v>
-      </c>
       <c r="F41" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G41" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B42" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C42" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D42" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E42" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F42" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B43" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E43" t="s">
         <v>1038</v>
       </c>
-      <c r="C43" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1041</v>
-      </c>
       <c r="F43" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="G43" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B44" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C44" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D44" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E44" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F44" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G44" t="s">
         <v>379</v>
@@ -18024,140 +18153,140 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B45" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C45" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D45" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E45" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F45" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="G45" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B46" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C46" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D46" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E46" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F46" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G46" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B47" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C47" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D47" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E47" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F47" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="G47" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B48" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C48" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D48" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E48" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F48" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="G48" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B49" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C49" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F49" t="s">
         <v>1044</v>
       </c>
-      <c r="D49" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1047</v>
-      </c>
       <c r="G49" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="H49" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B50" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C50" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D50" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E50" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F50" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G50" t="s">
         <v>396</v>
@@ -18165,128 +18294,128 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B51" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C51" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D51" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E51" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F51" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B52" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C52" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D52" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E52" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F52" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="G52" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B53" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C53" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D53" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E53" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F53" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B54" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C54" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D54" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E54" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F54" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="G54" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B55" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F55" t="s">
         <v>1066</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B56" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C56" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D56" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E56" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F56" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="G56" t="s">
         <v>884</v>
@@ -18297,22 +18426,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B57" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C57" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D57" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E57" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F57" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="G57" t="s">
         <v>640</v>
@@ -18320,22 +18449,22 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B58" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C58" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D58" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E58" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F58" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G58" t="s">
         <v>850</v>
@@ -18343,94 +18472,94 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B59" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E59" t="s">
         <v>1038</v>
       </c>
-      <c r="C59" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1041</v>
-      </c>
       <c r="F59" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="G59" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B60" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E60" t="s">
         <v>1038</v>
       </c>
-      <c r="C60" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1041</v>
-      </c>
       <c r="F60" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="G60" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B61" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C61" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D61" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E61" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="G61" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="H61" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B62" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E62" t="s">
         <v>1038</v>
       </c>
-      <c r="C62" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1041</v>
-      </c>
       <c r="F62" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G62" t="s">
         <v>803</v>
@@ -18438,145 +18567,145 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B63" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C63" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D63" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E63" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F63" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B64" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C64" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D64" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E64" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F64" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="H64" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B65" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C65" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D65" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E65" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F65" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B66" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C66" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D66" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E66" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F66" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B67" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C67" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D67" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E67" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F67" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B68" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C68" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D68" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E68" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F68" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B69" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C69" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D69" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E69" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F69" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G69" t="s">
         <v>415</v>
@@ -18584,91 +18713,91 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B70" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C70" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D70" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E70" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F70" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="G70" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B71" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C71" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D71" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E71" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F71" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="G71" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B72" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C72" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D72" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E72" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F72" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="G72" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B73" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C73" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D73" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E73" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F73" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G73" t="s">
         <v>912</v>
@@ -18676,22 +18805,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B74" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C74" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D74" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E74" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F74" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G74" t="s">
         <v>767</v>
@@ -18699,22 +18828,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B75" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C75" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D75" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E75" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F75" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="G75" t="s">
         <v>408</v>
@@ -18722,62 +18851,62 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="B76" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C76" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D76" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E76" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F76" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B77" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C77" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D77" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E77" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F77" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B78" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C78" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D78" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E78" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F78" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="G78" t="s">
         <v>1006</v>
@@ -18785,114 +18914,114 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="B79" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C79" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D79" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E79" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F79" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="G79" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B80" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E80" t="s">
         <v>1038</v>
       </c>
-      <c r="C80" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1041</v>
-      </c>
       <c r="F80" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B81" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C81" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D81" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E81" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F81" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G81" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H81" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B82" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C82" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D82" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E82" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F82" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="H82" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B83" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C83" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D83" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E83" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F83" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="G83" t="s">
         <v>864</v>
@@ -18900,25 +19029,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B84" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C84" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D84" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E84" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F84" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="G84" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="H84" t="s">
         <v>703</v>
@@ -18926,22 +19055,22 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B85" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C85" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D85" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E85" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F85" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G85" t="s">
         <v>864</v>
@@ -18949,42 +19078,42 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B86" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E86" t="s">
         <v>1038</v>
       </c>
-      <c r="C86" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1041</v>
-      </c>
       <c r="F86" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="B87" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E87" t="s">
         <v>1038</v>
       </c>
-      <c r="C87" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1041</v>
-      </c>
       <c r="F87" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G87" t="s">
         <v>839</v>
@@ -18995,22 +19124,22 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B88" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C88" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D88" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E88" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F88" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="G88" t="s">
         <v>665</v>
@@ -19018,22 +19147,22 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B89" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C89" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D89" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E89" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F89" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="G89" t="s">
         <v>446</v>
@@ -19041,88 +19170,88 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B90" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C90" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D90" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E90" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F90" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B91" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C91" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D91" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E91" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F91" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="G91" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="B92" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C92" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D92" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E92" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F92" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G92" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B93" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C93" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D93" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E93" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F93" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="G93" t="s">
         <v>382</v>
@@ -19130,131 +19259,131 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B94" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C94" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D94" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E94" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F94" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="H94" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B95" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C95" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F95" t="s">
         <v>1044</v>
       </c>
-      <c r="D95" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F95" t="s">
-        <v>1047</v>
-      </c>
       <c r="H95" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B96" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E96" t="s">
         <v>1038</v>
       </c>
-      <c r="C96" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1041</v>
-      </c>
       <c r="F96" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B97" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E97" t="s">
         <v>1038</v>
       </c>
-      <c r="C97" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1041</v>
-      </c>
       <c r="F97" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B98" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E98" t="s">
         <v>1038</v>
       </c>
-      <c r="C98" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1041</v>
-      </c>
       <c r="F98" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="G98" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B99" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E99" t="s">
         <v>1038</v>
       </c>
-      <c r="C99" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1041</v>
-      </c>
       <c r="F99" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="H99" t="s">
         <v>864</v>
@@ -19262,42 +19391,42 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B100" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C100" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D100" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E100" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F100" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B101" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E101" t="s">
         <v>1038</v>
       </c>
-      <c r="C101" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1041</v>
-      </c>
       <c r="F101" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="G101" t="s">
         <v>357</v>
@@ -19306,7 +19435,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H101" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:H101 A1:B1 F1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -19321,177 +19450,177 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
@@ -19517,22 +19646,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
   </sheetData>
@@ -19553,37 +19682,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -19680,32 +19809,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
@@ -19718,41 +19847,49 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1240</v>
+      <c r="A1" s="1" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1041</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1241</v>
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1238</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A6">
+    <sortCondition ref="A2:A6"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:A5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -19761,63 +19898,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
@@ -21186,7 +21325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -21245,7 +21386,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -21270,7 +21411,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
@@ -21329,7 +21470,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">

--- a/Account_Invest_Income_Task_TxnMaster_Demo_2025_10_27.xlsx
+++ b/Account_Invest_Income_Task_TxnMaster_Demo_2025_10_27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Ac_Holder" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="Income_Ac_Tag" sheetId="5" r:id="rId5"/>
     <sheet name="Expanse_Ac_Tag" sheetId="6" r:id="rId6"/>
     <sheet name="Investment_Ac_Tag" sheetId="7" r:id="rId7"/>
-    <sheet name="Txn_Mode" sheetId="8" r:id="rId8"/>
+    <sheet name="Mode_Txn" sheetId="8" r:id="rId8"/>
     <sheet name="Currency" sheetId="9" r:id="rId9"/>
     <sheet name="Ac_Status" sheetId="10" r:id="rId10"/>
-    <sheet name="Txn_Status" sheetId="11" r:id="rId11"/>
+    <sheet name="Status_Txn" sheetId="11" r:id="rId11"/>
     <sheet name="Frequency" sheetId="12" r:id="rId12"/>
     <sheet name="Txn_Income" sheetId="13" r:id="rId13"/>
     <sheet name="Txn_Investment" sheetId="14" r:id="rId14"/>
@@ -43,7 +43,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Txn_Income!$A$1:$K$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Txn_Investment!$A$1:$N$40</definedName>
     <definedName name="Ac_Holder_List">Ac_Holder!$A$2:$A$12</definedName>
-    <definedName name="Ac_Status_List" localSheetId="10">Txn_Status!$A$2:$A$21</definedName>
+    <definedName name="Ac_Status_List" localSheetId="10">Status_Txn!$A$2:$A$21</definedName>
     <definedName name="Ac_Status_List">#REF!</definedName>
     <definedName name="Ac_Tag_Expance_List">Expanse_Ac_Tag!$A$2:$A$116</definedName>
     <definedName name="Ac_Tag_Income_List">Income_Ac_Tag!$A$2:$A$88</definedName>
@@ -51,7 +51,7 @@
     <definedName name="Category_Expanse_List">Expanse_Category!$A$2:$A$39</definedName>
     <definedName name="Category_Income_List">Income_Category!$A$2:$A$12</definedName>
     <definedName name="Frequency_List">Frequency!$A$2:$A$12</definedName>
-    <definedName name="Payment_Mode_List">Txn_Mode!$A$2:$A$13</definedName>
+    <definedName name="Payment_Mode_List">Mode_Txn!$A$2:$A$13</definedName>
     <definedName name="Txn_Status">#REF!</definedName>
     <definedName name="Txn_Status_List">#REF!</definedName>
     <definedName name="Txn_Tag_List">Currency!$A$2:$A$7</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4991" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4979" uniqueCount="1261">
   <si>
     <t>Expense_Holder</t>
   </si>
@@ -3813,9 +3813,6 @@
     <t>Adhoc-10</t>
   </si>
   <si>
-    <t>Txn_Mode</t>
-  </si>
-  <si>
     <t>Ac_Holder</t>
   </si>
   <si>
@@ -3825,9 +3822,6 @@
     <t>Ac_Status</t>
   </si>
   <si>
-    <t>Txn_Status</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -3844,6 +3838,12 @@
   </si>
   <si>
     <t>Amount_Paid</t>
+  </si>
+  <si>
+    <t>Mode_Txn</t>
+  </si>
+  <si>
+    <t>Status_Txn</t>
   </si>
 </sst>
 </file>
@@ -4244,7 +4244,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -4328,7 +4330,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -4413,9 +4415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4424,7 +4424,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -4583,7 +4583,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -4653,13 +4653,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -4673,28 +4683,28 @@
         <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E1" t="s">
         <v>349</v>
       </c>
       <c r="F1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G1" t="s">
         <v>1250</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1251</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1252</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K1" t="s">
         <v>1253</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -8036,8 +8046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8067,7 +8077,7 @@
         <v>278</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>473</v>
@@ -8076,22 +8086,22 @@
         <v>474</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1251</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1252</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -9485,7 +9495,7 @@
   <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9510,10 +9520,10 @@
         <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1257</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1259</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1032</v>
@@ -9522,25 +9532,25 @@
         <v>474</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1252</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -9604,7 +9614,7 @@
         <v>538</v>
       </c>
       <c r="J3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K3" t="s">
         <v>323</v>
@@ -9642,7 +9652,7 @@
         <v>541</v>
       </c>
       <c r="J4" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K4" t="s">
         <v>323</v>
@@ -9680,7 +9690,7 @@
         <v>543</v>
       </c>
       <c r="J5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K5" t="s">
         <v>323</v>
@@ -9718,7 +9728,7 @@
         <v>477</v>
       </c>
       <c r="J6" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K6" t="s">
         <v>323</v>
@@ -9794,7 +9804,7 @@
         <v>551</v>
       </c>
       <c r="J8" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K8" t="s">
         <v>323</v>
@@ -9870,7 +9880,7 @@
         <v>557</v>
       </c>
       <c r="J10" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K10" t="s">
         <v>323</v>
@@ -9908,7 +9918,7 @@
         <v>560</v>
       </c>
       <c r="J11" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K11" t="s">
         <v>323</v>
@@ -9984,7 +9994,7 @@
         <v>402</v>
       </c>
       <c r="J13" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K13" t="s">
         <v>323</v>
@@ -10022,7 +10032,7 @@
         <v>568</v>
       </c>
       <c r="J14" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K14" t="s">
         <v>323</v>
@@ -10098,7 +10108,7 @@
         <v>574</v>
       </c>
       <c r="J16" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K16" t="s">
         <v>323</v>
@@ -10212,7 +10222,7 @@
         <v>583</v>
       </c>
       <c r="J19" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K19" t="s">
         <v>323</v>
@@ -10326,7 +10336,7 @@
         <v>589</v>
       </c>
       <c r="J22" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K22" t="s">
         <v>323</v>
@@ -10402,7 +10412,7 @@
         <v>538</v>
       </c>
       <c r="J24" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K24" t="s">
         <v>323</v>
@@ -10478,7 +10488,7 @@
         <v>600</v>
       </c>
       <c r="J26" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K26" t="s">
         <v>323</v>
@@ -10516,7 +10526,7 @@
         <v>440</v>
       </c>
       <c r="J27" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K27" t="s">
         <v>323</v>
@@ -10630,7 +10640,7 @@
         <v>610</v>
       </c>
       <c r="J30" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K30" t="s">
         <v>323</v>
@@ -10668,7 +10678,7 @@
         <v>613</v>
       </c>
       <c r="J31" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K31" t="s">
         <v>323</v>
@@ -10706,7 +10716,7 @@
         <v>616</v>
       </c>
       <c r="J32" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K32" t="s">
         <v>323</v>
@@ -10934,7 +10944,7 @@
         <v>597</v>
       </c>
       <c r="J38" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K38" t="s">
         <v>323</v>
@@ -11010,7 +11020,7 @@
         <v>638</v>
       </c>
       <c r="J40" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K40" t="s">
         <v>323</v>
@@ -11086,7 +11096,7 @@
         <v>643</v>
       </c>
       <c r="J42" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K42" t="s">
         <v>323</v>
@@ -11200,7 +11210,7 @@
         <v>650</v>
       </c>
       <c r="J45" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K45" t="s">
         <v>323</v>
@@ -11428,7 +11438,7 @@
         <v>665</v>
       </c>
       <c r="J51" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K51" t="s">
         <v>323</v>
@@ -11542,7 +11552,7 @@
         <v>675</v>
       </c>
       <c r="J54" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K54" t="s">
         <v>323</v>
@@ -11694,7 +11704,7 @@
         <v>684</v>
       </c>
       <c r="J58" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K58" t="s">
         <v>323</v>
@@ -11846,7 +11856,7 @@
         <v>695</v>
       </c>
       <c r="J62" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K62" t="s">
         <v>323</v>
@@ -11960,7 +11970,7 @@
         <v>703</v>
       </c>
       <c r="J65" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K65" t="s">
         <v>323</v>
@@ -12036,7 +12046,7 @@
         <v>710</v>
       </c>
       <c r="J67" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K67" t="s">
         <v>323</v>
@@ -12074,7 +12084,7 @@
         <v>713</v>
       </c>
       <c r="J68" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K68" t="s">
         <v>323</v>
@@ -12112,7 +12122,7 @@
         <v>715</v>
       </c>
       <c r="J69" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K69" t="s">
         <v>323</v>
@@ -12188,7 +12198,7 @@
         <v>720</v>
       </c>
       <c r="J71" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K71" t="s">
         <v>323</v>
@@ -12302,7 +12312,7 @@
         <v>729</v>
       </c>
       <c r="J74" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K74" t="s">
         <v>323</v>
@@ -12644,7 +12654,7 @@
         <v>553</v>
       </c>
       <c r="J83" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K83" t="s">
         <v>323</v>
@@ -12682,7 +12692,7 @@
         <v>749</v>
       </c>
       <c r="J84" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K84" t="s">
         <v>323</v>
@@ -12720,7 +12730,7 @@
         <v>752</v>
       </c>
       <c r="J85" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K85" t="s">
         <v>323</v>
@@ -12758,7 +12768,7 @@
         <v>754</v>
       </c>
       <c r="J86" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K86" t="s">
         <v>323</v>
@@ -12834,7 +12844,7 @@
         <v>759</v>
       </c>
       <c r="J88" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K88" t="s">
         <v>323</v>
@@ -13024,7 +13034,7 @@
         <v>630</v>
       </c>
       <c r="J93" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K93" t="s">
         <v>323</v>
@@ -13176,7 +13186,7 @@
         <v>466</v>
       </c>
       <c r="J97" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K97" t="s">
         <v>323</v>
@@ -13214,7 +13224,7 @@
         <v>554</v>
       </c>
       <c r="J98" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K98" t="s">
         <v>323</v>
@@ -13290,7 +13300,7 @@
         <v>787</v>
       </c>
       <c r="J100" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K100" t="s">
         <v>323</v>
@@ -13480,7 +13490,7 @@
         <v>799</v>
       </c>
       <c r="J105" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K105" t="s">
         <v>323</v>
@@ -13746,7 +13756,7 @@
         <v>817</v>
       </c>
       <c r="J112" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K112" t="s">
         <v>323</v>
@@ -13936,7 +13946,7 @@
         <v>640</v>
       </c>
       <c r="J117" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K117" t="s">
         <v>323</v>
@@ -14050,7 +14060,7 @@
         <v>837</v>
       </c>
       <c r="J120" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K120" t="s">
         <v>323</v>
@@ -14316,7 +14326,7 @@
         <v>856</v>
       </c>
       <c r="J127" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K127" t="s">
         <v>323</v>
@@ -14544,7 +14554,7 @@
         <v>866</v>
       </c>
       <c r="J133" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K133" t="s">
         <v>323</v>
@@ -14582,7 +14592,7 @@
         <v>493</v>
       </c>
       <c r="J134" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K134" t="s">
         <v>323</v>
@@ -14620,7 +14630,7 @@
         <v>871</v>
       </c>
       <c r="J135" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K135" t="s">
         <v>323</v>
@@ -14658,7 +14668,7 @@
         <v>874</v>
       </c>
       <c r="J136" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K136" t="s">
         <v>323</v>
@@ -14696,7 +14706,7 @@
         <v>625</v>
       </c>
       <c r="J137" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K137" t="s">
         <v>323</v>
@@ -14810,7 +14820,7 @@
         <v>881</v>
       </c>
       <c r="J140" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K140" t="s">
         <v>323</v>
@@ -14848,7 +14858,7 @@
         <v>884</v>
       </c>
       <c r="J141" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K141" t="s">
         <v>323</v>
@@ -14962,7 +14972,7 @@
         <v>615</v>
       </c>
       <c r="J144" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K144" t="s">
         <v>323</v>
@@ -15000,7 +15010,7 @@
         <v>891</v>
       </c>
       <c r="J145" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K145" t="s">
         <v>323</v>
@@ -15038,7 +15048,7 @@
         <v>894</v>
       </c>
       <c r="J146" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K146" t="s">
         <v>323</v>
@@ -15076,7 +15086,7 @@
         <v>897</v>
       </c>
       <c r="J147" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K147" t="s">
         <v>323</v>
@@ -15114,7 +15124,7 @@
         <v>900</v>
       </c>
       <c r="J148" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K148" t="s">
         <v>323</v>
@@ -15152,7 +15162,7 @@
         <v>903</v>
       </c>
       <c r="J149" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K149" t="s">
         <v>323</v>
@@ -15190,7 +15200,7 @@
         <v>906</v>
       </c>
       <c r="J150" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K150" t="s">
         <v>323</v>
@@ -15228,7 +15238,7 @@
         <v>909</v>
       </c>
       <c r="J151" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K151" t="s">
         <v>323</v>
@@ -15304,7 +15314,7 @@
         <v>914</v>
       </c>
       <c r="J153" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K153" t="s">
         <v>323</v>
@@ -15494,7 +15504,7 @@
         <v>926</v>
       </c>
       <c r="J158" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K158" t="s">
         <v>323</v>
@@ -15684,7 +15694,7 @@
         <v>939</v>
       </c>
       <c r="J163" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K163" t="s">
         <v>323</v>
@@ -15798,7 +15808,7 @@
         <v>947</v>
       </c>
       <c r="J166" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K166" t="s">
         <v>323</v>
@@ -15874,7 +15884,7 @@
         <v>953</v>
       </c>
       <c r="J168" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K168" t="s">
         <v>323</v>
@@ -15950,7 +15960,7 @@
         <v>883</v>
       </c>
       <c r="J170" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K170" t="s">
         <v>323</v>
@@ -16064,7 +16074,7 @@
         <v>373</v>
       </c>
       <c r="J173" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K173" t="s">
         <v>323</v>
@@ -16330,7 +16340,7 @@
         <v>482</v>
       </c>
       <c r="J180" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K180" t="s">
         <v>323</v>
@@ -16406,7 +16416,7 @@
         <v>631</v>
       </c>
       <c r="J182" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K182" t="s">
         <v>323</v>
@@ -16444,7 +16454,7 @@
         <v>985</v>
       </c>
       <c r="J183" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K183" t="s">
         <v>323</v>
@@ -16482,7 +16492,7 @@
         <v>988</v>
       </c>
       <c r="J184" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K184" t="s">
         <v>323</v>
@@ -16520,7 +16530,7 @@
         <v>791</v>
       </c>
       <c r="J185" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K185" t="s">
         <v>323</v>
@@ -16634,7 +16644,7 @@
         <v>997</v>
       </c>
       <c r="J188" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K188" t="s">
         <v>323</v>
@@ -16672,7 +16682,7 @@
         <v>999</v>
       </c>
       <c r="J189" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K189" t="s">
         <v>323</v>
@@ -16786,7 +16796,7 @@
         <v>592</v>
       </c>
       <c r="J192" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K192" t="s">
         <v>323</v>
@@ -16862,7 +16872,7 @@
         <v>1011</v>
       </c>
       <c r="J194" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K194" t="s">
         <v>323</v>
@@ -17052,7 +17062,7 @@
         <v>1022</v>
       </c>
       <c r="J199" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K199" t="s">
         <v>323</v>
@@ -17128,7 +17138,7 @@
         <v>1028</v>
       </c>
       <c r="J201" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K201" t="s">
         <v>323</v>
@@ -17156,7 +17166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -19444,7 +19454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -19727,7 +19737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -21378,15 +21390,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1250</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -21411,7 +21421,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
@@ -21470,7 +21480,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
